--- a/TranslateEstimator/evaluation/ted_talks.xlsx
+++ b/TranslateEstimator/evaluation/ted_talks.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>HE</t>
   </si>
@@ -80,13 +80,169 @@
   </si>
   <si>
     <t>The main differences being that ancient wildcats were more muscular, had striped coats, and were less social towards other cats and humans.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/eva_maria_geigl_the_history_of_the_world_according_to_cats/</t>
+  </si>
+  <si>
+    <t>יש גל חדש של חוקרות מוח שמוצאות הבדלים חשובים בין מוחות של נקבות למוחות של זכרים בקישוריות של הנוירונים, במבנה המוח, בפעילות המוחית.</t>
+  </si>
+  <si>
+    <t>There's a new wave of female neuroscientists that are finding important differences between female and male brains in neuron connectivity, in brain structure, in brain activity.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/karissa_sanbonmatsu_the_biology_of_gender_from_dna_to_the_brain</t>
+  </si>
+  <si>
+    <t>בהתבסס על הגדרה זו, היכן מוצאים בטבע הונאה ע״י בעלי חיים?</t>
+  </si>
+  <si>
+    <t>Based on this definition, where is animal deception seen in nature?</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/eldridge_adams_can_animals_be_deceptive</t>
+  </si>
+  <si>
+    <t>בלי זמן לבזבז, המגהץ מתעורר לחיים, ואתם מצליחים לגהץ את החולצה באופן מושלם.</t>
+  </si>
+  <si>
+    <t>With no time to spare, the iron comes to life, and you manage to get the shirt flawlessly ironed.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/alex_gendler_can_you_solve_the_giant_iron_riddle</t>
+  </si>
+  <si>
+    <t>לא הקדשתי לזה מחשבה שניה, עד ששמעתי בעבודה על סטטיסטיקה שהממה אותי.</t>
+  </si>
+  <si>
+    <t>I didn't even think twice about it, until I heard a statistic at work that shocked me.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/aparna_mehta_where_do_your_online_returns_go</t>
+  </si>
+  <si>
+    <t>המילים בהם השתמשו כדי לשאול שאלה הן חשובות, אבל הכוונות מאחורי השאלה מכתיבות את ההבנה שלהם ולבסוף, את התגובה שלהם.</t>
+  </si>
+  <si>
+    <t>The words they used to ask the question are important, but the intentions behind the question dictate your understanding and ultimately, your response.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/hayley_levitt_who_decides_what_art_means</t>
+  </si>
+  <si>
+    <t>הם מושכים זה את זה על ידי החלפת חלקיקים שנקראים "פוטונים", שהם קוונטים של אור שנושאים את הכוח האלקטרו מגנטי, אחד הכוחות הבסיסיים של המודל הסטנדרטי.</t>
+  </si>
+  <si>
+    <t>They attract each other by exchanging particles called photons, which are quanta of light that carry the electromagnetic force, one of the fundamental forces of the Standard Model.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/jonathan_butterworth_what_s_the_smallest_thing_in_the_universe</t>
+  </si>
+  <si>
+    <t>ראשית ביקרנו ילדים בכיתות הלימוד שלהם והצגנו בפניהם את הפרויקט: מה המשמעות שלו, מדוע דעתם חשובה ומה יקרה עם ההמלצות שלהם.</t>
+  </si>
+  <si>
+    <t>First, we visited children in their classrooms and presented the project: what it was, why their ideas mattered and what would happen with their recommendations.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/mara_mintzer_how_kids_can_help_design_cities</t>
+  </si>
+  <si>
+    <t>במשך הזמן, דליפות חומצה קבועות מצרבת יכולות ליצור רקמת צלקת שמצרה את צינור הוושט, מה שמקשה לבלוע אוכל.</t>
+  </si>
+  <si>
+    <t>Over time, constant acid leakage from heartburn may form scar tissue which narrows the esophageal tube, making it harder to swallow food.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/rusha_modi_what_causes_heartburn</t>
+  </si>
+  <si>
+    <t>המשוואה מקורית לתאור הכוחות הכבידתיים בין שני גופים נכתבה על ידי אייזיק ניוטון ב 1687.</t>
+  </si>
+  <si>
+    <t>The original equation describing the gravitational force between two objects was written by Isaac Newton in 1687.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/rene_laufer_how_far_would_you_have_to_go_to_escape_gravity</t>
+  </si>
+  <si>
+    <t>מהנדסים חייבים להתחשב במשקלים המוכפלים האלה של כל נוסע כשהם מתכננים את התומכות של רכבת ההרים.</t>
+  </si>
+  <si>
+    <t>Engineers have to account for the multiplied weight of every passenger when designing a coaster’s supports.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/brian_d_avery_how_rollercoasters_affect_your_body</t>
+  </si>
+  <si>
+    <t>ומנקודת המבט הביולוגית, ביסודנו, אתם ואני איננו שונים מהאורגניזמים החד-תאיים שבצלוחית הפטרי.</t>
+  </si>
+  <si>
+    <t>Now, from the viewpoint of biology, you and I are not fundamentally different than the protozoa in the petri dish.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/charles_c_mann_how_will_we_survive_when_the_population_hits_10_billion/</t>
+  </si>
+  <si>
+    <t>מדידות הזמן הראשונות היו תצפיות על מחזורים של עולם הטבע, בשימוש בתבניות שינויים מיום ללילה ועונה לעונה כדי לבנות לוחות שנה.</t>
+  </si>
+  <si>
+    <t>The earliest time measurements were observations of cycles of the natural world, using patterns of changes from day to night and season to season to build calendars.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/andrew_zimmerman_jones_does_time_exist</t>
+  </si>
+  <si>
+    <t>אנה נולדה ב 1083, מעט אחרי שאביה תפס את שלטון של האימפריה הרומית אחרי עשור של מלחמות אזרחים ברוטליות והתמרדויות.</t>
+  </si>
+  <si>
+    <t>Anna was born in 1083, shortly after her father seized control of the Roman Empire following a decade of brutal civil wars and revolts.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/leonora_neville_the_princess_who_rewrote_history</t>
+  </si>
+  <si>
+    <t>ספורטיבי למדי לתת הרצאה תוך כדי הסתבכות עם טרנטולה, עלי להודות.</t>
+  </si>
+  <si>
+    <t>It's actually quite sporty to give a speech while wrangling a tarantula, I have to say.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/michel_dugon_spider_dust_and_scorpion_juice_are_bugs_the_future_of_therapeutic_drugs/</t>
+  </si>
+  <si>
+    <t>כעבור פחות ממאה שנה, נשמעה אותה תחזית ביחס למכוניות, טלפונים, מכשירי רדיו, טלוויזיה ומחשבים.</t>
+  </si>
+  <si>
+    <t>Less than a century later, people repeated that same prediction about cars, telephones, radio, television, and computers.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/bence_nanay_the_end_of_history_illusion</t>
+  </si>
+  <si>
+    <t>אני שחקנית פוקר מקצועית, והיום ברצוני לדבר על שלושה דברים שהמשחק הזה לימד אותי בנוגע לקבלת החלטות, שלדעתי יפים גם לחיי היומיום.</t>
+  </si>
+  <si>
+    <t>So I'm a professional poker player, and today, I want to talk about three things that the game has taught me around decision-making that I find apply to everyday life.</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/liv_boeree_3_lessons_on_decision_making_from_a_poker_champion</t>
+  </si>
+  <si>
+    <t>בסיפור הקצר "פונס הזכרן", חורחה לואיס בורחס חוקר איך זה להיות בעל זכרון מושלם.</t>
+  </si>
+  <si>
+    <t>In the short story “Funes, the Memorious,” Jorge Luis Borges explores what it would be like to have a perfect memory</t>
+  </si>
+  <si>
+    <t>https://www.ted.com/talks/ilan_stavans_the_magical_mathematical_fictions_of_jorge_luis_borges/transcript?language=en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -94,11 +250,7 @@
     </font>
     <font/>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <sz val="10.0"/>
       <color rgb="FF333333"/>
       <name val="Inter"/>
     </font>
@@ -107,17 +259,25 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
+      <sz val="10.0"/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="10.0"/>
-      <color rgb="FF333333"/>
-      <name val="Inter"/>
     </font>
     <font>
+      <u/>
       <sz val="10.0"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -141,20 +301,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -166,23 +326,29 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,9 +566,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.29"/>
-    <col customWidth="1" min="2" max="2" width="26.86"/>
-    <col customWidth="1" min="3" max="3" width="21.0"/>
+    <col customWidth="1" min="1" max="1" width="36.86"/>
+    <col customWidth="1" min="2" max="2" width="38.57"/>
+    <col customWidth="1" min="3" max="3" width="30.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,5005 +620,5109 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
+      <c r="A180" s="15"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
+      <c r="A181" s="15"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+      <c r="A182" s="15"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
+      <c r="A184" s="15"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="A186" s="15"/>
+      <c r="B186" s="15"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+      <c r="A188" s="15"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="15"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="2"/>
     </row>
     <row r="192">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="2"/>
     </row>
     <row r="193">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="2"/>
     </row>
     <row r="196">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+      <c r="A196" s="15"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="2"/>
     </row>
     <row r="197">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="2"/>
     </row>
     <row r="198">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+      <c r="A198" s="15"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="2"/>
     </row>
     <row r="199">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+      <c r="A199" s="15"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="2"/>
     </row>
     <row r="200">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+      <c r="A200" s="15"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
+      <c r="A201" s="15"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="2"/>
     </row>
     <row r="202">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
+      <c r="A202" s="15"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="2"/>
     </row>
     <row r="203">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
+      <c r="A203" s="15"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="2"/>
     </row>
     <row r="204">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
+      <c r="A204" s="15"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
+      <c r="A205" s="15"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="2"/>
     </row>
     <row r="206">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
+      <c r="A206" s="15"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
+      <c r="A207" s="15"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
+      <c r="A208" s="15"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
+      <c r="A209" s="15"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="2"/>
     </row>
     <row r="210">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="15"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="2"/>
     </row>
     <row r="211">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="15"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="2"/>
     </row>
     <row r="212">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
+      <c r="A212" s="15"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="2"/>
     </row>
     <row r="213">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
+      <c r="A213" s="15"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="2"/>
     </row>
     <row r="214">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="15"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="2"/>
     </row>
     <row r="215">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="15"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="2"/>
     </row>
     <row r="216">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
+      <c r="A216" s="15"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="2"/>
     </row>
     <row r="217">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
+      <c r="A217" s="15"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="2"/>
     </row>
     <row r="218">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
+      <c r="A218" s="15"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="2"/>
     </row>
     <row r="219">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="15"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="2"/>
     </row>
     <row r="220">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="15"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="2"/>
     </row>
     <row r="221">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="15"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="2"/>
     </row>
     <row r="222">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
+      <c r="A222" s="15"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="2"/>
     </row>
     <row r="223">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="15"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="2"/>
     </row>
     <row r="224">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
+      <c r="A224" s="15"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="2"/>
     </row>
     <row r="225">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
+      <c r="A225" s="15"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="2"/>
     </row>
     <row r="226">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="15"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="2"/>
     </row>
     <row r="227">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
+      <c r="A227" s="15"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="2"/>
     </row>
     <row r="228">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
+      <c r="A228" s="15"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
+      <c r="A229" s="15"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="2"/>
     </row>
     <row r="230">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
+      <c r="A230" s="15"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
+      <c r="A231" s="15"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
+      <c r="A232" s="15"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
+      <c r="A233" s="15"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="2"/>
     </row>
     <row r="234">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="15"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="2"/>
     </row>
     <row r="235">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
+      <c r="A235" s="15"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="2"/>
     </row>
     <row r="236">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
+      <c r="A236" s="15"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="2"/>
     </row>
     <row r="237">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="15"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="2"/>
     </row>
     <row r="238">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
+      <c r="A238" s="15"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="2"/>
     </row>
     <row r="239">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
+      <c r="A239" s="15"/>
+      <c r="B239" s="15"/>
       <c r="C239" s="2"/>
     </row>
     <row r="240">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
+      <c r="A240" s="15"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="15"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="2"/>
     </row>
     <row r="242">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
+      <c r="A242" s="15"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="2"/>
     </row>
     <row r="243">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
+      <c r="A243" s="15"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
+      <c r="A244" s="15"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
+      <c r="A245" s="15"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="2"/>
     </row>
     <row r="246">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
+      <c r="A246" s="15"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="2"/>
     </row>
     <row r="247">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
+      <c r="A247" s="15"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="2"/>
     </row>
     <row r="248">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
+      <c r="A248" s="15"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
+      <c r="A249" s="15"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="2"/>
     </row>
     <row r="250">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
+      <c r="A250" s="15"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
+      <c r="A251" s="15"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="2"/>
     </row>
     <row r="252">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
+      <c r="A252" s="15"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
+      <c r="A253" s="15"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="2"/>
     </row>
     <row r="254">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
+      <c r="A254" s="15"/>
+      <c r="B254" s="15"/>
       <c r="C254" s="2"/>
     </row>
     <row r="255">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
+      <c r="A255" s="15"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="2"/>
     </row>
     <row r="256">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
+      <c r="A256" s="15"/>
+      <c r="B256" s="15"/>
       <c r="C256" s="2"/>
     </row>
     <row r="257">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="15"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="15"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="2"/>
     </row>
     <row r="259">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="15"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="A260" s="15"/>
+      <c r="B260" s="15"/>
       <c r="C260" s="2"/>
     </row>
     <row r="261">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
+      <c r="A261" s="15"/>
+      <c r="B261" s="15"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
+      <c r="A262" s="15"/>
+      <c r="B262" s="15"/>
       <c r="C262" s="2"/>
     </row>
     <row r="263">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
+      <c r="A263" s="15"/>
+      <c r="B263" s="15"/>
       <c r="C263" s="2"/>
     </row>
     <row r="264">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
+      <c r="A264" s="15"/>
+      <c r="B264" s="15"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
+      <c r="A265" s="15"/>
+      <c r="B265" s="15"/>
       <c r="C265" s="2"/>
     </row>
     <row r="266">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
+      <c r="A266" s="15"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="2"/>
     </row>
     <row r="267">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
+      <c r="A267" s="15"/>
+      <c r="B267" s="15"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
+      <c r="A268" s="15"/>
+      <c r="B268" s="15"/>
       <c r="C268" s="2"/>
     </row>
     <row r="269">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
+      <c r="A269" s="15"/>
+      <c r="B269" s="15"/>
       <c r="C269" s="2"/>
     </row>
     <row r="270">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
+      <c r="A270" s="15"/>
+      <c r="B270" s="15"/>
       <c r="C270" s="2"/>
     </row>
     <row r="271">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
+      <c r="A271" s="15"/>
+      <c r="B271" s="15"/>
       <c r="C271" s="2"/>
     </row>
     <row r="272">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
+      <c r="A272" s="15"/>
+      <c r="B272" s="15"/>
       <c r="C272" s="2"/>
     </row>
     <row r="273">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
+      <c r="A273" s="15"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="2"/>
     </row>
     <row r="274">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
+      <c r="A274" s="15"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="2"/>
     </row>
     <row r="275">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
+      <c r="A275" s="15"/>
+      <c r="B275" s="15"/>
       <c r="C275" s="2"/>
     </row>
     <row r="276">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
+      <c r="A276" s="15"/>
+      <c r="B276" s="15"/>
       <c r="C276" s="2"/>
     </row>
     <row r="277">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
+      <c r="A277" s="15"/>
+      <c r="B277" s="15"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
+      <c r="A278" s="15"/>
+      <c r="B278" s="15"/>
       <c r="C278" s="2"/>
     </row>
     <row r="279">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
+      <c r="A279" s="15"/>
+      <c r="B279" s="15"/>
       <c r="C279" s="2"/>
     </row>
     <row r="280">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
+      <c r="A280" s="15"/>
+      <c r="B280" s="15"/>
       <c r="C280" s="2"/>
     </row>
     <row r="281">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
+      <c r="A281" s="15"/>
+      <c r="B281" s="15"/>
       <c r="C281" s="2"/>
     </row>
     <row r="282">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
+      <c r="A282" s="15"/>
+      <c r="B282" s="15"/>
       <c r="C282" s="2"/>
     </row>
     <row r="283">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
+      <c r="A283" s="15"/>
+      <c r="B283" s="15"/>
       <c r="C283" s="2"/>
     </row>
     <row r="284">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
+      <c r="A284" s="15"/>
+      <c r="B284" s="15"/>
       <c r="C284" s="2"/>
     </row>
     <row r="285">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
+      <c r="A285" s="15"/>
+      <c r="B285" s="15"/>
       <c r="C285" s="2"/>
     </row>
     <row r="286">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
+      <c r="A286" s="15"/>
+      <c r="B286" s="15"/>
       <c r="C286" s="2"/>
     </row>
     <row r="287">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
+      <c r="A287" s="15"/>
+      <c r="B287" s="15"/>
       <c r="C287" s="2"/>
     </row>
     <row r="288">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+      <c r="A288" s="15"/>
+      <c r="B288" s="15"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
+      <c r="A289" s="15"/>
+      <c r="B289" s="15"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
+      <c r="A290" s="15"/>
+      <c r="B290" s="15"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
+      <c r="A291" s="15"/>
+      <c r="B291" s="15"/>
       <c r="C291" s="2"/>
     </row>
     <row r="292">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
+      <c r="A292" s="15"/>
+      <c r="B292" s="15"/>
       <c r="C292" s="2"/>
     </row>
     <row r="293">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
+      <c r="A293" s="15"/>
+      <c r="B293" s="15"/>
       <c r="C293" s="2"/>
     </row>
     <row r="294">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
+      <c r="A294" s="15"/>
+      <c r="B294" s="15"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
+      <c r="A295" s="15"/>
+      <c r="B295" s="15"/>
       <c r="C295" s="2"/>
     </row>
     <row r="296">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
+      <c r="A296" s="15"/>
+      <c r="B296" s="15"/>
       <c r="C296" s="2"/>
     </row>
     <row r="297">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
+      <c r="A297" s="15"/>
+      <c r="B297" s="15"/>
       <c r="C297" s="2"/>
     </row>
     <row r="298">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
+      <c r="A298" s="15"/>
+      <c r="B298" s="15"/>
       <c r="C298" s="2"/>
     </row>
     <row r="299">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
+      <c r="A299" s="15"/>
+      <c r="B299" s="15"/>
       <c r="C299" s="2"/>
     </row>
     <row r="300">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
+      <c r="A300" s="15"/>
+      <c r="B300" s="15"/>
       <c r="C300" s="2"/>
     </row>
     <row r="301">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
+      <c r="A301" s="15"/>
+      <c r="B301" s="15"/>
       <c r="C301" s="2"/>
     </row>
     <row r="302">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
+      <c r="A302" s="15"/>
+      <c r="B302" s="15"/>
       <c r="C302" s="2"/>
     </row>
     <row r="303">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
+      <c r="A303" s="15"/>
+      <c r="B303" s="15"/>
       <c r="C303" s="2"/>
     </row>
     <row r="304">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
+      <c r="A304" s="15"/>
+      <c r="B304" s="15"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
+      <c r="A305" s="15"/>
+      <c r="B305" s="15"/>
       <c r="C305" s="2"/>
     </row>
     <row r="306">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
+      <c r="A306" s="15"/>
+      <c r="B306" s="15"/>
       <c r="C306" s="2"/>
     </row>
     <row r="307">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
+      <c r="A307" s="15"/>
+      <c r="B307" s="15"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
+      <c r="A308" s="15"/>
+      <c r="B308" s="15"/>
       <c r="C308" s="2"/>
     </row>
     <row r="309">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
+      <c r="A309" s="15"/>
+      <c r="B309" s="15"/>
       <c r="C309" s="2"/>
     </row>
     <row r="310">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
+      <c r="A310" s="15"/>
+      <c r="B310" s="15"/>
       <c r="C310" s="2"/>
     </row>
     <row r="311">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
+      <c r="A311" s="15"/>
+      <c r="B311" s="15"/>
       <c r="C311" s="2"/>
     </row>
     <row r="312">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
+      <c r="A312" s="15"/>
+      <c r="B312" s="15"/>
       <c r="C312" s="2"/>
     </row>
     <row r="313">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
+      <c r="A313" s="15"/>
+      <c r="B313" s="15"/>
       <c r="C313" s="2"/>
     </row>
     <row r="314">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
+      <c r="A314" s="15"/>
+      <c r="B314" s="15"/>
       <c r="C314" s="2"/>
     </row>
     <row r="315">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
+      <c r="A315" s="15"/>
+      <c r="B315" s="15"/>
       <c r="C315" s="2"/>
     </row>
     <row r="316">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
+      <c r="A316" s="15"/>
+      <c r="B316" s="15"/>
       <c r="C316" s="2"/>
     </row>
     <row r="317">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
+      <c r="A317" s="15"/>
+      <c r="B317" s="15"/>
       <c r="C317" s="2"/>
     </row>
     <row r="318">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
+      <c r="A318" s="15"/>
+      <c r="B318" s="15"/>
       <c r="C318" s="2"/>
     </row>
     <row r="319">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
+      <c r="A319" s="15"/>
+      <c r="B319" s="15"/>
       <c r="C319" s="2"/>
     </row>
     <row r="320">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
+      <c r="A320" s="15"/>
+      <c r="B320" s="15"/>
       <c r="C320" s="2"/>
     </row>
     <row r="321">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
+      <c r="A321" s="15"/>
+      <c r="B321" s="15"/>
       <c r="C321" s="2"/>
     </row>
     <row r="322">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
+      <c r="A322" s="15"/>
+      <c r="B322" s="15"/>
       <c r="C322" s="2"/>
     </row>
     <row r="323">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
+      <c r="A323" s="15"/>
+      <c r="B323" s="15"/>
       <c r="C323" s="2"/>
     </row>
     <row r="324">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
+      <c r="A324" s="15"/>
+      <c r="B324" s="15"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
+      <c r="A325" s="15"/>
+      <c r="B325" s="15"/>
       <c r="C325" s="2"/>
     </row>
     <row r="326">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
+      <c r="A326" s="15"/>
+      <c r="B326" s="15"/>
       <c r="C326" s="2"/>
     </row>
     <row r="327">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
+      <c r="A327" s="15"/>
+      <c r="B327" s="15"/>
       <c r="C327" s="2"/>
     </row>
     <row r="328">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
+      <c r="A328" s="15"/>
+      <c r="B328" s="15"/>
       <c r="C328" s="2"/>
     </row>
     <row r="329">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
+      <c r="A329" s="15"/>
+      <c r="B329" s="15"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
+      <c r="A330" s="15"/>
+      <c r="B330" s="15"/>
       <c r="C330" s="2"/>
     </row>
     <row r="331">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
+      <c r="A331" s="15"/>
+      <c r="B331" s="15"/>
       <c r="C331" s="2"/>
     </row>
     <row r="332">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
+      <c r="A332" s="15"/>
+      <c r="B332" s="15"/>
       <c r="C332" s="2"/>
     </row>
     <row r="333">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
+      <c r="A333" s="15"/>
+      <c r="B333" s="15"/>
       <c r="C333" s="2"/>
     </row>
     <row r="334">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
+      <c r="A334" s="15"/>
+      <c r="B334" s="15"/>
       <c r="C334" s="2"/>
     </row>
     <row r="335">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
+      <c r="A335" s="15"/>
+      <c r="B335" s="15"/>
       <c r="C335" s="2"/>
     </row>
     <row r="336">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
+      <c r="A336" s="15"/>
+      <c r="B336" s="15"/>
       <c r="C336" s="2"/>
     </row>
     <row r="337">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
+      <c r="A337" s="15"/>
+      <c r="B337" s="15"/>
       <c r="C337" s="2"/>
     </row>
     <row r="338">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
+      <c r="A338" s="15"/>
+      <c r="B338" s="15"/>
       <c r="C338" s="2"/>
     </row>
     <row r="339">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
+      <c r="A339" s="15"/>
+      <c r="B339" s="15"/>
       <c r="C339" s="2"/>
     </row>
     <row r="340">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
+      <c r="A340" s="15"/>
+      <c r="B340" s="15"/>
       <c r="C340" s="2"/>
     </row>
     <row r="341">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
+      <c r="A341" s="15"/>
+      <c r="B341" s="15"/>
       <c r="C341" s="2"/>
     </row>
     <row r="342">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
+      <c r="A342" s="15"/>
+      <c r="B342" s="15"/>
       <c r="C342" s="2"/>
     </row>
     <row r="343">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
+      <c r="A343" s="15"/>
+      <c r="B343" s="15"/>
       <c r="C343" s="2"/>
     </row>
     <row r="344">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
+      <c r="A344" s="15"/>
+      <c r="B344" s="15"/>
       <c r="C344" s="2"/>
     </row>
     <row r="345">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
+      <c r="A345" s="15"/>
+      <c r="B345" s="15"/>
       <c r="C345" s="2"/>
     </row>
     <row r="346">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
+      <c r="A346" s="15"/>
+      <c r="B346" s="15"/>
       <c r="C346" s="2"/>
     </row>
     <row r="347">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
+      <c r="A347" s="15"/>
+      <c r="B347" s="15"/>
       <c r="C347" s="2"/>
     </row>
     <row r="348">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
+      <c r="A348" s="15"/>
+      <c r="B348" s="15"/>
       <c r="C348" s="2"/>
     </row>
     <row r="349">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
+      <c r="A349" s="15"/>
+      <c r="B349" s="15"/>
       <c r="C349" s="2"/>
     </row>
     <row r="350">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
+      <c r="A350" s="15"/>
+      <c r="B350" s="15"/>
       <c r="C350" s="2"/>
     </row>
     <row r="351">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
+      <c r="A351" s="15"/>
+      <c r="B351" s="15"/>
       <c r="C351" s="2"/>
     </row>
     <row r="352">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
+      <c r="A352" s="15"/>
+      <c r="B352" s="15"/>
       <c r="C352" s="2"/>
     </row>
     <row r="353">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
+      <c r="A353" s="15"/>
+      <c r="B353" s="15"/>
       <c r="C353" s="2"/>
     </row>
     <row r="354">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
+      <c r="A354" s="15"/>
+      <c r="B354" s="15"/>
       <c r="C354" s="2"/>
     </row>
     <row r="355">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
+      <c r="A355" s="15"/>
+      <c r="B355" s="15"/>
       <c r="C355" s="2"/>
     </row>
     <row r="356">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
+      <c r="A356" s="15"/>
+      <c r="B356" s="15"/>
       <c r="C356" s="2"/>
     </row>
     <row r="357">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
+      <c r="A357" s="15"/>
+      <c r="B357" s="15"/>
       <c r="C357" s="2"/>
     </row>
     <row r="358">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
+      <c r="A358" s="15"/>
+      <c r="B358" s="15"/>
       <c r="C358" s="2"/>
     </row>
     <row r="359">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
+      <c r="A359" s="15"/>
+      <c r="B359" s="15"/>
       <c r="C359" s="2"/>
     </row>
     <row r="360">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
+      <c r="A360" s="15"/>
+      <c r="B360" s="15"/>
       <c r="C360" s="2"/>
     </row>
     <row r="361">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
+      <c r="A361" s="15"/>
+      <c r="B361" s="15"/>
       <c r="C361" s="2"/>
     </row>
     <row r="362">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
+      <c r="A362" s="15"/>
+      <c r="B362" s="15"/>
       <c r="C362" s="2"/>
     </row>
     <row r="363">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
+      <c r="A363" s="15"/>
+      <c r="B363" s="15"/>
       <c r="C363" s="2"/>
     </row>
     <row r="364">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
+      <c r="A364" s="15"/>
+      <c r="B364" s="15"/>
       <c r="C364" s="2"/>
     </row>
     <row r="365">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
+      <c r="A365" s="15"/>
+      <c r="B365" s="15"/>
       <c r="C365" s="2"/>
     </row>
     <row r="366">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
+      <c r="A366" s="15"/>
+      <c r="B366" s="15"/>
       <c r="C366" s="2"/>
     </row>
     <row r="367">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
+      <c r="A367" s="15"/>
+      <c r="B367" s="15"/>
       <c r="C367" s="2"/>
     </row>
     <row r="368">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
+      <c r="A368" s="15"/>
+      <c r="B368" s="15"/>
       <c r="C368" s="2"/>
     </row>
     <row r="369">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
+      <c r="A369" s="15"/>
+      <c r="B369" s="15"/>
       <c r="C369" s="2"/>
     </row>
     <row r="370">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
+      <c r="A370" s="15"/>
+      <c r="B370" s="15"/>
       <c r="C370" s="2"/>
     </row>
     <row r="371">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
+      <c r="A371" s="15"/>
+      <c r="B371" s="15"/>
       <c r="C371" s="2"/>
     </row>
     <row r="372">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
+      <c r="A372" s="15"/>
+      <c r="B372" s="15"/>
       <c r="C372" s="2"/>
     </row>
     <row r="373">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
+      <c r="A373" s="15"/>
+      <c r="B373" s="15"/>
       <c r="C373" s="2"/>
     </row>
     <row r="374">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
+      <c r="A374" s="15"/>
+      <c r="B374" s="15"/>
       <c r="C374" s="2"/>
     </row>
     <row r="375">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
+      <c r="A375" s="15"/>
+      <c r="B375" s="15"/>
       <c r="C375" s="2"/>
     </row>
     <row r="376">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
+      <c r="A376" s="15"/>
+      <c r="B376" s="15"/>
       <c r="C376" s="2"/>
     </row>
     <row r="377">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
+      <c r="A377" s="15"/>
+      <c r="B377" s="15"/>
       <c r="C377" s="2"/>
     </row>
     <row r="378">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
+      <c r="A378" s="15"/>
+      <c r="B378" s="15"/>
       <c r="C378" s="2"/>
     </row>
     <row r="379">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
+      <c r="A379" s="15"/>
+      <c r="B379" s="15"/>
       <c r="C379" s="2"/>
     </row>
     <row r="380">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
+      <c r="A380" s="15"/>
+      <c r="B380" s="15"/>
       <c r="C380" s="2"/>
     </row>
     <row r="381">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
+      <c r="A381" s="15"/>
+      <c r="B381" s="15"/>
       <c r="C381" s="2"/>
     </row>
     <row r="382">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
+      <c r="A382" s="15"/>
+      <c r="B382" s="15"/>
       <c r="C382" s="2"/>
     </row>
     <row r="383">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
+      <c r="A383" s="15"/>
+      <c r="B383" s="15"/>
       <c r="C383" s="2"/>
     </row>
     <row r="384">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
+      <c r="A384" s="15"/>
+      <c r="B384" s="15"/>
       <c r="C384" s="2"/>
     </row>
     <row r="385">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
+      <c r="A385" s="15"/>
+      <c r="B385" s="15"/>
       <c r="C385" s="2"/>
     </row>
     <row r="386">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
+      <c r="A386" s="15"/>
+      <c r="B386" s="15"/>
       <c r="C386" s="2"/>
     </row>
     <row r="387">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
+      <c r="A387" s="15"/>
+      <c r="B387" s="15"/>
       <c r="C387" s="2"/>
     </row>
     <row r="388">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
+      <c r="A388" s="15"/>
+      <c r="B388" s="15"/>
       <c r="C388" s="2"/>
     </row>
     <row r="389">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
+      <c r="A389" s="15"/>
+      <c r="B389" s="15"/>
       <c r="C389" s="2"/>
     </row>
     <row r="390">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
+      <c r="A390" s="15"/>
+      <c r="B390" s="15"/>
       <c r="C390" s="2"/>
     </row>
     <row r="391">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
+      <c r="A391" s="15"/>
+      <c r="B391" s="15"/>
       <c r="C391" s="2"/>
     </row>
     <row r="392">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
+      <c r="A392" s="15"/>
+      <c r="B392" s="15"/>
       <c r="C392" s="2"/>
     </row>
     <row r="393">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
+      <c r="A393" s="15"/>
+      <c r="B393" s="15"/>
       <c r="C393" s="2"/>
     </row>
     <row r="394">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
+      <c r="A394" s="15"/>
+      <c r="B394" s="15"/>
       <c r="C394" s="2"/>
     </row>
     <row r="395">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
+      <c r="A395" s="15"/>
+      <c r="B395" s="15"/>
       <c r="C395" s="2"/>
     </row>
     <row r="396">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
+      <c r="A396" s="15"/>
+      <c r="B396" s="15"/>
       <c r="C396" s="2"/>
     </row>
     <row r="397">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
+      <c r="A397" s="15"/>
+      <c r="B397" s="15"/>
       <c r="C397" s="2"/>
     </row>
     <row r="398">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
+      <c r="A398" s="15"/>
+      <c r="B398" s="15"/>
       <c r="C398" s="2"/>
     </row>
     <row r="399">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
+      <c r="A399" s="15"/>
+      <c r="B399" s="15"/>
       <c r="C399" s="2"/>
     </row>
     <row r="400">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
+      <c r="A400" s="15"/>
+      <c r="B400" s="15"/>
       <c r="C400" s="2"/>
     </row>
     <row r="401">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
+      <c r="A401" s="15"/>
+      <c r="B401" s="15"/>
       <c r="C401" s="2"/>
     </row>
     <row r="402">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
+      <c r="A402" s="15"/>
+      <c r="B402" s="15"/>
       <c r="C402" s="2"/>
     </row>
     <row r="403">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
+      <c r="A403" s="15"/>
+      <c r="B403" s="15"/>
       <c r="C403" s="2"/>
     </row>
     <row r="404">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
+      <c r="A404" s="15"/>
+      <c r="B404" s="15"/>
       <c r="C404" s="2"/>
     </row>
     <row r="405">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
+      <c r="A405" s="15"/>
+      <c r="B405" s="15"/>
       <c r="C405" s="2"/>
     </row>
     <row r="406">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
+      <c r="A406" s="15"/>
+      <c r="B406" s="15"/>
       <c r="C406" s="2"/>
     </row>
     <row r="407">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
+      <c r="A407" s="15"/>
+      <c r="B407" s="15"/>
       <c r="C407" s="2"/>
     </row>
     <row r="408">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
+      <c r="A408" s="15"/>
+      <c r="B408" s="15"/>
       <c r="C408" s="2"/>
     </row>
     <row r="409">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
+      <c r="A409" s="15"/>
+      <c r="B409" s="15"/>
       <c r="C409" s="2"/>
     </row>
     <row r="410">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
+      <c r="A410" s="15"/>
+      <c r="B410" s="15"/>
       <c r="C410" s="2"/>
     </row>
     <row r="411">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
+      <c r="A411" s="15"/>
+      <c r="B411" s="15"/>
       <c r="C411" s="2"/>
     </row>
     <row r="412">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
+      <c r="A412" s="15"/>
+      <c r="B412" s="15"/>
       <c r="C412" s="2"/>
     </row>
     <row r="413">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
+      <c r="A413" s="15"/>
+      <c r="B413" s="15"/>
       <c r="C413" s="2"/>
     </row>
     <row r="414">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
+      <c r="A414" s="15"/>
+      <c r="B414" s="15"/>
       <c r="C414" s="2"/>
     </row>
     <row r="415">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
+      <c r="A415" s="15"/>
+      <c r="B415" s="15"/>
       <c r="C415" s="2"/>
     </row>
     <row r="416">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
+      <c r="A416" s="15"/>
+      <c r="B416" s="15"/>
       <c r="C416" s="2"/>
     </row>
     <row r="417">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
+      <c r="A417" s="15"/>
+      <c r="B417" s="15"/>
       <c r="C417" s="2"/>
     </row>
     <row r="418">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
+      <c r="A418" s="15"/>
+      <c r="B418" s="15"/>
       <c r="C418" s="2"/>
     </row>
     <row r="419">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
+      <c r="A419" s="15"/>
+      <c r="B419" s="15"/>
       <c r="C419" s="2"/>
     </row>
     <row r="420">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
+      <c r="A420" s="15"/>
+      <c r="B420" s="15"/>
       <c r="C420" s="2"/>
     </row>
     <row r="421">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
+      <c r="A421" s="15"/>
+      <c r="B421" s="15"/>
       <c r="C421" s="2"/>
     </row>
     <row r="422">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
+      <c r="A422" s="15"/>
+      <c r="B422" s="15"/>
       <c r="C422" s="2"/>
     </row>
     <row r="423">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
+      <c r="A423" s="15"/>
+      <c r="B423" s="15"/>
       <c r="C423" s="2"/>
     </row>
     <row r="424">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
+      <c r="A424" s="15"/>
+      <c r="B424" s="15"/>
       <c r="C424" s="2"/>
     </row>
     <row r="425">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
+      <c r="A425" s="15"/>
+      <c r="B425" s="15"/>
       <c r="C425" s="2"/>
     </row>
     <row r="426">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
+      <c r="A426" s="15"/>
+      <c r="B426" s="15"/>
       <c r="C426" s="2"/>
     </row>
     <row r="427">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
+      <c r="A427" s="15"/>
+      <c r="B427" s="15"/>
       <c r="C427" s="2"/>
     </row>
     <row r="428">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
+      <c r="A428" s="15"/>
+      <c r="B428" s="15"/>
       <c r="C428" s="2"/>
     </row>
     <row r="429">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
+      <c r="A429" s="15"/>
+      <c r="B429" s="15"/>
       <c r="C429" s="2"/>
     </row>
     <row r="430">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
+      <c r="A430" s="15"/>
+      <c r="B430" s="15"/>
       <c r="C430" s="2"/>
     </row>
     <row r="431">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
+      <c r="A431" s="15"/>
+      <c r="B431" s="15"/>
       <c r="C431" s="2"/>
     </row>
     <row r="432">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
+      <c r="A432" s="15"/>
+      <c r="B432" s="15"/>
       <c r="C432" s="2"/>
     </row>
     <row r="433">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
+      <c r="A433" s="15"/>
+      <c r="B433" s="15"/>
       <c r="C433" s="2"/>
     </row>
     <row r="434">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
+      <c r="A434" s="15"/>
+      <c r="B434" s="15"/>
       <c r="C434" s="2"/>
     </row>
     <row r="435">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
+      <c r="A435" s="15"/>
+      <c r="B435" s="15"/>
       <c r="C435" s="2"/>
     </row>
     <row r="436">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
+      <c r="A436" s="15"/>
+      <c r="B436" s="15"/>
       <c r="C436" s="2"/>
     </row>
     <row r="437">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
+      <c r="A437" s="15"/>
+      <c r="B437" s="15"/>
       <c r="C437" s="2"/>
     </row>
     <row r="438">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
+      <c r="A438" s="15"/>
+      <c r="B438" s="15"/>
       <c r="C438" s="2"/>
     </row>
     <row r="439">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
+      <c r="A439" s="15"/>
+      <c r="B439" s="15"/>
       <c r="C439" s="2"/>
     </row>
     <row r="440">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
+      <c r="A440" s="15"/>
+      <c r="B440" s="15"/>
       <c r="C440" s="2"/>
     </row>
     <row r="441">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
+      <c r="A441" s="15"/>
+      <c r="B441" s="15"/>
       <c r="C441" s="2"/>
     </row>
     <row r="442">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
+      <c r="A442" s="15"/>
+      <c r="B442" s="15"/>
       <c r="C442" s="2"/>
     </row>
     <row r="443">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
+      <c r="A443" s="15"/>
+      <c r="B443" s="15"/>
       <c r="C443" s="2"/>
     </row>
     <row r="444">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
+      <c r="A444" s="15"/>
+      <c r="B444" s="15"/>
       <c r="C444" s="2"/>
     </row>
     <row r="445">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
+      <c r="A445" s="15"/>
+      <c r="B445" s="15"/>
       <c r="C445" s="2"/>
     </row>
     <row r="446">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
+      <c r="A446" s="15"/>
+      <c r="B446" s="15"/>
       <c r="C446" s="2"/>
     </row>
     <row r="447">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
+      <c r="A447" s="15"/>
+      <c r="B447" s="15"/>
       <c r="C447" s="2"/>
     </row>
     <row r="448">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
+      <c r="A448" s="15"/>
+      <c r="B448" s="15"/>
       <c r="C448" s="2"/>
     </row>
     <row r="449">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
+      <c r="A449" s="15"/>
+      <c r="B449" s="15"/>
       <c r="C449" s="2"/>
     </row>
     <row r="450">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
+      <c r="A450" s="15"/>
+      <c r="B450" s="15"/>
       <c r="C450" s="2"/>
     </row>
     <row r="451">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
+      <c r="A451" s="15"/>
+      <c r="B451" s="15"/>
       <c r="C451" s="2"/>
     </row>
     <row r="452">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
+      <c r="A452" s="15"/>
+      <c r="B452" s="15"/>
       <c r="C452" s="2"/>
     </row>
     <row r="453">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
+      <c r="A453" s="15"/>
+      <c r="B453" s="15"/>
       <c r="C453" s="2"/>
     </row>
     <row r="454">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
+      <c r="A454" s="15"/>
+      <c r="B454" s="15"/>
       <c r="C454" s="2"/>
     </row>
     <row r="455">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
+      <c r="A455" s="15"/>
+      <c r="B455" s="15"/>
       <c r="C455" s="2"/>
     </row>
     <row r="456">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
+      <c r="A456" s="15"/>
+      <c r="B456" s="15"/>
       <c r="C456" s="2"/>
     </row>
     <row r="457">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
+      <c r="A457" s="15"/>
+      <c r="B457" s="15"/>
       <c r="C457" s="2"/>
     </row>
     <row r="458">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
+      <c r="A458" s="15"/>
+      <c r="B458" s="15"/>
       <c r="C458" s="2"/>
     </row>
     <row r="459">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
+      <c r="A459" s="15"/>
+      <c r="B459" s="15"/>
       <c r="C459" s="2"/>
     </row>
     <row r="460">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
+      <c r="A460" s="15"/>
+      <c r="B460" s="15"/>
       <c r="C460" s="2"/>
     </row>
     <row r="461">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
+      <c r="A461" s="15"/>
+      <c r="B461" s="15"/>
       <c r="C461" s="2"/>
     </row>
     <row r="462">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
+      <c r="A462" s="15"/>
+      <c r="B462" s="15"/>
       <c r="C462" s="2"/>
     </row>
     <row r="463">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
+      <c r="A463" s="15"/>
+      <c r="B463" s="15"/>
       <c r="C463" s="2"/>
     </row>
     <row r="464">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
+      <c r="A464" s="15"/>
+      <c r="B464" s="15"/>
       <c r="C464" s="2"/>
     </row>
     <row r="465">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
+      <c r="A465" s="15"/>
+      <c r="B465" s="15"/>
       <c r="C465" s="2"/>
     </row>
     <row r="466">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
+      <c r="A466" s="15"/>
+      <c r="B466" s="15"/>
       <c r="C466" s="2"/>
     </row>
     <row r="467">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
+      <c r="A467" s="15"/>
+      <c r="B467" s="15"/>
       <c r="C467" s="2"/>
     </row>
     <row r="468">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
+      <c r="A468" s="15"/>
+      <c r="B468" s="15"/>
       <c r="C468" s="2"/>
     </row>
     <row r="469">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
+      <c r="A469" s="15"/>
+      <c r="B469" s="15"/>
       <c r="C469" s="2"/>
     </row>
     <row r="470">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
+      <c r="A470" s="15"/>
+      <c r="B470" s="15"/>
       <c r="C470" s="2"/>
     </row>
     <row r="471">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
+      <c r="A471" s="15"/>
+      <c r="B471" s="15"/>
       <c r="C471" s="2"/>
     </row>
     <row r="472">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
+      <c r="A472" s="15"/>
+      <c r="B472" s="15"/>
       <c r="C472" s="2"/>
     </row>
     <row r="473">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
+      <c r="A473" s="15"/>
+      <c r="B473" s="15"/>
       <c r="C473" s="2"/>
     </row>
     <row r="474">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
+      <c r="A474" s="15"/>
+      <c r="B474" s="15"/>
       <c r="C474" s="2"/>
     </row>
     <row r="475">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
+      <c r="A475" s="15"/>
+      <c r="B475" s="15"/>
       <c r="C475" s="2"/>
     </row>
     <row r="476">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
+      <c r="A476" s="15"/>
+      <c r="B476" s="15"/>
       <c r="C476" s="2"/>
     </row>
     <row r="477">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
+      <c r="A477" s="15"/>
+      <c r="B477" s="15"/>
       <c r="C477" s="2"/>
     </row>
     <row r="478">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
+      <c r="A478" s="15"/>
+      <c r="B478" s="15"/>
       <c r="C478" s="2"/>
     </row>
     <row r="479">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
+      <c r="A479" s="15"/>
+      <c r="B479" s="15"/>
       <c r="C479" s="2"/>
     </row>
     <row r="480">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
+      <c r="A480" s="15"/>
+      <c r="B480" s="15"/>
       <c r="C480" s="2"/>
     </row>
     <row r="481">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
+      <c r="A481" s="15"/>
+      <c r="B481" s="15"/>
       <c r="C481" s="2"/>
     </row>
     <row r="482">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
+      <c r="A482" s="15"/>
+      <c r="B482" s="15"/>
       <c r="C482" s="2"/>
     </row>
     <row r="483">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
+      <c r="A483" s="15"/>
+      <c r="B483" s="15"/>
       <c r="C483" s="2"/>
     </row>
     <row r="484">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
+      <c r="A484" s="15"/>
+      <c r="B484" s="15"/>
       <c r="C484" s="2"/>
     </row>
     <row r="485">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
+      <c r="A485" s="15"/>
+      <c r="B485" s="15"/>
       <c r="C485" s="2"/>
     </row>
     <row r="486">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
+      <c r="A486" s="15"/>
+      <c r="B486" s="15"/>
       <c r="C486" s="2"/>
     </row>
     <row r="487">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
+      <c r="A487" s="15"/>
+      <c r="B487" s="15"/>
       <c r="C487" s="2"/>
     </row>
     <row r="488">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
+      <c r="A488" s="15"/>
+      <c r="B488" s="15"/>
       <c r="C488" s="2"/>
     </row>
     <row r="489">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
+      <c r="A489" s="15"/>
+      <c r="B489" s="15"/>
       <c r="C489" s="2"/>
     </row>
     <row r="490">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
+      <c r="A490" s="15"/>
+      <c r="B490" s="15"/>
       <c r="C490" s="2"/>
     </row>
     <row r="491">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
+      <c r="A491" s="15"/>
+      <c r="B491" s="15"/>
       <c r="C491" s="2"/>
     </row>
     <row r="492">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
+      <c r="A492" s="15"/>
+      <c r="B492" s="15"/>
       <c r="C492" s="2"/>
     </row>
     <row r="493">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
+      <c r="A493" s="15"/>
+      <c r="B493" s="15"/>
       <c r="C493" s="2"/>
     </row>
     <row r="494">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
+      <c r="A494" s="15"/>
+      <c r="B494" s="15"/>
       <c r="C494" s="2"/>
     </row>
     <row r="495">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
+      <c r="A495" s="15"/>
+      <c r="B495" s="15"/>
       <c r="C495" s="2"/>
     </row>
     <row r="496">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
+      <c r="A496" s="15"/>
+      <c r="B496" s="15"/>
       <c r="C496" s="2"/>
     </row>
     <row r="497">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
+      <c r="A497" s="15"/>
+      <c r="B497" s="15"/>
       <c r="C497" s="2"/>
     </row>
     <row r="498">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
+      <c r="A498" s="15"/>
+      <c r="B498" s="15"/>
       <c r="C498" s="2"/>
     </row>
     <row r="499">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
+      <c r="A499" s="15"/>
+      <c r="B499" s="15"/>
       <c r="C499" s="2"/>
     </row>
     <row r="500">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
+      <c r="A500" s="15"/>
+      <c r="B500" s="15"/>
       <c r="C500" s="2"/>
     </row>
     <row r="501">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
+      <c r="A501" s="15"/>
+      <c r="B501" s="15"/>
       <c r="C501" s="2"/>
     </row>
     <row r="502">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
+      <c r="A502" s="15"/>
+      <c r="B502" s="15"/>
       <c r="C502" s="2"/>
     </row>
     <row r="503">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
+      <c r="A503" s="15"/>
+      <c r="B503" s="15"/>
       <c r="C503" s="2"/>
     </row>
     <row r="504">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
+      <c r="A504" s="15"/>
+      <c r="B504" s="15"/>
       <c r="C504" s="2"/>
     </row>
     <row r="505">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
+      <c r="A505" s="15"/>
+      <c r="B505" s="15"/>
       <c r="C505" s="2"/>
     </row>
     <row r="506">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
+      <c r="A506" s="15"/>
+      <c r="B506" s="15"/>
       <c r="C506" s="2"/>
     </row>
     <row r="507">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
+      <c r="A507" s="15"/>
+      <c r="B507" s="15"/>
       <c r="C507" s="2"/>
     </row>
     <row r="508">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
+      <c r="A508" s="15"/>
+      <c r="B508" s="15"/>
       <c r="C508" s="2"/>
     </row>
     <row r="509">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
+      <c r="A509" s="15"/>
+      <c r="B509" s="15"/>
       <c r="C509" s="2"/>
     </row>
     <row r="510">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
+      <c r="A510" s="15"/>
+      <c r="B510" s="15"/>
       <c r="C510" s="2"/>
     </row>
     <row r="511">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
+      <c r="A511" s="15"/>
+      <c r="B511" s="15"/>
       <c r="C511" s="2"/>
     </row>
     <row r="512">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
+      <c r="A512" s="15"/>
+      <c r="B512" s="15"/>
       <c r="C512" s="2"/>
     </row>
     <row r="513">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
+      <c r="A513" s="15"/>
+      <c r="B513" s="15"/>
       <c r="C513" s="2"/>
     </row>
     <row r="514">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
+      <c r="A514" s="15"/>
+      <c r="B514" s="15"/>
       <c r="C514" s="2"/>
     </row>
     <row r="515">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
+      <c r="A515" s="15"/>
+      <c r="B515" s="15"/>
       <c r="C515" s="2"/>
     </row>
     <row r="516">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
+      <c r="A516" s="15"/>
+      <c r="B516" s="15"/>
       <c r="C516" s="2"/>
     </row>
     <row r="517">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
+      <c r="A517" s="15"/>
+      <c r="B517" s="15"/>
       <c r="C517" s="2"/>
     </row>
     <row r="518">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
+      <c r="A518" s="15"/>
+      <c r="B518" s="15"/>
       <c r="C518" s="2"/>
     </row>
     <row r="519">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
+      <c r="A519" s="15"/>
+      <c r="B519" s="15"/>
       <c r="C519" s="2"/>
     </row>
     <row r="520">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
+      <c r="A520" s="15"/>
+      <c r="B520" s="15"/>
       <c r="C520" s="2"/>
     </row>
     <row r="521">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
+      <c r="A521" s="15"/>
+      <c r="B521" s="15"/>
       <c r="C521" s="2"/>
     </row>
     <row r="522">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
+      <c r="A522" s="15"/>
+      <c r="B522" s="15"/>
       <c r="C522" s="2"/>
     </row>
     <row r="523">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
+      <c r="A523" s="15"/>
+      <c r="B523" s="15"/>
       <c r="C523" s="2"/>
     </row>
     <row r="524">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
+      <c r="A524" s="15"/>
+      <c r="B524" s="15"/>
       <c r="C524" s="2"/>
     </row>
     <row r="525">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
+      <c r="A525" s="15"/>
+      <c r="B525" s="15"/>
       <c r="C525" s="2"/>
     </row>
     <row r="526">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
+      <c r="A526" s="15"/>
+      <c r="B526" s="15"/>
       <c r="C526" s="2"/>
     </row>
     <row r="527">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
+      <c r="A527" s="15"/>
+      <c r="B527" s="15"/>
       <c r="C527" s="2"/>
     </row>
     <row r="528">
-      <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
+      <c r="A528" s="15"/>
+      <c r="B528" s="15"/>
       <c r="C528" s="2"/>
     </row>
     <row r="529">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
+      <c r="A529" s="15"/>
+      <c r="B529" s="15"/>
       <c r="C529" s="2"/>
     </row>
     <row r="530">
-      <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
+      <c r="A530" s="15"/>
+      <c r="B530" s="15"/>
       <c r="C530" s="2"/>
     </row>
     <row r="531">
-      <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
+      <c r="A531" s="15"/>
+      <c r="B531" s="15"/>
       <c r="C531" s="2"/>
     </row>
     <row r="532">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
+      <c r="A532" s="15"/>
+      <c r="B532" s="15"/>
       <c r="C532" s="2"/>
     </row>
     <row r="533">
-      <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
+      <c r="A533" s="15"/>
+      <c r="B533" s="15"/>
       <c r="C533" s="2"/>
     </row>
     <row r="534">
-      <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
+      <c r="A534" s="15"/>
+      <c r="B534" s="15"/>
       <c r="C534" s="2"/>
     </row>
     <row r="535">
-      <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
+      <c r="A535" s="15"/>
+      <c r="B535" s="15"/>
       <c r="C535" s="2"/>
     </row>
     <row r="536">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
+      <c r="A536" s="15"/>
+      <c r="B536" s="15"/>
       <c r="C536" s="2"/>
     </row>
     <row r="537">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
+      <c r="A537" s="15"/>
+      <c r="B537" s="15"/>
       <c r="C537" s="2"/>
     </row>
     <row r="538">
-      <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
+      <c r="A538" s="15"/>
+      <c r="B538" s="15"/>
       <c r="C538" s="2"/>
     </row>
     <row r="539">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
+      <c r="A539" s="15"/>
+      <c r="B539" s="15"/>
       <c r="C539" s="2"/>
     </row>
     <row r="540">
-      <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
+      <c r="A540" s="15"/>
+      <c r="B540" s="15"/>
       <c r="C540" s="2"/>
     </row>
     <row r="541">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
+      <c r="A541" s="15"/>
+      <c r="B541" s="15"/>
       <c r="C541" s="2"/>
     </row>
     <row r="542">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
+      <c r="A542" s="15"/>
+      <c r="B542" s="15"/>
       <c r="C542" s="2"/>
     </row>
     <row r="543">
-      <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
+      <c r="A543" s="15"/>
+      <c r="B543" s="15"/>
       <c r="C543" s="2"/>
     </row>
     <row r="544">
-      <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
+      <c r="A544" s="15"/>
+      <c r="B544" s="15"/>
       <c r="C544" s="2"/>
     </row>
     <row r="545">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
+      <c r="A545" s="15"/>
+      <c r="B545" s="15"/>
       <c r="C545" s="2"/>
     </row>
     <row r="546">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
+      <c r="A546" s="15"/>
+      <c r="B546" s="15"/>
       <c r="C546" s="2"/>
     </row>
     <row r="547">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
+      <c r="A547" s="15"/>
+      <c r="B547" s="15"/>
       <c r="C547" s="2"/>
     </row>
     <row r="548">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
+      <c r="A548" s="15"/>
+      <c r="B548" s="15"/>
       <c r="C548" s="2"/>
     </row>
     <row r="549">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
+      <c r="A549" s="15"/>
+      <c r="B549" s="15"/>
       <c r="C549" s="2"/>
     </row>
     <row r="550">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
+      <c r="A550" s="15"/>
+      <c r="B550" s="15"/>
       <c r="C550" s="2"/>
     </row>
     <row r="551">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
+      <c r="A551" s="15"/>
+      <c r="B551" s="15"/>
       <c r="C551" s="2"/>
     </row>
     <row r="552">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
+      <c r="A552" s="15"/>
+      <c r="B552" s="15"/>
       <c r="C552" s="2"/>
     </row>
     <row r="553">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
+      <c r="A553" s="15"/>
+      <c r="B553" s="15"/>
       <c r="C553" s="2"/>
     </row>
     <row r="554">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
+      <c r="A554" s="15"/>
+      <c r="B554" s="15"/>
       <c r="C554" s="2"/>
     </row>
     <row r="555">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
+      <c r="A555" s="15"/>
+      <c r="B555" s="15"/>
       <c r="C555" s="2"/>
     </row>
     <row r="556">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
+      <c r="A556" s="15"/>
+      <c r="B556" s="15"/>
       <c r="C556" s="2"/>
     </row>
     <row r="557">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
+      <c r="A557" s="15"/>
+      <c r="B557" s="15"/>
       <c r="C557" s="2"/>
     </row>
     <row r="558">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
+      <c r="A558" s="15"/>
+      <c r="B558" s="15"/>
       <c r="C558" s="2"/>
     </row>
     <row r="559">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
+      <c r="A559" s="15"/>
+      <c r="B559" s="15"/>
       <c r="C559" s="2"/>
     </row>
     <row r="560">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
+      <c r="A560" s="15"/>
+      <c r="B560" s="15"/>
       <c r="C560" s="2"/>
     </row>
     <row r="561">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
+      <c r="A561" s="15"/>
+      <c r="B561" s="15"/>
       <c r="C561" s="2"/>
     </row>
     <row r="562">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
+      <c r="A562" s="15"/>
+      <c r="B562" s="15"/>
       <c r="C562" s="2"/>
     </row>
     <row r="563">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
+      <c r="A563" s="15"/>
+      <c r="B563" s="15"/>
       <c r="C563" s="2"/>
     </row>
     <row r="564">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
+      <c r="A564" s="15"/>
+      <c r="B564" s="15"/>
       <c r="C564" s="2"/>
     </row>
     <row r="565">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
+      <c r="A565" s="15"/>
+      <c r="B565" s="15"/>
       <c r="C565" s="2"/>
     </row>
     <row r="566">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
+      <c r="A566" s="15"/>
+      <c r="B566" s="15"/>
       <c r="C566" s="2"/>
     </row>
     <row r="567">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
+      <c r="A567" s="15"/>
+      <c r="B567" s="15"/>
       <c r="C567" s="2"/>
     </row>
     <row r="568">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
+      <c r="A568" s="15"/>
+      <c r="B568" s="15"/>
       <c r="C568" s="2"/>
     </row>
     <row r="569">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
+      <c r="A569" s="15"/>
+      <c r="B569" s="15"/>
       <c r="C569" s="2"/>
     </row>
     <row r="570">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
+      <c r="A570" s="15"/>
+      <c r="B570" s="15"/>
       <c r="C570" s="2"/>
     </row>
     <row r="571">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
+      <c r="A571" s="15"/>
+      <c r="B571" s="15"/>
       <c r="C571" s="2"/>
     </row>
     <row r="572">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
+      <c r="A572" s="15"/>
+      <c r="B572" s="15"/>
       <c r="C572" s="2"/>
     </row>
     <row r="573">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
+      <c r="A573" s="15"/>
+      <c r="B573" s="15"/>
       <c r="C573" s="2"/>
     </row>
     <row r="574">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
+      <c r="A574" s="15"/>
+      <c r="B574" s="15"/>
       <c r="C574" s="2"/>
     </row>
     <row r="575">
-      <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
+      <c r="A575" s="15"/>
+      <c r="B575" s="15"/>
       <c r="C575" s="2"/>
     </row>
     <row r="576">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
+      <c r="A576" s="15"/>
+      <c r="B576" s="15"/>
       <c r="C576" s="2"/>
     </row>
     <row r="577">
-      <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
+      <c r="A577" s="15"/>
+      <c r="B577" s="15"/>
       <c r="C577" s="2"/>
     </row>
     <row r="578">
-      <c r="A578" s="2"/>
-      <c r="B578" s="2"/>
+      <c r="A578" s="15"/>
+      <c r="B578" s="15"/>
       <c r="C578" s="2"/>
     </row>
     <row r="579">
-      <c r="A579" s="2"/>
-      <c r="B579" s="2"/>
+      <c r="A579" s="15"/>
+      <c r="B579" s="15"/>
       <c r="C579" s="2"/>
     </row>
     <row r="580">
-      <c r="A580" s="2"/>
-      <c r="B580" s="2"/>
+      <c r="A580" s="15"/>
+      <c r="B580" s="15"/>
       <c r="C580" s="2"/>
     </row>
     <row r="581">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
+      <c r="A581" s="15"/>
+      <c r="B581" s="15"/>
       <c r="C581" s="2"/>
     </row>
     <row r="582">
-      <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
+      <c r="A582" s="15"/>
+      <c r="B582" s="15"/>
       <c r="C582" s="2"/>
     </row>
     <row r="583">
-      <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
+      <c r="A583" s="15"/>
+      <c r="B583" s="15"/>
       <c r="C583" s="2"/>
     </row>
     <row r="584">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
+      <c r="A584" s="15"/>
+      <c r="B584" s="15"/>
       <c r="C584" s="2"/>
     </row>
     <row r="585">
-      <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
+      <c r="A585" s="15"/>
+      <c r="B585" s="15"/>
       <c r="C585" s="2"/>
     </row>
     <row r="586">
-      <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
+      <c r="A586" s="15"/>
+      <c r="B586" s="15"/>
       <c r="C586" s="2"/>
     </row>
     <row r="587">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
+      <c r="A587" s="15"/>
+      <c r="B587" s="15"/>
       <c r="C587" s="2"/>
     </row>
     <row r="588">
-      <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
+      <c r="A588" s="15"/>
+      <c r="B588" s="15"/>
       <c r="C588" s="2"/>
     </row>
     <row r="589">
-      <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
+      <c r="A589" s="15"/>
+      <c r="B589" s="15"/>
       <c r="C589" s="2"/>
     </row>
     <row r="590">
-      <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
+      <c r="A590" s="15"/>
+      <c r="B590" s="15"/>
       <c r="C590" s="2"/>
     </row>
     <row r="591">
-      <c r="A591" s="2"/>
-      <c r="B591" s="2"/>
+      <c r="A591" s="15"/>
+      <c r="B591" s="15"/>
       <c r="C591" s="2"/>
     </row>
     <row r="592">
-      <c r="A592" s="2"/>
-      <c r="B592" s="2"/>
+      <c r="A592" s="15"/>
+      <c r="B592" s="15"/>
       <c r="C592" s="2"/>
     </row>
     <row r="593">
-      <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
+      <c r="A593" s="15"/>
+      <c r="B593" s="15"/>
       <c r="C593" s="2"/>
     </row>
     <row r="594">
-      <c r="A594" s="2"/>
-      <c r="B594" s="2"/>
+      <c r="A594" s="15"/>
+      <c r="B594" s="15"/>
       <c r="C594" s="2"/>
     </row>
     <row r="595">
-      <c r="A595" s="2"/>
-      <c r="B595" s="2"/>
+      <c r="A595" s="15"/>
+      <c r="B595" s="15"/>
       <c r="C595" s="2"/>
     </row>
     <row r="596">
-      <c r="A596" s="2"/>
-      <c r="B596" s="2"/>
+      <c r="A596" s="15"/>
+      <c r="B596" s="15"/>
       <c r="C596" s="2"/>
     </row>
     <row r="597">
-      <c r="A597" s="2"/>
-      <c r="B597" s="2"/>
+      <c r="A597" s="15"/>
+      <c r="B597" s="15"/>
       <c r="C597" s="2"/>
     </row>
     <row r="598">
-      <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
+      <c r="A598" s="15"/>
+      <c r="B598" s="15"/>
       <c r="C598" s="2"/>
     </row>
     <row r="599">
-      <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
+      <c r="A599" s="15"/>
+      <c r="B599" s="15"/>
       <c r="C599" s="2"/>
     </row>
     <row r="600">
-      <c r="A600" s="2"/>
-      <c r="B600" s="2"/>
+      <c r="A600" s="15"/>
+      <c r="B600" s="15"/>
       <c r="C600" s="2"/>
     </row>
     <row r="601">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
+      <c r="A601" s="15"/>
+      <c r="B601" s="15"/>
       <c r="C601" s="2"/>
     </row>
     <row r="602">
-      <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
+      <c r="A602" s="15"/>
+      <c r="B602" s="15"/>
       <c r="C602" s="2"/>
     </row>
     <row r="603">
-      <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
+      <c r="A603" s="15"/>
+      <c r="B603" s="15"/>
       <c r="C603" s="2"/>
     </row>
     <row r="604">
-      <c r="A604" s="2"/>
-      <c r="B604" s="2"/>
+      <c r="A604" s="15"/>
+      <c r="B604" s="15"/>
       <c r="C604" s="2"/>
     </row>
     <row r="605">
-      <c r="A605" s="2"/>
-      <c r="B605" s="2"/>
+      <c r="A605" s="15"/>
+      <c r="B605" s="15"/>
       <c r="C605" s="2"/>
     </row>
     <row r="606">
-      <c r="A606" s="2"/>
-      <c r="B606" s="2"/>
+      <c r="A606" s="15"/>
+      <c r="B606" s="15"/>
       <c r="C606" s="2"/>
     </row>
     <row r="607">
-      <c r="A607" s="2"/>
-      <c r="B607" s="2"/>
+      <c r="A607" s="15"/>
+      <c r="B607" s="15"/>
       <c r="C607" s="2"/>
     </row>
     <row r="608">
-      <c r="A608" s="2"/>
-      <c r="B608" s="2"/>
+      <c r="A608" s="15"/>
+      <c r="B608" s="15"/>
       <c r="C608" s="2"/>
     </row>
     <row r="609">
-      <c r="A609" s="2"/>
-      <c r="B609" s="2"/>
+      <c r="A609" s="15"/>
+      <c r="B609" s="15"/>
       <c r="C609" s="2"/>
     </row>
     <row r="610">
-      <c r="A610" s="2"/>
-      <c r="B610" s="2"/>
+      <c r="A610" s="15"/>
+      <c r="B610" s="15"/>
       <c r="C610" s="2"/>
     </row>
     <row r="611">
-      <c r="A611" s="2"/>
-      <c r="B611" s="2"/>
+      <c r="A611" s="15"/>
+      <c r="B611" s="15"/>
       <c r="C611" s="2"/>
     </row>
     <row r="612">
-      <c r="A612" s="2"/>
-      <c r="B612" s="2"/>
+      <c r="A612" s="15"/>
+      <c r="B612" s="15"/>
       <c r="C612" s="2"/>
     </row>
     <row r="613">
-      <c r="A613" s="2"/>
-      <c r="B613" s="2"/>
+      <c r="A613" s="15"/>
+      <c r="B613" s="15"/>
       <c r="C613" s="2"/>
     </row>
     <row r="614">
-      <c r="A614" s="2"/>
-      <c r="B614" s="2"/>
+      <c r="A614" s="15"/>
+      <c r="B614" s="15"/>
       <c r="C614" s="2"/>
     </row>
     <row r="615">
-      <c r="A615" s="2"/>
-      <c r="B615" s="2"/>
+      <c r="A615" s="15"/>
+      <c r="B615" s="15"/>
       <c r="C615" s="2"/>
     </row>
     <row r="616">
-      <c r="A616" s="2"/>
-      <c r="B616" s="2"/>
+      <c r="A616" s="15"/>
+      <c r="B616" s="15"/>
       <c r="C616" s="2"/>
     </row>
     <row r="617">
-      <c r="A617" s="2"/>
-      <c r="B617" s="2"/>
+      <c r="A617" s="15"/>
+      <c r="B617" s="15"/>
       <c r="C617" s="2"/>
     </row>
     <row r="618">
-      <c r="A618" s="2"/>
-      <c r="B618" s="2"/>
+      <c r="A618" s="15"/>
+      <c r="B618" s="15"/>
       <c r="C618" s="2"/>
     </row>
     <row r="619">
-      <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
+      <c r="A619" s="15"/>
+      <c r="B619" s="15"/>
       <c r="C619" s="2"/>
     </row>
     <row r="620">
-      <c r="A620" s="2"/>
-      <c r="B620" s="2"/>
+      <c r="A620" s="15"/>
+      <c r="B620" s="15"/>
       <c r="C620" s="2"/>
     </row>
     <row r="621">
-      <c r="A621" s="2"/>
-      <c r="B621" s="2"/>
+      <c r="A621" s="15"/>
+      <c r="B621" s="15"/>
       <c r="C621" s="2"/>
     </row>
     <row r="622">
-      <c r="A622" s="2"/>
-      <c r="B622" s="2"/>
+      <c r="A622" s="15"/>
+      <c r="B622" s="15"/>
       <c r="C622" s="2"/>
     </row>
     <row r="623">
-      <c r="A623" s="2"/>
-      <c r="B623" s="2"/>
+      <c r="A623" s="15"/>
+      <c r="B623" s="15"/>
       <c r="C623" s="2"/>
     </row>
     <row r="624">
-      <c r="A624" s="2"/>
-      <c r="B624" s="2"/>
+      <c r="A624" s="15"/>
+      <c r="B624" s="15"/>
       <c r="C624" s="2"/>
     </row>
     <row r="625">
-      <c r="A625" s="2"/>
-      <c r="B625" s="2"/>
+      <c r="A625" s="15"/>
+      <c r="B625" s="15"/>
       <c r="C625" s="2"/>
     </row>
     <row r="626">
-      <c r="A626" s="2"/>
-      <c r="B626" s="2"/>
+      <c r="A626" s="15"/>
+      <c r="B626" s="15"/>
       <c r="C626" s="2"/>
     </row>
     <row r="627">
-      <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
+      <c r="A627" s="15"/>
+      <c r="B627" s="15"/>
       <c r="C627" s="2"/>
     </row>
     <row r="628">
-      <c r="A628" s="2"/>
-      <c r="B628" s="2"/>
+      <c r="A628" s="15"/>
+      <c r="B628" s="15"/>
       <c r="C628" s="2"/>
     </row>
     <row r="629">
-      <c r="A629" s="2"/>
-      <c r="B629" s="2"/>
+      <c r="A629" s="15"/>
+      <c r="B629" s="15"/>
       <c r="C629" s="2"/>
     </row>
     <row r="630">
-      <c r="A630" s="2"/>
-      <c r="B630" s="2"/>
+      <c r="A630" s="15"/>
+      <c r="B630" s="15"/>
       <c r="C630" s="2"/>
     </row>
     <row r="631">
-      <c r="A631" s="2"/>
-      <c r="B631" s="2"/>
+      <c r="A631" s="15"/>
+      <c r="B631" s="15"/>
       <c r="C631" s="2"/>
     </row>
     <row r="632">
-      <c r="A632" s="2"/>
-      <c r="B632" s="2"/>
+      <c r="A632" s="15"/>
+      <c r="B632" s="15"/>
       <c r="C632" s="2"/>
     </row>
     <row r="633">
-      <c r="A633" s="2"/>
-      <c r="B633" s="2"/>
+      <c r="A633" s="15"/>
+      <c r="B633" s="15"/>
       <c r="C633" s="2"/>
     </row>
     <row r="634">
-      <c r="A634" s="2"/>
-      <c r="B634" s="2"/>
+      <c r="A634" s="15"/>
+      <c r="B634" s="15"/>
       <c r="C634" s="2"/>
     </row>
     <row r="635">
-      <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
+      <c r="A635" s="15"/>
+      <c r="B635" s="15"/>
       <c r="C635" s="2"/>
     </row>
     <row r="636">
-      <c r="A636" s="2"/>
-      <c r="B636" s="2"/>
+      <c r="A636" s="15"/>
+      <c r="B636" s="15"/>
       <c r="C636" s="2"/>
     </row>
     <row r="637">
-      <c r="A637" s="2"/>
-      <c r="B637" s="2"/>
+      <c r="A637" s="15"/>
+      <c r="B637" s="15"/>
       <c r="C637" s="2"/>
     </row>
     <row r="638">
-      <c r="A638" s="2"/>
-      <c r="B638" s="2"/>
+      <c r="A638" s="15"/>
+      <c r="B638" s="15"/>
       <c r="C638" s="2"/>
     </row>
     <row r="639">
-      <c r="A639" s="2"/>
-      <c r="B639" s="2"/>
+      <c r="A639" s="15"/>
+      <c r="B639" s="15"/>
       <c r="C639" s="2"/>
     </row>
     <row r="640">
-      <c r="A640" s="2"/>
-      <c r="B640" s="2"/>
+      <c r="A640" s="15"/>
+      <c r="B640" s="15"/>
       <c r="C640" s="2"/>
     </row>
     <row r="641">
-      <c r="A641" s="2"/>
-      <c r="B641" s="2"/>
+      <c r="A641" s="15"/>
+      <c r="B641" s="15"/>
       <c r="C641" s="2"/>
     </row>
     <row r="642">
-      <c r="A642" s="2"/>
-      <c r="B642" s="2"/>
+      <c r="A642" s="15"/>
+      <c r="B642" s="15"/>
       <c r="C642" s="2"/>
     </row>
     <row r="643">
-      <c r="A643" s="2"/>
-      <c r="B643" s="2"/>
+      <c r="A643" s="15"/>
+      <c r="B643" s="15"/>
       <c r="C643" s="2"/>
     </row>
     <row r="644">
-      <c r="A644" s="2"/>
-      <c r="B644" s="2"/>
+      <c r="A644" s="15"/>
+      <c r="B644" s="15"/>
       <c r="C644" s="2"/>
     </row>
     <row r="645">
-      <c r="A645" s="2"/>
-      <c r="B645" s="2"/>
+      <c r="A645" s="15"/>
+      <c r="B645" s="15"/>
       <c r="C645" s="2"/>
     </row>
     <row r="646">
-      <c r="A646" s="2"/>
-      <c r="B646" s="2"/>
+      <c r="A646" s="15"/>
+      <c r="B646" s="15"/>
       <c r="C646" s="2"/>
     </row>
     <row r="647">
-      <c r="A647" s="2"/>
-      <c r="B647" s="2"/>
+      <c r="A647" s="15"/>
+      <c r="B647" s="15"/>
       <c r="C647" s="2"/>
     </row>
     <row r="648">
-      <c r="A648" s="2"/>
-      <c r="B648" s="2"/>
+      <c r="A648" s="15"/>
+      <c r="B648" s="15"/>
       <c r="C648" s="2"/>
     </row>
     <row r="649">
-      <c r="A649" s="2"/>
-      <c r="B649" s="2"/>
+      <c r="A649" s="15"/>
+      <c r="B649" s="15"/>
       <c r="C649" s="2"/>
     </row>
     <row r="650">
-      <c r="A650" s="2"/>
-      <c r="B650" s="2"/>
+      <c r="A650" s="15"/>
+      <c r="B650" s="15"/>
       <c r="C650" s="2"/>
     </row>
     <row r="651">
-      <c r="A651" s="2"/>
-      <c r="B651" s="2"/>
+      <c r="A651" s="15"/>
+      <c r="B651" s="15"/>
       <c r="C651" s="2"/>
     </row>
     <row r="652">
-      <c r="A652" s="2"/>
-      <c r="B652" s="2"/>
+      <c r="A652" s="15"/>
+      <c r="B652" s="15"/>
       <c r="C652" s="2"/>
     </row>
     <row r="653">
-      <c r="A653" s="2"/>
-      <c r="B653" s="2"/>
+      <c r="A653" s="15"/>
+      <c r="B653" s="15"/>
       <c r="C653" s="2"/>
     </row>
     <row r="654">
-      <c r="A654" s="2"/>
-      <c r="B654" s="2"/>
+      <c r="A654" s="15"/>
+      <c r="B654" s="15"/>
       <c r="C654" s="2"/>
     </row>
     <row r="655">
-      <c r="A655" s="2"/>
-      <c r="B655" s="2"/>
+      <c r="A655" s="15"/>
+      <c r="B655" s="15"/>
       <c r="C655" s="2"/>
     </row>
     <row r="656">
-      <c r="A656" s="2"/>
-      <c r="B656" s="2"/>
+      <c r="A656" s="15"/>
+      <c r="B656" s="15"/>
       <c r="C656" s="2"/>
     </row>
     <row r="657">
-      <c r="A657" s="2"/>
-      <c r="B657" s="2"/>
+      <c r="A657" s="15"/>
+      <c r="B657" s="15"/>
       <c r="C657" s="2"/>
     </row>
     <row r="658">
-      <c r="A658" s="2"/>
-      <c r="B658" s="2"/>
+      <c r="A658" s="15"/>
+      <c r="B658" s="15"/>
       <c r="C658" s="2"/>
     </row>
     <row r="659">
-      <c r="A659" s="2"/>
-      <c r="B659" s="2"/>
+      <c r="A659" s="15"/>
+      <c r="B659" s="15"/>
       <c r="C659" s="2"/>
     </row>
     <row r="660">
-      <c r="A660" s="2"/>
-      <c r="B660" s="2"/>
+      <c r="A660" s="15"/>
+      <c r="B660" s="15"/>
       <c r="C660" s="2"/>
     </row>
     <row r="661">
-      <c r="A661" s="2"/>
-      <c r="B661" s="2"/>
+      <c r="A661" s="15"/>
+      <c r="B661" s="15"/>
       <c r="C661" s="2"/>
     </row>
     <row r="662">
-      <c r="A662" s="2"/>
-      <c r="B662" s="2"/>
+      <c r="A662" s="15"/>
+      <c r="B662" s="15"/>
       <c r="C662" s="2"/>
     </row>
     <row r="663">
-      <c r="A663" s="2"/>
-      <c r="B663" s="2"/>
+      <c r="A663" s="15"/>
+      <c r="B663" s="15"/>
       <c r="C663" s="2"/>
     </row>
     <row r="664">
-      <c r="A664" s="2"/>
-      <c r="B664" s="2"/>
+      <c r="A664" s="15"/>
+      <c r="B664" s="15"/>
       <c r="C664" s="2"/>
     </row>
     <row r="665">
-      <c r="A665" s="2"/>
-      <c r="B665" s="2"/>
+      <c r="A665" s="15"/>
+      <c r="B665" s="15"/>
       <c r="C665" s="2"/>
     </row>
     <row r="666">
-      <c r="A666" s="2"/>
-      <c r="B666" s="2"/>
+      <c r="A666" s="15"/>
+      <c r="B666" s="15"/>
       <c r="C666" s="2"/>
     </row>
     <row r="667">
-      <c r="A667" s="2"/>
-      <c r="B667" s="2"/>
+      <c r="A667" s="15"/>
+      <c r="B667" s="15"/>
       <c r="C667" s="2"/>
     </row>
     <row r="668">
-      <c r="A668" s="2"/>
-      <c r="B668" s="2"/>
+      <c r="A668" s="15"/>
+      <c r="B668" s="15"/>
       <c r="C668" s="2"/>
     </row>
     <row r="669">
-      <c r="A669" s="2"/>
-      <c r="B669" s="2"/>
+      <c r="A669" s="15"/>
+      <c r="B669" s="15"/>
       <c r="C669" s="2"/>
     </row>
     <row r="670">
-      <c r="A670" s="2"/>
-      <c r="B670" s="2"/>
+      <c r="A670" s="15"/>
+      <c r="B670" s="15"/>
       <c r="C670" s="2"/>
     </row>
     <row r="671">
-      <c r="A671" s="2"/>
-      <c r="B671" s="2"/>
+      <c r="A671" s="15"/>
+      <c r="B671" s="15"/>
       <c r="C671" s="2"/>
     </row>
     <row r="672">
-      <c r="A672" s="2"/>
-      <c r="B672" s="2"/>
+      <c r="A672" s="15"/>
+      <c r="B672" s="15"/>
       <c r="C672" s="2"/>
     </row>
     <row r="673">
-      <c r="A673" s="2"/>
-      <c r="B673" s="2"/>
+      <c r="A673" s="15"/>
+      <c r="B673" s="15"/>
       <c r="C673" s="2"/>
     </row>
     <row r="674">
-      <c r="A674" s="2"/>
-      <c r="B674" s="2"/>
+      <c r="A674" s="15"/>
+      <c r="B674" s="15"/>
       <c r="C674" s="2"/>
     </row>
     <row r="675">
-      <c r="A675" s="2"/>
-      <c r="B675" s="2"/>
+      <c r="A675" s="15"/>
+      <c r="B675" s="15"/>
       <c r="C675" s="2"/>
     </row>
     <row r="676">
-      <c r="A676" s="2"/>
-      <c r="B676" s="2"/>
+      <c r="A676" s="15"/>
+      <c r="B676" s="15"/>
       <c r="C676" s="2"/>
     </row>
     <row r="677">
-      <c r="A677" s="2"/>
-      <c r="B677" s="2"/>
+      <c r="A677" s="15"/>
+      <c r="B677" s="15"/>
       <c r="C677" s="2"/>
     </row>
     <row r="678">
-      <c r="A678" s="2"/>
-      <c r="B678" s="2"/>
+      <c r="A678" s="15"/>
+      <c r="B678" s="15"/>
       <c r="C678" s="2"/>
     </row>
     <row r="679">
-      <c r="A679" s="2"/>
-      <c r="B679" s="2"/>
+      <c r="A679" s="15"/>
+      <c r="B679" s="15"/>
       <c r="C679" s="2"/>
     </row>
     <row r="680">
-      <c r="A680" s="2"/>
-      <c r="B680" s="2"/>
+      <c r="A680" s="15"/>
+      <c r="B680" s="15"/>
       <c r="C680" s="2"/>
     </row>
     <row r="681">
-      <c r="A681" s="2"/>
-      <c r="B681" s="2"/>
+      <c r="A681" s="15"/>
+      <c r="B681" s="15"/>
       <c r="C681" s="2"/>
     </row>
     <row r="682">
-      <c r="A682" s="2"/>
-      <c r="B682" s="2"/>
+      <c r="A682" s="15"/>
+      <c r="B682" s="15"/>
       <c r="C682" s="2"/>
     </row>
     <row r="683">
-      <c r="A683" s="2"/>
-      <c r="B683" s="2"/>
+      <c r="A683" s="15"/>
+      <c r="B683" s="15"/>
       <c r="C683" s="2"/>
     </row>
     <row r="684">
-      <c r="A684" s="2"/>
-      <c r="B684" s="2"/>
+      <c r="A684" s="15"/>
+      <c r="B684" s="15"/>
       <c r="C684" s="2"/>
     </row>
     <row r="685">
-      <c r="A685" s="2"/>
-      <c r="B685" s="2"/>
+      <c r="A685" s="15"/>
+      <c r="B685" s="15"/>
       <c r="C685" s="2"/>
     </row>
     <row r="686">
-      <c r="A686" s="2"/>
-      <c r="B686" s="2"/>
+      <c r="A686" s="15"/>
+      <c r="B686" s="15"/>
       <c r="C686" s="2"/>
     </row>
     <row r="687">
-      <c r="A687" s="2"/>
-      <c r="B687" s="2"/>
+      <c r="A687" s="15"/>
+      <c r="B687" s="15"/>
       <c r="C687" s="2"/>
     </row>
     <row r="688">
-      <c r="A688" s="2"/>
-      <c r="B688" s="2"/>
+      <c r="A688" s="15"/>
+      <c r="B688" s="15"/>
       <c r="C688" s="2"/>
     </row>
     <row r="689">
-      <c r="A689" s="2"/>
-      <c r="B689" s="2"/>
+      <c r="A689" s="15"/>
+      <c r="B689" s="15"/>
       <c r="C689" s="2"/>
     </row>
     <row r="690">
-      <c r="A690" s="2"/>
-      <c r="B690" s="2"/>
+      <c r="A690" s="15"/>
+      <c r="B690" s="15"/>
       <c r="C690" s="2"/>
     </row>
     <row r="691">
-      <c r="A691" s="2"/>
-      <c r="B691" s="2"/>
+      <c r="A691" s="15"/>
+      <c r="B691" s="15"/>
       <c r="C691" s="2"/>
     </row>
     <row r="692">
-      <c r="A692" s="2"/>
-      <c r="B692" s="2"/>
+      <c r="A692" s="15"/>
+      <c r="B692" s="15"/>
       <c r="C692" s="2"/>
     </row>
     <row r="693">
-      <c r="A693" s="2"/>
-      <c r="B693" s="2"/>
+      <c r="A693" s="15"/>
+      <c r="B693" s="15"/>
       <c r="C693" s="2"/>
     </row>
     <row r="694">
-      <c r="A694" s="2"/>
-      <c r="B694" s="2"/>
+      <c r="A694" s="15"/>
+      <c r="B694" s="15"/>
       <c r="C694" s="2"/>
     </row>
     <row r="695">
-      <c r="A695" s="2"/>
-      <c r="B695" s="2"/>
+      <c r="A695" s="15"/>
+      <c r="B695" s="15"/>
       <c r="C695" s="2"/>
     </row>
     <row r="696">
-      <c r="A696" s="2"/>
-      <c r="B696" s="2"/>
+      <c r="A696" s="15"/>
+      <c r="B696" s="15"/>
       <c r="C696" s="2"/>
     </row>
     <row r="697">
-      <c r="A697" s="2"/>
-      <c r="B697" s="2"/>
+      <c r="A697" s="15"/>
+      <c r="B697" s="15"/>
       <c r="C697" s="2"/>
     </row>
     <row r="698">
-      <c r="A698" s="2"/>
-      <c r="B698" s="2"/>
+      <c r="A698" s="15"/>
+      <c r="B698" s="15"/>
       <c r="C698" s="2"/>
     </row>
     <row r="699">
-      <c r="A699" s="2"/>
-      <c r="B699" s="2"/>
+      <c r="A699" s="15"/>
+      <c r="B699" s="15"/>
       <c r="C699" s="2"/>
     </row>
     <row r="700">
-      <c r="A700" s="2"/>
-      <c r="B700" s="2"/>
+      <c r="A700" s="15"/>
+      <c r="B700" s="15"/>
       <c r="C700" s="2"/>
     </row>
     <row r="701">
-      <c r="A701" s="2"/>
-      <c r="B701" s="2"/>
+      <c r="A701" s="15"/>
+      <c r="B701" s="15"/>
       <c r="C701" s="2"/>
     </row>
     <row r="702">
-      <c r="A702" s="2"/>
-      <c r="B702" s="2"/>
+      <c r="A702" s="15"/>
+      <c r="B702" s="15"/>
       <c r="C702" s="2"/>
     </row>
     <row r="703">
-      <c r="A703" s="2"/>
-      <c r="B703" s="2"/>
+      <c r="A703" s="15"/>
+      <c r="B703" s="15"/>
       <c r="C703" s="2"/>
     </row>
     <row r="704">
-      <c r="A704" s="2"/>
-      <c r="B704" s="2"/>
+      <c r="A704" s="15"/>
+      <c r="B704" s="15"/>
       <c r="C704" s="2"/>
     </row>
     <row r="705">
-      <c r="A705" s="2"/>
-      <c r="B705" s="2"/>
+      <c r="A705" s="15"/>
+      <c r="B705" s="15"/>
       <c r="C705" s="2"/>
     </row>
     <row r="706">
-      <c r="A706" s="2"/>
-      <c r="B706" s="2"/>
+      <c r="A706" s="15"/>
+      <c r="B706" s="15"/>
       <c r="C706" s="2"/>
     </row>
     <row r="707">
-      <c r="A707" s="2"/>
-      <c r="B707" s="2"/>
+      <c r="A707" s="15"/>
+      <c r="B707" s="15"/>
       <c r="C707" s="2"/>
     </row>
     <row r="708">
-      <c r="A708" s="2"/>
-      <c r="B708" s="2"/>
+      <c r="A708" s="15"/>
+      <c r="B708" s="15"/>
       <c r="C708" s="2"/>
     </row>
     <row r="709">
-      <c r="A709" s="2"/>
-      <c r="B709" s="2"/>
+      <c r="A709" s="15"/>
+      <c r="B709" s="15"/>
       <c r="C709" s="2"/>
     </row>
     <row r="710">
-      <c r="A710" s="2"/>
-      <c r="B710" s="2"/>
+      <c r="A710" s="15"/>
+      <c r="B710" s="15"/>
       <c r="C710" s="2"/>
     </row>
     <row r="711">
-      <c r="A711" s="2"/>
-      <c r="B711" s="2"/>
+      <c r="A711" s="15"/>
+      <c r="B711" s="15"/>
       <c r="C711" s="2"/>
     </row>
     <row r="712">
-      <c r="A712" s="2"/>
-      <c r="B712" s="2"/>
+      <c r="A712" s="15"/>
+      <c r="B712" s="15"/>
       <c r="C712" s="2"/>
     </row>
     <row r="713">
-      <c r="A713" s="2"/>
-      <c r="B713" s="2"/>
+      <c r="A713" s="15"/>
+      <c r="B713" s="15"/>
       <c r="C713" s="2"/>
     </row>
     <row r="714">
-      <c r="A714" s="2"/>
-      <c r="B714" s="2"/>
+      <c r="A714" s="15"/>
+      <c r="B714" s="15"/>
       <c r="C714" s="2"/>
     </row>
     <row r="715">
-      <c r="A715" s="2"/>
-      <c r="B715" s="2"/>
+      <c r="A715" s="15"/>
+      <c r="B715" s="15"/>
       <c r="C715" s="2"/>
     </row>
     <row r="716">
-      <c r="A716" s="2"/>
-      <c r="B716" s="2"/>
+      <c r="A716" s="15"/>
+      <c r="B716" s="15"/>
       <c r="C716" s="2"/>
     </row>
     <row r="717">
-      <c r="A717" s="2"/>
-      <c r="B717" s="2"/>
+      <c r="A717" s="15"/>
+      <c r="B717" s="15"/>
       <c r="C717" s="2"/>
     </row>
     <row r="718">
-      <c r="A718" s="2"/>
-      <c r="B718" s="2"/>
+      <c r="A718" s="15"/>
+      <c r="B718" s="15"/>
       <c r="C718" s="2"/>
     </row>
     <row r="719">
-      <c r="A719" s="2"/>
-      <c r="B719" s="2"/>
+      <c r="A719" s="15"/>
+      <c r="B719" s="15"/>
       <c r="C719" s="2"/>
     </row>
     <row r="720">
-      <c r="A720" s="2"/>
-      <c r="B720" s="2"/>
+      <c r="A720" s="15"/>
+      <c r="B720" s="15"/>
       <c r="C720" s="2"/>
     </row>
     <row r="721">
-      <c r="A721" s="2"/>
-      <c r="B721" s="2"/>
+      <c r="A721" s="15"/>
+      <c r="B721" s="15"/>
       <c r="C721" s="2"/>
     </row>
     <row r="722">
-      <c r="A722" s="2"/>
-      <c r="B722" s="2"/>
+      <c r="A722" s="15"/>
+      <c r="B722" s="15"/>
       <c r="C722" s="2"/>
     </row>
     <row r="723">
-      <c r="A723" s="2"/>
-      <c r="B723" s="2"/>
+      <c r="A723" s="15"/>
+      <c r="B723" s="15"/>
       <c r="C723" s="2"/>
     </row>
     <row r="724">
-      <c r="A724" s="2"/>
-      <c r="B724" s="2"/>
+      <c r="A724" s="15"/>
+      <c r="B724" s="15"/>
       <c r="C724" s="2"/>
     </row>
     <row r="725">
-      <c r="A725" s="2"/>
-      <c r="B725" s="2"/>
+      <c r="A725" s="15"/>
+      <c r="B725" s="15"/>
       <c r="C725" s="2"/>
     </row>
     <row r="726">
-      <c r="A726" s="2"/>
-      <c r="B726" s="2"/>
+      <c r="A726" s="15"/>
+      <c r="B726" s="15"/>
       <c r="C726" s="2"/>
     </row>
     <row r="727">
-      <c r="A727" s="2"/>
-      <c r="B727" s="2"/>
+      <c r="A727" s="15"/>
+      <c r="B727" s="15"/>
       <c r="C727" s="2"/>
     </row>
     <row r="728">
-      <c r="A728" s="2"/>
-      <c r="B728" s="2"/>
+      <c r="A728" s="15"/>
+      <c r="B728" s="15"/>
       <c r="C728" s="2"/>
     </row>
     <row r="729">
-      <c r="A729" s="2"/>
-      <c r="B729" s="2"/>
+      <c r="A729" s="15"/>
+      <c r="B729" s="15"/>
       <c r="C729" s="2"/>
     </row>
     <row r="730">
-      <c r="A730" s="2"/>
-      <c r="B730" s="2"/>
+      <c r="A730" s="15"/>
+      <c r="B730" s="15"/>
       <c r="C730" s="2"/>
     </row>
     <row r="731">
-      <c r="A731" s="2"/>
-      <c r="B731" s="2"/>
+      <c r="A731" s="15"/>
+      <c r="B731" s="15"/>
       <c r="C731" s="2"/>
     </row>
     <row r="732">
-      <c r="A732" s="2"/>
-      <c r="B732" s="2"/>
+      <c r="A732" s="15"/>
+      <c r="B732" s="15"/>
       <c r="C732" s="2"/>
     </row>
     <row r="733">
-      <c r="A733" s="2"/>
-      <c r="B733" s="2"/>
+      <c r="A733" s="15"/>
+      <c r="B733" s="15"/>
       <c r="C733" s="2"/>
     </row>
     <row r="734">
-      <c r="A734" s="2"/>
-      <c r="B734" s="2"/>
+      <c r="A734" s="15"/>
+      <c r="B734" s="15"/>
       <c r="C734" s="2"/>
     </row>
     <row r="735">
-      <c r="A735" s="2"/>
-      <c r="B735" s="2"/>
+      <c r="A735" s="15"/>
+      <c r="B735" s="15"/>
       <c r="C735" s="2"/>
     </row>
     <row r="736">
-      <c r="A736" s="2"/>
-      <c r="B736" s="2"/>
+      <c r="A736" s="15"/>
+      <c r="B736" s="15"/>
       <c r="C736" s="2"/>
     </row>
     <row r="737">
-      <c r="A737" s="2"/>
-      <c r="B737" s="2"/>
+      <c r="A737" s="15"/>
+      <c r="B737" s="15"/>
       <c r="C737" s="2"/>
     </row>
     <row r="738">
-      <c r="A738" s="2"/>
-      <c r="B738" s="2"/>
+      <c r="A738" s="15"/>
+      <c r="B738" s="15"/>
       <c r="C738" s="2"/>
     </row>
     <row r="739">
-      <c r="A739" s="2"/>
-      <c r="B739" s="2"/>
+      <c r="A739" s="15"/>
+      <c r="B739" s="15"/>
       <c r="C739" s="2"/>
     </row>
     <row r="740">
-      <c r="A740" s="2"/>
-      <c r="B740" s="2"/>
+      <c r="A740" s="15"/>
+      <c r="B740" s="15"/>
       <c r="C740" s="2"/>
     </row>
     <row r="741">
-      <c r="A741" s="2"/>
-      <c r="B741" s="2"/>
+      <c r="A741" s="15"/>
+      <c r="B741" s="15"/>
       <c r="C741" s="2"/>
     </row>
     <row r="742">
-      <c r="A742" s="2"/>
-      <c r="B742" s="2"/>
+      <c r="A742" s="15"/>
+      <c r="B742" s="15"/>
       <c r="C742" s="2"/>
     </row>
     <row r="743">
-      <c r="A743" s="2"/>
-      <c r="B743" s="2"/>
+      <c r="A743" s="15"/>
+      <c r="B743" s="15"/>
       <c r="C743" s="2"/>
     </row>
     <row r="744">
-      <c r="A744" s="2"/>
-      <c r="B744" s="2"/>
+      <c r="A744" s="15"/>
+      <c r="B744" s="15"/>
       <c r="C744" s="2"/>
     </row>
     <row r="745">
-      <c r="A745" s="2"/>
-      <c r="B745" s="2"/>
+      <c r="A745" s="15"/>
+      <c r="B745" s="15"/>
       <c r="C745" s="2"/>
     </row>
     <row r="746">
-      <c r="A746" s="2"/>
-      <c r="B746" s="2"/>
+      <c r="A746" s="15"/>
+      <c r="B746" s="15"/>
       <c r="C746" s="2"/>
     </row>
     <row r="747">
-      <c r="A747" s="2"/>
-      <c r="B747" s="2"/>
+      <c r="A747" s="15"/>
+      <c r="B747" s="15"/>
       <c r="C747" s="2"/>
     </row>
     <row r="748">
-      <c r="A748" s="2"/>
-      <c r="B748" s="2"/>
+      <c r="A748" s="15"/>
+      <c r="B748" s="15"/>
       <c r="C748" s="2"/>
     </row>
     <row r="749">
-      <c r="A749" s="2"/>
-      <c r="B749" s="2"/>
+      <c r="A749" s="15"/>
+      <c r="B749" s="15"/>
       <c r="C749" s="2"/>
     </row>
     <row r="750">
-      <c r="A750" s="2"/>
-      <c r="B750" s="2"/>
+      <c r="A750" s="15"/>
+      <c r="B750" s="15"/>
       <c r="C750" s="2"/>
     </row>
     <row r="751">
-      <c r="A751" s="2"/>
-      <c r="B751" s="2"/>
+      <c r="A751" s="15"/>
+      <c r="B751" s="15"/>
       <c r="C751" s="2"/>
     </row>
     <row r="752">
-      <c r="A752" s="2"/>
-      <c r="B752" s="2"/>
+      <c r="A752" s="15"/>
+      <c r="B752" s="15"/>
       <c r="C752" s="2"/>
     </row>
     <row r="753">
-      <c r="A753" s="2"/>
-      <c r="B753" s="2"/>
+      <c r="A753" s="15"/>
+      <c r="B753" s="15"/>
       <c r="C753" s="2"/>
     </row>
     <row r="754">
-      <c r="A754" s="2"/>
-      <c r="B754" s="2"/>
+      <c r="A754" s="15"/>
+      <c r="B754" s="15"/>
       <c r="C754" s="2"/>
     </row>
     <row r="755">
-      <c r="A755" s="2"/>
-      <c r="B755" s="2"/>
+      <c r="A755" s="15"/>
+      <c r="B755" s="15"/>
       <c r="C755" s="2"/>
     </row>
     <row r="756">
-      <c r="A756" s="2"/>
-      <c r="B756" s="2"/>
+      <c r="A756" s="15"/>
+      <c r="B756" s="15"/>
       <c r="C756" s="2"/>
     </row>
     <row r="757">
-      <c r="A757" s="2"/>
-      <c r="B757" s="2"/>
+      <c r="A757" s="15"/>
+      <c r="B757" s="15"/>
       <c r="C757" s="2"/>
     </row>
     <row r="758">
-      <c r="A758" s="2"/>
-      <c r="B758" s="2"/>
+      <c r="A758" s="15"/>
+      <c r="B758" s="15"/>
       <c r="C758" s="2"/>
     </row>
     <row r="759">
-      <c r="A759" s="2"/>
-      <c r="B759" s="2"/>
+      <c r="A759" s="15"/>
+      <c r="B759" s="15"/>
       <c r="C759" s="2"/>
     </row>
     <row r="760">
-      <c r="A760" s="2"/>
-      <c r="B760" s="2"/>
+      <c r="A760" s="15"/>
+      <c r="B760" s="15"/>
       <c r="C760" s="2"/>
     </row>
     <row r="761">
-      <c r="A761" s="2"/>
-      <c r="B761" s="2"/>
+      <c r="A761" s="15"/>
+      <c r="B761" s="15"/>
       <c r="C761" s="2"/>
     </row>
     <row r="762">
-      <c r="A762" s="2"/>
-      <c r="B762" s="2"/>
+      <c r="A762" s="15"/>
+      <c r="B762" s="15"/>
       <c r="C762" s="2"/>
     </row>
     <row r="763">
-      <c r="A763" s="2"/>
-      <c r="B763" s="2"/>
+      <c r="A763" s="15"/>
+      <c r="B763" s="15"/>
       <c r="C763" s="2"/>
     </row>
     <row r="764">
-      <c r="A764" s="2"/>
-      <c r="B764" s="2"/>
+      <c r="A764" s="15"/>
+      <c r="B764" s="15"/>
       <c r="C764" s="2"/>
     </row>
     <row r="765">
-      <c r="A765" s="2"/>
-      <c r="B765" s="2"/>
+      <c r="A765" s="15"/>
+      <c r="B765" s="15"/>
       <c r="C765" s="2"/>
     </row>
     <row r="766">
-      <c r="A766" s="2"/>
-      <c r="B766" s="2"/>
+      <c r="A766" s="15"/>
+      <c r="B766" s="15"/>
       <c r="C766" s="2"/>
     </row>
     <row r="767">
-      <c r="A767" s="2"/>
-      <c r="B767" s="2"/>
+      <c r="A767" s="15"/>
+      <c r="B767" s="15"/>
       <c r="C767" s="2"/>
     </row>
     <row r="768">
-      <c r="A768" s="2"/>
-      <c r="B768" s="2"/>
+      <c r="A768" s="15"/>
+      <c r="B768" s="15"/>
       <c r="C768" s="2"/>
     </row>
     <row r="769">
-      <c r="A769" s="2"/>
-      <c r="B769" s="2"/>
+      <c r="A769" s="15"/>
+      <c r="B769" s="15"/>
       <c r="C769" s="2"/>
     </row>
     <row r="770">
-      <c r="A770" s="2"/>
-      <c r="B770" s="2"/>
+      <c r="A770" s="15"/>
+      <c r="B770" s="15"/>
       <c r="C770" s="2"/>
     </row>
     <row r="771">
-      <c r="A771" s="2"/>
-      <c r="B771" s="2"/>
+      <c r="A771" s="15"/>
+      <c r="B771" s="15"/>
       <c r="C771" s="2"/>
     </row>
     <row r="772">
-      <c r="A772" s="2"/>
-      <c r="B772" s="2"/>
+      <c r="A772" s="15"/>
+      <c r="B772" s="15"/>
       <c r="C772" s="2"/>
     </row>
     <row r="773">
-      <c r="A773" s="2"/>
-      <c r="B773" s="2"/>
+      <c r="A773" s="15"/>
+      <c r="B773" s="15"/>
       <c r="C773" s="2"/>
     </row>
     <row r="774">
-      <c r="A774" s="2"/>
-      <c r="B774" s="2"/>
+      <c r="A774" s="15"/>
+      <c r="B774" s="15"/>
       <c r="C774" s="2"/>
     </row>
     <row r="775">
-      <c r="A775" s="2"/>
-      <c r="B775" s="2"/>
+      <c r="A775" s="15"/>
+      <c r="B775" s="15"/>
       <c r="C775" s="2"/>
     </row>
     <row r="776">
-      <c r="A776" s="2"/>
-      <c r="B776" s="2"/>
+      <c r="A776" s="15"/>
+      <c r="B776" s="15"/>
       <c r="C776" s="2"/>
     </row>
     <row r="777">
-      <c r="A777" s="2"/>
-      <c r="B777" s="2"/>
+      <c r="A777" s="15"/>
+      <c r="B777" s="15"/>
       <c r="C777" s="2"/>
     </row>
     <row r="778">
-      <c r="A778" s="2"/>
-      <c r="B778" s="2"/>
+      <c r="A778" s="15"/>
+      <c r="B778" s="15"/>
       <c r="C778" s="2"/>
     </row>
     <row r="779">
-      <c r="A779" s="2"/>
-      <c r="B779" s="2"/>
+      <c r="A779" s="15"/>
+      <c r="B779" s="15"/>
       <c r="C779" s="2"/>
     </row>
     <row r="780">
-      <c r="A780" s="2"/>
-      <c r="B780" s="2"/>
+      <c r="A780" s="15"/>
+      <c r="B780" s="15"/>
       <c r="C780" s="2"/>
     </row>
     <row r="781">
-      <c r="A781" s="2"/>
-      <c r="B781" s="2"/>
+      <c r="A781" s="15"/>
+      <c r="B781" s="15"/>
       <c r="C781" s="2"/>
     </row>
     <row r="782">
-      <c r="A782" s="2"/>
-      <c r="B782" s="2"/>
+      <c r="A782" s="15"/>
+      <c r="B782" s="15"/>
       <c r="C782" s="2"/>
     </row>
     <row r="783">
-      <c r="A783" s="2"/>
-      <c r="B783" s="2"/>
+      <c r="A783" s="15"/>
+      <c r="B783" s="15"/>
       <c r="C783" s="2"/>
     </row>
     <row r="784">
-      <c r="A784" s="2"/>
-      <c r="B784" s="2"/>
+      <c r="A784" s="15"/>
+      <c r="B784" s="15"/>
       <c r="C784" s="2"/>
     </row>
     <row r="785">
-      <c r="A785" s="2"/>
-      <c r="B785" s="2"/>
+      <c r="A785" s="15"/>
+      <c r="B785" s="15"/>
       <c r="C785" s="2"/>
     </row>
     <row r="786">
-      <c r="A786" s="2"/>
-      <c r="B786" s="2"/>
+      <c r="A786" s="15"/>
+      <c r="B786" s="15"/>
       <c r="C786" s="2"/>
     </row>
     <row r="787">
-      <c r="A787" s="2"/>
-      <c r="B787" s="2"/>
+      <c r="A787" s="15"/>
+      <c r="B787" s="15"/>
       <c r="C787" s="2"/>
     </row>
     <row r="788">
-      <c r="A788" s="2"/>
-      <c r="B788" s="2"/>
+      <c r="A788" s="15"/>
+      <c r="B788" s="15"/>
       <c r="C788" s="2"/>
     </row>
     <row r="789">
-      <c r="A789" s="2"/>
-      <c r="B789" s="2"/>
+      <c r="A789" s="15"/>
+      <c r="B789" s="15"/>
       <c r="C789" s="2"/>
     </row>
     <row r="790">
-      <c r="A790" s="2"/>
-      <c r="B790" s="2"/>
+      <c r="A790" s="15"/>
+      <c r="B790" s="15"/>
       <c r="C790" s="2"/>
     </row>
     <row r="791">
-      <c r="A791" s="2"/>
-      <c r="B791" s="2"/>
+      <c r="A791" s="15"/>
+      <c r="B791" s="15"/>
       <c r="C791" s="2"/>
     </row>
     <row r="792">
-      <c r="A792" s="2"/>
-      <c r="B792" s="2"/>
+      <c r="A792" s="15"/>
+      <c r="B792" s="15"/>
       <c r="C792" s="2"/>
     </row>
     <row r="793">
-      <c r="A793" s="2"/>
-      <c r="B793" s="2"/>
+      <c r="A793" s="15"/>
+      <c r="B793" s="15"/>
       <c r="C793" s="2"/>
     </row>
     <row r="794">
-      <c r="A794" s="2"/>
-      <c r="B794" s="2"/>
+      <c r="A794" s="15"/>
+      <c r="B794" s="15"/>
       <c r="C794" s="2"/>
     </row>
     <row r="795">
-      <c r="A795" s="2"/>
-      <c r="B795" s="2"/>
+      <c r="A795" s="15"/>
+      <c r="B795" s="15"/>
       <c r="C795" s="2"/>
     </row>
     <row r="796">
-      <c r="A796" s="2"/>
-      <c r="B796" s="2"/>
+      <c r="A796" s="15"/>
+      <c r="B796" s="15"/>
       <c r="C796" s="2"/>
     </row>
     <row r="797">
-      <c r="A797" s="2"/>
-      <c r="B797" s="2"/>
+      <c r="A797" s="15"/>
+      <c r="B797" s="15"/>
       <c r="C797" s="2"/>
     </row>
     <row r="798">
-      <c r="A798" s="2"/>
-      <c r="B798" s="2"/>
+      <c r="A798" s="15"/>
+      <c r="B798" s="15"/>
       <c r="C798" s="2"/>
     </row>
     <row r="799">
-      <c r="A799" s="2"/>
-      <c r="B799" s="2"/>
+      <c r="A799" s="15"/>
+      <c r="B799" s="15"/>
       <c r="C799" s="2"/>
     </row>
     <row r="800">
-      <c r="A800" s="2"/>
-      <c r="B800" s="2"/>
+      <c r="A800" s="15"/>
+      <c r="B800" s="15"/>
       <c r="C800" s="2"/>
     </row>
     <row r="801">
-      <c r="A801" s="2"/>
-      <c r="B801" s="2"/>
+      <c r="A801" s="15"/>
+      <c r="B801" s="15"/>
       <c r="C801" s="2"/>
     </row>
     <row r="802">
-      <c r="A802" s="2"/>
-      <c r="B802" s="2"/>
+      <c r="A802" s="15"/>
+      <c r="B802" s="15"/>
       <c r="C802" s="2"/>
     </row>
     <row r="803">
-      <c r="A803" s="2"/>
-      <c r="B803" s="2"/>
+      <c r="A803" s="15"/>
+      <c r="B803" s="15"/>
       <c r="C803" s="2"/>
     </row>
     <row r="804">
-      <c r="A804" s="2"/>
-      <c r="B804" s="2"/>
+      <c r="A804" s="15"/>
+      <c r="B804" s="15"/>
       <c r="C804" s="2"/>
     </row>
     <row r="805">
-      <c r="A805" s="2"/>
-      <c r="B805" s="2"/>
+      <c r="A805" s="15"/>
+      <c r="B805" s="15"/>
       <c r="C805" s="2"/>
     </row>
     <row r="806">
-      <c r="A806" s="2"/>
-      <c r="B806" s="2"/>
+      <c r="A806" s="15"/>
+      <c r="B806" s="15"/>
       <c r="C806" s="2"/>
     </row>
     <row r="807">
-      <c r="A807" s="2"/>
-      <c r="B807" s="2"/>
+      <c r="A807" s="15"/>
+      <c r="B807" s="15"/>
       <c r="C807" s="2"/>
     </row>
     <row r="808">
-      <c r="A808" s="2"/>
-      <c r="B808" s="2"/>
+      <c r="A808" s="15"/>
+      <c r="B808" s="15"/>
       <c r="C808" s="2"/>
     </row>
     <row r="809">
-      <c r="A809" s="2"/>
-      <c r="B809" s="2"/>
+      <c r="A809" s="15"/>
+      <c r="B809" s="15"/>
       <c r="C809" s="2"/>
     </row>
     <row r="810">
-      <c r="A810" s="2"/>
-      <c r="B810" s="2"/>
+      <c r="A810" s="15"/>
+      <c r="B810" s="15"/>
       <c r="C810" s="2"/>
     </row>
     <row r="811">
-      <c r="A811" s="2"/>
-      <c r="B811" s="2"/>
+      <c r="A811" s="15"/>
+      <c r="B811" s="15"/>
       <c r="C811" s="2"/>
     </row>
     <row r="812">
-      <c r="A812" s="2"/>
-      <c r="B812" s="2"/>
+      <c r="A812" s="15"/>
+      <c r="B812" s="15"/>
       <c r="C812" s="2"/>
     </row>
     <row r="813">
-      <c r="A813" s="2"/>
-      <c r="B813" s="2"/>
+      <c r="A813" s="15"/>
+      <c r="B813" s="15"/>
       <c r="C813" s="2"/>
     </row>
     <row r="814">
-      <c r="A814" s="2"/>
-      <c r="B814" s="2"/>
+      <c r="A814" s="15"/>
+      <c r="B814" s="15"/>
       <c r="C814" s="2"/>
     </row>
     <row r="815">
-      <c r="A815" s="2"/>
-      <c r="B815" s="2"/>
+      <c r="A815" s="15"/>
+      <c r="B815" s="15"/>
       <c r="C815" s="2"/>
     </row>
     <row r="816">
-      <c r="A816" s="2"/>
-      <c r="B816" s="2"/>
+      <c r="A816" s="15"/>
+      <c r="B816" s="15"/>
       <c r="C816" s="2"/>
     </row>
     <row r="817">
-      <c r="A817" s="2"/>
-      <c r="B817" s="2"/>
+      <c r="A817" s="15"/>
+      <c r="B817" s="15"/>
       <c r="C817" s="2"/>
     </row>
     <row r="818">
-      <c r="A818" s="2"/>
-      <c r="B818" s="2"/>
+      <c r="A818" s="15"/>
+      <c r="B818" s="15"/>
       <c r="C818" s="2"/>
     </row>
     <row r="819">
-      <c r="A819" s="2"/>
-      <c r="B819" s="2"/>
+      <c r="A819" s="15"/>
+      <c r="B819" s="15"/>
       <c r="C819" s="2"/>
     </row>
     <row r="820">
-      <c r="A820" s="2"/>
-      <c r="B820" s="2"/>
+      <c r="A820" s="15"/>
+      <c r="B820" s="15"/>
       <c r="C820" s="2"/>
     </row>
     <row r="821">
-      <c r="A821" s="2"/>
-      <c r="B821" s="2"/>
+      <c r="A821" s="15"/>
+      <c r="B821" s="15"/>
       <c r="C821" s="2"/>
     </row>
     <row r="822">
-      <c r="A822" s="2"/>
-      <c r="B822" s="2"/>
+      <c r="A822" s="15"/>
+      <c r="B822" s="15"/>
       <c r="C822" s="2"/>
     </row>
     <row r="823">
-      <c r="A823" s="2"/>
-      <c r="B823" s="2"/>
+      <c r="A823" s="15"/>
+      <c r="B823" s="15"/>
       <c r="C823" s="2"/>
     </row>
     <row r="824">
-      <c r="A824" s="2"/>
-      <c r="B824" s="2"/>
+      <c r="A824" s="15"/>
+      <c r="B824" s="15"/>
       <c r="C824" s="2"/>
     </row>
     <row r="825">
-      <c r="A825" s="2"/>
-      <c r="B825" s="2"/>
+      <c r="A825" s="15"/>
+      <c r="B825" s="15"/>
       <c r="C825" s="2"/>
     </row>
     <row r="826">
-      <c r="A826" s="2"/>
-      <c r="B826" s="2"/>
+      <c r="A826" s="15"/>
+      <c r="B826" s="15"/>
       <c r="C826" s="2"/>
     </row>
     <row r="827">
-      <c r="A827" s="2"/>
-      <c r="B827" s="2"/>
+      <c r="A827" s="15"/>
+      <c r="B827" s="15"/>
       <c r="C827" s="2"/>
     </row>
     <row r="828">
-      <c r="A828" s="2"/>
-      <c r="B828" s="2"/>
+      <c r="A828" s="15"/>
+      <c r="B828" s="15"/>
       <c r="C828" s="2"/>
     </row>
     <row r="829">
-      <c r="A829" s="2"/>
-      <c r="B829" s="2"/>
+      <c r="A829" s="15"/>
+      <c r="B829" s="15"/>
       <c r="C829" s="2"/>
     </row>
     <row r="830">
-      <c r="A830" s="2"/>
-      <c r="B830" s="2"/>
+      <c r="A830" s="15"/>
+      <c r="B830" s="15"/>
       <c r="C830" s="2"/>
     </row>
     <row r="831">
-      <c r="A831" s="2"/>
-      <c r="B831" s="2"/>
+      <c r="A831" s="15"/>
+      <c r="B831" s="15"/>
       <c r="C831" s="2"/>
     </row>
     <row r="832">
-      <c r="A832" s="2"/>
-      <c r="B832" s="2"/>
+      <c r="A832" s="15"/>
+      <c r="B832" s="15"/>
       <c r="C832" s="2"/>
     </row>
     <row r="833">
-      <c r="A833" s="2"/>
-      <c r="B833" s="2"/>
+      <c r="A833" s="15"/>
+      <c r="B833" s="15"/>
       <c r="C833" s="2"/>
     </row>
     <row r="834">
-      <c r="A834" s="2"/>
-      <c r="B834" s="2"/>
+      <c r="A834" s="15"/>
+      <c r="B834" s="15"/>
       <c r="C834" s="2"/>
     </row>
     <row r="835">
-      <c r="A835" s="2"/>
-      <c r="B835" s="2"/>
+      <c r="A835" s="15"/>
+      <c r="B835" s="15"/>
       <c r="C835" s="2"/>
     </row>
     <row r="836">
-      <c r="A836" s="2"/>
-      <c r="B836" s="2"/>
+      <c r="A836" s="15"/>
+      <c r="B836" s="15"/>
       <c r="C836" s="2"/>
     </row>
     <row r="837">
-      <c r="A837" s="2"/>
-      <c r="B837" s="2"/>
+      <c r="A837" s="15"/>
+      <c r="B837" s="15"/>
       <c r="C837" s="2"/>
     </row>
     <row r="838">
-      <c r="A838" s="2"/>
-      <c r="B838" s="2"/>
+      <c r="A838" s="15"/>
+      <c r="B838" s="15"/>
       <c r="C838" s="2"/>
     </row>
     <row r="839">
-      <c r="A839" s="2"/>
-      <c r="B839" s="2"/>
+      <c r="A839" s="15"/>
+      <c r="B839" s="15"/>
       <c r="C839" s="2"/>
     </row>
     <row r="840">
-      <c r="A840" s="2"/>
-      <c r="B840" s="2"/>
+      <c r="A840" s="15"/>
+      <c r="B840" s="15"/>
       <c r="C840" s="2"/>
     </row>
     <row r="841">
-      <c r="A841" s="2"/>
-      <c r="B841" s="2"/>
+      <c r="A841" s="15"/>
+      <c r="B841" s="15"/>
       <c r="C841" s="2"/>
     </row>
     <row r="842">
-      <c r="A842" s="2"/>
-      <c r="B842" s="2"/>
+      <c r="A842" s="15"/>
+      <c r="B842" s="15"/>
       <c r="C842" s="2"/>
     </row>
     <row r="843">
-      <c r="A843" s="2"/>
-      <c r="B843" s="2"/>
+      <c r="A843" s="15"/>
+      <c r="B843" s="15"/>
       <c r="C843" s="2"/>
     </row>
     <row r="844">
-      <c r="A844" s="2"/>
-      <c r="B844" s="2"/>
+      <c r="A844" s="15"/>
+      <c r="B844" s="15"/>
       <c r="C844" s="2"/>
     </row>
     <row r="845">
-      <c r="A845" s="2"/>
-      <c r="B845" s="2"/>
+      <c r="A845" s="15"/>
+      <c r="B845" s="15"/>
       <c r="C845" s="2"/>
     </row>
     <row r="846">
-      <c r="A846" s="2"/>
-      <c r="B846" s="2"/>
+      <c r="A846" s="15"/>
+      <c r="B846" s="15"/>
       <c r="C846" s="2"/>
     </row>
     <row r="847">
-      <c r="A847" s="2"/>
-      <c r="B847" s="2"/>
+      <c r="A847" s="15"/>
+      <c r="B847" s="15"/>
       <c r="C847" s="2"/>
     </row>
     <row r="848">
-      <c r="A848" s="2"/>
-      <c r="B848" s="2"/>
+      <c r="A848" s="15"/>
+      <c r="B848" s="15"/>
       <c r="C848" s="2"/>
     </row>
     <row r="849">
-      <c r="A849" s="2"/>
-      <c r="B849" s="2"/>
+      <c r="A849" s="15"/>
+      <c r="B849" s="15"/>
       <c r="C849" s="2"/>
     </row>
     <row r="850">
-      <c r="A850" s="2"/>
-      <c r="B850" s="2"/>
+      <c r="A850" s="15"/>
+      <c r="B850" s="15"/>
       <c r="C850" s="2"/>
     </row>
     <row r="851">
-      <c r="A851" s="2"/>
-      <c r="B851" s="2"/>
+      <c r="A851" s="15"/>
+      <c r="B851" s="15"/>
       <c r="C851" s="2"/>
     </row>
     <row r="852">
-      <c r="A852" s="2"/>
-      <c r="B852" s="2"/>
+      <c r="A852" s="15"/>
+      <c r="B852" s="15"/>
       <c r="C852" s="2"/>
     </row>
     <row r="853">
-      <c r="A853" s="2"/>
-      <c r="B853" s="2"/>
+      <c r="A853" s="15"/>
+      <c r="B853" s="15"/>
       <c r="C853" s="2"/>
     </row>
     <row r="854">
-      <c r="A854" s="2"/>
-      <c r="B854" s="2"/>
+      <c r="A854" s="15"/>
+      <c r="B854" s="15"/>
       <c r="C854" s="2"/>
     </row>
     <row r="855">
-      <c r="A855" s="2"/>
-      <c r="B855" s="2"/>
+      <c r="A855" s="15"/>
+      <c r="B855" s="15"/>
       <c r="C855" s="2"/>
     </row>
     <row r="856">
-      <c r="A856" s="2"/>
-      <c r="B856" s="2"/>
+      <c r="A856" s="15"/>
+      <c r="B856" s="15"/>
       <c r="C856" s="2"/>
     </row>
     <row r="857">
-      <c r="A857" s="2"/>
-      <c r="B857" s="2"/>
+      <c r="A857" s="15"/>
+      <c r="B857" s="15"/>
       <c r="C857" s="2"/>
     </row>
     <row r="858">
-      <c r="A858" s="2"/>
-      <c r="B858" s="2"/>
+      <c r="A858" s="15"/>
+      <c r="B858" s="15"/>
       <c r="C858" s="2"/>
     </row>
     <row r="859">
-      <c r="A859" s="2"/>
-      <c r="B859" s="2"/>
+      <c r="A859" s="15"/>
+      <c r="B859" s="15"/>
       <c r="C859" s="2"/>
     </row>
     <row r="860">
-      <c r="A860" s="2"/>
-      <c r="B860" s="2"/>
+      <c r="A860" s="15"/>
+      <c r="B860" s="15"/>
       <c r="C860" s="2"/>
     </row>
     <row r="861">
-      <c r="A861" s="2"/>
-      <c r="B861" s="2"/>
+      <c r="A861" s="15"/>
+      <c r="B861" s="15"/>
       <c r="C861" s="2"/>
     </row>
     <row r="862">
-      <c r="A862" s="2"/>
-      <c r="B862" s="2"/>
+      <c r="A862" s="15"/>
+      <c r="B862" s="15"/>
       <c r="C862" s="2"/>
     </row>
     <row r="863">
-      <c r="A863" s="2"/>
-      <c r="B863" s="2"/>
+      <c r="A863" s="15"/>
+      <c r="B863" s="15"/>
       <c r="C863" s="2"/>
     </row>
     <row r="864">
-      <c r="A864" s="2"/>
-      <c r="B864" s="2"/>
+      <c r="A864" s="15"/>
+      <c r="B864" s="15"/>
       <c r="C864" s="2"/>
     </row>
     <row r="865">
-      <c r="A865" s="2"/>
-      <c r="B865" s="2"/>
+      <c r="A865" s="15"/>
+      <c r="B865" s="15"/>
       <c r="C865" s="2"/>
     </row>
     <row r="866">
-      <c r="A866" s="2"/>
-      <c r="B866" s="2"/>
+      <c r="A866" s="15"/>
+      <c r="B866" s="15"/>
       <c r="C866" s="2"/>
     </row>
     <row r="867">
-      <c r="A867" s="2"/>
-      <c r="B867" s="2"/>
+      <c r="A867" s="15"/>
+      <c r="B867" s="15"/>
       <c r="C867" s="2"/>
     </row>
     <row r="868">
-      <c r="A868" s="2"/>
-      <c r="B868" s="2"/>
+      <c r="A868" s="15"/>
+      <c r="B868" s="15"/>
       <c r="C868" s="2"/>
     </row>
     <row r="869">
-      <c r="A869" s="2"/>
-      <c r="B869" s="2"/>
+      <c r="A869" s="15"/>
+      <c r="B869" s="15"/>
       <c r="C869" s="2"/>
     </row>
     <row r="870">
-      <c r="A870" s="2"/>
-      <c r="B870" s="2"/>
+      <c r="A870" s="15"/>
+      <c r="B870" s="15"/>
       <c r="C870" s="2"/>
     </row>
     <row r="871">
-      <c r="A871" s="2"/>
-      <c r="B871" s="2"/>
+      <c r="A871" s="15"/>
+      <c r="B871" s="15"/>
       <c r="C871" s="2"/>
     </row>
     <row r="872">
-      <c r="A872" s="2"/>
-      <c r="B872" s="2"/>
+      <c r="A872" s="15"/>
+      <c r="B872" s="15"/>
       <c r="C872" s="2"/>
     </row>
     <row r="873">
-      <c r="A873" s="2"/>
-      <c r="B873" s="2"/>
+      <c r="A873" s="15"/>
+      <c r="B873" s="15"/>
       <c r="C873" s="2"/>
     </row>
     <row r="874">
-      <c r="A874" s="2"/>
-      <c r="B874" s="2"/>
+      <c r="A874" s="15"/>
+      <c r="B874" s="15"/>
       <c r="C874" s="2"/>
     </row>
     <row r="875">
-      <c r="A875" s="2"/>
-      <c r="B875" s="2"/>
+      <c r="A875" s="15"/>
+      <c r="B875" s="15"/>
       <c r="C875" s="2"/>
     </row>
     <row r="876">
-      <c r="A876" s="2"/>
-      <c r="B876" s="2"/>
+      <c r="A876" s="15"/>
+      <c r="B876" s="15"/>
       <c r="C876" s="2"/>
     </row>
     <row r="877">
-      <c r="A877" s="2"/>
-      <c r="B877" s="2"/>
+      <c r="A877" s="15"/>
+      <c r="B877" s="15"/>
       <c r="C877" s="2"/>
     </row>
     <row r="878">
-      <c r="A878" s="2"/>
-      <c r="B878" s="2"/>
+      <c r="A878" s="15"/>
+      <c r="B878" s="15"/>
       <c r="C878" s="2"/>
     </row>
     <row r="879">
-      <c r="A879" s="2"/>
-      <c r="B879" s="2"/>
+      <c r="A879" s="15"/>
+      <c r="B879" s="15"/>
       <c r="C879" s="2"/>
     </row>
     <row r="880">
-      <c r="A880" s="2"/>
-      <c r="B880" s="2"/>
+      <c r="A880" s="15"/>
+      <c r="B880" s="15"/>
       <c r="C880" s="2"/>
     </row>
     <row r="881">
-      <c r="A881" s="2"/>
-      <c r="B881" s="2"/>
+      <c r="A881" s="15"/>
+      <c r="B881" s="15"/>
       <c r="C881" s="2"/>
     </row>
     <row r="882">
-      <c r="A882" s="2"/>
-      <c r="B882" s="2"/>
+      <c r="A882" s="15"/>
+      <c r="B882" s="15"/>
       <c r="C882" s="2"/>
     </row>
     <row r="883">
-      <c r="A883" s="2"/>
-      <c r="B883" s="2"/>
+      <c r="A883" s="15"/>
+      <c r="B883" s="15"/>
       <c r="C883" s="2"/>
     </row>
     <row r="884">
-      <c r="A884" s="2"/>
-      <c r="B884" s="2"/>
+      <c r="A884" s="15"/>
+      <c r="B884" s="15"/>
       <c r="C884" s="2"/>
     </row>
     <row r="885">
-      <c r="A885" s="2"/>
-      <c r="B885" s="2"/>
+      <c r="A885" s="15"/>
+      <c r="B885" s="15"/>
       <c r="C885" s="2"/>
     </row>
     <row r="886">
-      <c r="A886" s="2"/>
-      <c r="B886" s="2"/>
+      <c r="A886" s="15"/>
+      <c r="B886" s="15"/>
       <c r="C886" s="2"/>
     </row>
     <row r="887">
-      <c r="A887" s="2"/>
-      <c r="B887" s="2"/>
+      <c r="A887" s="15"/>
+      <c r="B887" s="15"/>
       <c r="C887" s="2"/>
     </row>
     <row r="888">
-      <c r="A888" s="2"/>
-      <c r="B888" s="2"/>
+      <c r="A888" s="15"/>
+      <c r="B888" s="15"/>
       <c r="C888" s="2"/>
     </row>
     <row r="889">
-      <c r="A889" s="2"/>
-      <c r="B889" s="2"/>
+      <c r="A889" s="15"/>
+      <c r="B889" s="15"/>
       <c r="C889" s="2"/>
     </row>
     <row r="890">
-      <c r="A890" s="2"/>
-      <c r="B890" s="2"/>
+      <c r="A890" s="15"/>
+      <c r="B890" s="15"/>
       <c r="C890" s="2"/>
     </row>
     <row r="891">
-      <c r="A891" s="2"/>
-      <c r="B891" s="2"/>
+      <c r="A891" s="15"/>
+      <c r="B891" s="15"/>
       <c r="C891" s="2"/>
     </row>
     <row r="892">
-      <c r="A892" s="2"/>
-      <c r="B892" s="2"/>
+      <c r="A892" s="15"/>
+      <c r="B892" s="15"/>
       <c r="C892" s="2"/>
     </row>
     <row r="893">
-      <c r="A893" s="2"/>
-      <c r="B893" s="2"/>
+      <c r="A893" s="15"/>
+      <c r="B893" s="15"/>
       <c r="C893" s="2"/>
     </row>
     <row r="894">
-      <c r="A894" s="2"/>
-      <c r="B894" s="2"/>
+      <c r="A894" s="15"/>
+      <c r="B894" s="15"/>
       <c r="C894" s="2"/>
     </row>
     <row r="895">
-      <c r="A895" s="2"/>
-      <c r="B895" s="2"/>
+      <c r="A895" s="15"/>
+      <c r="B895" s="15"/>
       <c r="C895" s="2"/>
     </row>
     <row r="896">
-      <c r="A896" s="2"/>
-      <c r="B896" s="2"/>
+      <c r="A896" s="15"/>
+      <c r="B896" s="15"/>
       <c r="C896" s="2"/>
     </row>
     <row r="897">
-      <c r="A897" s="2"/>
-      <c r="B897" s="2"/>
+      <c r="A897" s="15"/>
+      <c r="B897" s="15"/>
       <c r="C897" s="2"/>
     </row>
     <row r="898">
-      <c r="A898" s="2"/>
-      <c r="B898" s="2"/>
+      <c r="A898" s="15"/>
+      <c r="B898" s="15"/>
       <c r="C898" s="2"/>
     </row>
     <row r="899">
-      <c r="A899" s="2"/>
-      <c r="B899" s="2"/>
+      <c r="A899" s="15"/>
+      <c r="B899" s="15"/>
       <c r="C899" s="2"/>
     </row>
     <row r="900">
-      <c r="A900" s="2"/>
-      <c r="B900" s="2"/>
+      <c r="A900" s="15"/>
+      <c r="B900" s="15"/>
       <c r="C900" s="2"/>
     </row>
     <row r="901">
-      <c r="A901" s="2"/>
-      <c r="B901" s="2"/>
+      <c r="A901" s="15"/>
+      <c r="B901" s="15"/>
       <c r="C901" s="2"/>
     </row>
     <row r="902">
-      <c r="A902" s="2"/>
-      <c r="B902" s="2"/>
+      <c r="A902" s="15"/>
+      <c r="B902" s="15"/>
       <c r="C902" s="2"/>
     </row>
     <row r="903">
-      <c r="A903" s="2"/>
-      <c r="B903" s="2"/>
+      <c r="A903" s="15"/>
+      <c r="B903" s="15"/>
       <c r="C903" s="2"/>
     </row>
     <row r="904">
-      <c r="A904" s="2"/>
-      <c r="B904" s="2"/>
+      <c r="A904" s="15"/>
+      <c r="B904" s="15"/>
       <c r="C904" s="2"/>
     </row>
     <row r="905">
-      <c r="A905" s="2"/>
-      <c r="B905" s="2"/>
+      <c r="A905" s="15"/>
+      <c r="B905" s="15"/>
       <c r="C905" s="2"/>
     </row>
     <row r="906">
-      <c r="A906" s="2"/>
-      <c r="B906" s="2"/>
+      <c r="A906" s="15"/>
+      <c r="B906" s="15"/>
       <c r="C906" s="2"/>
     </row>
     <row r="907">
-      <c r="A907" s="2"/>
-      <c r="B907" s="2"/>
+      <c r="A907" s="15"/>
+      <c r="B907" s="15"/>
       <c r="C907" s="2"/>
     </row>
     <row r="908">
-      <c r="A908" s="2"/>
-      <c r="B908" s="2"/>
+      <c r="A908" s="15"/>
+      <c r="B908" s="15"/>
       <c r="C908" s="2"/>
     </row>
     <row r="909">
-      <c r="A909" s="2"/>
-      <c r="B909" s="2"/>
+      <c r="A909" s="15"/>
+      <c r="B909" s="15"/>
       <c r="C909" s="2"/>
     </row>
     <row r="910">
-      <c r="A910" s="2"/>
-      <c r="B910" s="2"/>
+      <c r="A910" s="15"/>
+      <c r="B910" s="15"/>
       <c r="C910" s="2"/>
     </row>
     <row r="911">
-      <c r="A911" s="2"/>
-      <c r="B911" s="2"/>
+      <c r="A911" s="15"/>
+      <c r="B911" s="15"/>
       <c r="C911" s="2"/>
     </row>
     <row r="912">
-      <c r="A912" s="2"/>
-      <c r="B912" s="2"/>
+      <c r="A912" s="15"/>
+      <c r="B912" s="15"/>
       <c r="C912" s="2"/>
     </row>
     <row r="913">
-      <c r="A913" s="2"/>
-      <c r="B913" s="2"/>
+      <c r="A913" s="15"/>
+      <c r="B913" s="15"/>
       <c r="C913" s="2"/>
     </row>
     <row r="914">
-      <c r="A914" s="2"/>
-      <c r="B914" s="2"/>
+      <c r="A914" s="15"/>
+      <c r="B914" s="15"/>
       <c r="C914" s="2"/>
     </row>
     <row r="915">
-      <c r="A915" s="2"/>
-      <c r="B915" s="2"/>
+      <c r="A915" s="15"/>
+      <c r="B915" s="15"/>
       <c r="C915" s="2"/>
     </row>
     <row r="916">
-      <c r="A916" s="2"/>
-      <c r="B916" s="2"/>
+      <c r="A916" s="15"/>
+      <c r="B916" s="15"/>
       <c r="C916" s="2"/>
     </row>
     <row r="917">
-      <c r="A917" s="2"/>
-      <c r="B917" s="2"/>
+      <c r="A917" s="15"/>
+      <c r="B917" s="15"/>
       <c r="C917" s="2"/>
     </row>
     <row r="918">
-      <c r="A918" s="2"/>
-      <c r="B918" s="2"/>
+      <c r="A918" s="15"/>
+      <c r="B918" s="15"/>
       <c r="C918" s="2"/>
     </row>
     <row r="919">
-      <c r="A919" s="2"/>
-      <c r="B919" s="2"/>
+      <c r="A919" s="15"/>
+      <c r="B919" s="15"/>
       <c r="C919" s="2"/>
     </row>
     <row r="920">
-      <c r="A920" s="2"/>
-      <c r="B920" s="2"/>
+      <c r="A920" s="15"/>
+      <c r="B920" s="15"/>
       <c r="C920" s="2"/>
     </row>
     <row r="921">
-      <c r="A921" s="2"/>
-      <c r="B921" s="2"/>
+      <c r="A921" s="15"/>
+      <c r="B921" s="15"/>
       <c r="C921" s="2"/>
     </row>
     <row r="922">
-      <c r="A922" s="2"/>
-      <c r="B922" s="2"/>
+      <c r="A922" s="15"/>
+      <c r="B922" s="15"/>
       <c r="C922" s="2"/>
     </row>
     <row r="923">
-      <c r="A923" s="2"/>
-      <c r="B923" s="2"/>
+      <c r="A923" s="15"/>
+      <c r="B923" s="15"/>
       <c r="C923" s="2"/>
     </row>
     <row r="924">
-      <c r="A924" s="2"/>
-      <c r="B924" s="2"/>
+      <c r="A924" s="15"/>
+      <c r="B924" s="15"/>
       <c r="C924" s="2"/>
     </row>
     <row r="925">
-      <c r="A925" s="2"/>
-      <c r="B925" s="2"/>
+      <c r="A925" s="15"/>
+      <c r="B925" s="15"/>
       <c r="C925" s="2"/>
     </row>
     <row r="926">
-      <c r="A926" s="2"/>
-      <c r="B926" s="2"/>
+      <c r="A926" s="15"/>
+      <c r="B926" s="15"/>
       <c r="C926" s="2"/>
     </row>
     <row r="927">
-      <c r="A927" s="2"/>
-      <c r="B927" s="2"/>
+      <c r="A927" s="15"/>
+      <c r="B927" s="15"/>
       <c r="C927" s="2"/>
     </row>
     <row r="928">
-      <c r="A928" s="2"/>
-      <c r="B928" s="2"/>
+      <c r="A928" s="15"/>
+      <c r="B928" s="15"/>
       <c r="C928" s="2"/>
     </row>
     <row r="929">
-      <c r="A929" s="2"/>
-      <c r="B929" s="2"/>
+      <c r="A929" s="15"/>
+      <c r="B929" s="15"/>
       <c r="C929" s="2"/>
     </row>
     <row r="930">
-      <c r="A930" s="2"/>
-      <c r="B930" s="2"/>
+      <c r="A930" s="15"/>
+      <c r="B930" s="15"/>
       <c r="C930" s="2"/>
     </row>
     <row r="931">
-      <c r="A931" s="2"/>
-      <c r="B931" s="2"/>
+      <c r="A931" s="15"/>
+      <c r="B931" s="15"/>
       <c r="C931" s="2"/>
     </row>
     <row r="932">
-      <c r="A932" s="2"/>
-      <c r="B932" s="2"/>
+      <c r="A932" s="15"/>
+      <c r="B932" s="15"/>
       <c r="C932" s="2"/>
     </row>
     <row r="933">
-      <c r="A933" s="2"/>
-      <c r="B933" s="2"/>
+      <c r="A933" s="15"/>
+      <c r="B933" s="15"/>
       <c r="C933" s="2"/>
     </row>
     <row r="934">
-      <c r="A934" s="2"/>
-      <c r="B934" s="2"/>
+      <c r="A934" s="15"/>
+      <c r="B934" s="15"/>
       <c r="C934" s="2"/>
     </row>
     <row r="935">
-      <c r="A935" s="2"/>
-      <c r="B935" s="2"/>
+      <c r="A935" s="15"/>
+      <c r="B935" s="15"/>
       <c r="C935" s="2"/>
     </row>
     <row r="936">
-      <c r="A936" s="2"/>
-      <c r="B936" s="2"/>
+      <c r="A936" s="15"/>
+      <c r="B936" s="15"/>
       <c r="C936" s="2"/>
     </row>
     <row r="937">
-      <c r="A937" s="2"/>
-      <c r="B937" s="2"/>
+      <c r="A937" s="15"/>
+      <c r="B937" s="15"/>
       <c r="C937" s="2"/>
     </row>
     <row r="938">
-      <c r="A938" s="2"/>
-      <c r="B938" s="2"/>
+      <c r="A938" s="15"/>
+      <c r="B938" s="15"/>
       <c r="C938" s="2"/>
     </row>
     <row r="939">
-      <c r="A939" s="2"/>
-      <c r="B939" s="2"/>
+      <c r="A939" s="15"/>
+      <c r="B939" s="15"/>
       <c r="C939" s="2"/>
     </row>
     <row r="940">
-      <c r="A940" s="2"/>
-      <c r="B940" s="2"/>
+      <c r="A940" s="15"/>
+      <c r="B940" s="15"/>
       <c r="C940" s="2"/>
     </row>
     <row r="941">
-      <c r="A941" s="2"/>
-      <c r="B941" s="2"/>
+      <c r="A941" s="15"/>
+      <c r="B941" s="15"/>
       <c r="C941" s="2"/>
     </row>
     <row r="942">
-      <c r="A942" s="2"/>
-      <c r="B942" s="2"/>
+      <c r="A942" s="15"/>
+      <c r="B942" s="15"/>
       <c r="C942" s="2"/>
     </row>
     <row r="943">
-      <c r="A943" s="2"/>
-      <c r="B943" s="2"/>
+      <c r="A943" s="15"/>
+      <c r="B943" s="15"/>
       <c r="C943" s="2"/>
     </row>
     <row r="944">
-      <c r="A944" s="2"/>
-      <c r="B944" s="2"/>
+      <c r="A944" s="15"/>
+      <c r="B944" s="15"/>
       <c r="C944" s="2"/>
     </row>
     <row r="945">
-      <c r="A945" s="2"/>
-      <c r="B945" s="2"/>
+      <c r="A945" s="15"/>
+      <c r="B945" s="15"/>
       <c r="C945" s="2"/>
     </row>
     <row r="946">
-      <c r="A946" s="2"/>
-      <c r="B946" s="2"/>
+      <c r="A946" s="15"/>
+      <c r="B946" s="15"/>
       <c r="C946" s="2"/>
     </row>
     <row r="947">
-      <c r="A947" s="2"/>
-      <c r="B947" s="2"/>
+      <c r="A947" s="15"/>
+      <c r="B947" s="15"/>
       <c r="C947" s="2"/>
     </row>
     <row r="948">
-      <c r="A948" s="2"/>
-      <c r="B948" s="2"/>
+      <c r="A948" s="15"/>
+      <c r="B948" s="15"/>
       <c r="C948" s="2"/>
     </row>
     <row r="949">
-      <c r="A949" s="2"/>
-      <c r="B949" s="2"/>
+      <c r="A949" s="15"/>
+      <c r="B949" s="15"/>
       <c r="C949" s="2"/>
     </row>
     <row r="950">
-      <c r="A950" s="2"/>
-      <c r="B950" s="2"/>
+      <c r="A950" s="15"/>
+      <c r="B950" s="15"/>
       <c r="C950" s="2"/>
     </row>
     <row r="951">
-      <c r="A951" s="2"/>
-      <c r="B951" s="2"/>
+      <c r="A951" s="15"/>
+      <c r="B951" s="15"/>
       <c r="C951" s="2"/>
     </row>
     <row r="952">
-      <c r="A952" s="2"/>
-      <c r="B952" s="2"/>
+      <c r="A952" s="15"/>
+      <c r="B952" s="15"/>
       <c r="C952" s="2"/>
     </row>
     <row r="953">
-      <c r="A953" s="2"/>
-      <c r="B953" s="2"/>
+      <c r="A953" s="15"/>
+      <c r="B953" s="15"/>
       <c r="C953" s="2"/>
     </row>
     <row r="954">
-      <c r="A954" s="2"/>
-      <c r="B954" s="2"/>
+      <c r="A954" s="15"/>
+      <c r="B954" s="15"/>
       <c r="C954" s="2"/>
     </row>
     <row r="955">
-      <c r="A955" s="2"/>
-      <c r="B955" s="2"/>
+      <c r="A955" s="15"/>
+      <c r="B955" s="15"/>
       <c r="C955" s="2"/>
     </row>
     <row r="956">
-      <c r="A956" s="2"/>
-      <c r="B956" s="2"/>
+      <c r="A956" s="15"/>
+      <c r="B956" s="15"/>
       <c r="C956" s="2"/>
     </row>
     <row r="957">
-      <c r="A957" s="2"/>
-      <c r="B957" s="2"/>
+      <c r="A957" s="15"/>
+      <c r="B957" s="15"/>
       <c r="C957" s="2"/>
     </row>
     <row r="958">
-      <c r="A958" s="2"/>
-      <c r="B958" s="2"/>
+      <c r="A958" s="15"/>
+      <c r="B958" s="15"/>
       <c r="C958" s="2"/>
     </row>
     <row r="959">
-      <c r="A959" s="2"/>
-      <c r="B959" s="2"/>
+      <c r="A959" s="15"/>
+      <c r="B959" s="15"/>
       <c r="C959" s="2"/>
     </row>
     <row r="960">
-      <c r="A960" s="2"/>
-      <c r="B960" s="2"/>
+      <c r="A960" s="15"/>
+      <c r="B960" s="15"/>
       <c r="C960" s="2"/>
     </row>
     <row r="961">
-      <c r="A961" s="2"/>
-      <c r="B961" s="2"/>
+      <c r="A961" s="15"/>
+      <c r="B961" s="15"/>
       <c r="C961" s="2"/>
     </row>
     <row r="962">
-      <c r="A962" s="2"/>
-      <c r="B962" s="2"/>
+      <c r="A962" s="15"/>
+      <c r="B962" s="15"/>
       <c r="C962" s="2"/>
     </row>
     <row r="963">
-      <c r="A963" s="2"/>
-      <c r="B963" s="2"/>
+      <c r="A963" s="15"/>
+      <c r="B963" s="15"/>
       <c r="C963" s="2"/>
     </row>
     <row r="964">
-      <c r="A964" s="2"/>
-      <c r="B964" s="2"/>
+      <c r="A964" s="15"/>
+      <c r="B964" s="15"/>
       <c r="C964" s="2"/>
     </row>
     <row r="965">
-      <c r="A965" s="2"/>
-      <c r="B965" s="2"/>
+      <c r="A965" s="15"/>
+      <c r="B965" s="15"/>
       <c r="C965" s="2"/>
     </row>
     <row r="966">
-      <c r="A966" s="2"/>
-      <c r="B966" s="2"/>
+      <c r="A966" s="15"/>
+      <c r="B966" s="15"/>
       <c r="C966" s="2"/>
     </row>
     <row r="967">
-      <c r="A967" s="2"/>
-      <c r="B967" s="2"/>
+      <c r="A967" s="15"/>
+      <c r="B967" s="15"/>
       <c r="C967" s="2"/>
     </row>
     <row r="968">
-      <c r="A968" s="2"/>
-      <c r="B968" s="2"/>
+      <c r="A968" s="15"/>
+      <c r="B968" s="15"/>
       <c r="C968" s="2"/>
     </row>
     <row r="969">
-      <c r="A969" s="2"/>
-      <c r="B969" s="2"/>
+      <c r="A969" s="15"/>
+      <c r="B969" s="15"/>
       <c r="C969" s="2"/>
     </row>
     <row r="970">
-      <c r="A970" s="2"/>
-      <c r="B970" s="2"/>
+      <c r="A970" s="15"/>
+      <c r="B970" s="15"/>
       <c r="C970" s="2"/>
     </row>
     <row r="971">
-      <c r="A971" s="2"/>
-      <c r="B971" s="2"/>
+      <c r="A971" s="15"/>
+      <c r="B971" s="15"/>
       <c r="C971" s="2"/>
     </row>
     <row r="972">
-      <c r="A972" s="2"/>
-      <c r="B972" s="2"/>
+      <c r="A972" s="15"/>
+      <c r="B972" s="15"/>
       <c r="C972" s="2"/>
     </row>
     <row r="973">
-      <c r="A973" s="2"/>
-      <c r="B973" s="2"/>
+      <c r="A973" s="15"/>
+      <c r="B973" s="15"/>
       <c r="C973" s="2"/>
     </row>
     <row r="974">
-      <c r="A974" s="2"/>
-      <c r="B974" s="2"/>
+      <c r="A974" s="15"/>
+      <c r="B974" s="15"/>
       <c r="C974" s="2"/>
     </row>
     <row r="975">
-      <c r="A975" s="2"/>
-      <c r="B975" s="2"/>
+      <c r="A975" s="15"/>
+      <c r="B975" s="15"/>
       <c r="C975" s="2"/>
     </row>
     <row r="976">
-      <c r="A976" s="2"/>
-      <c r="B976" s="2"/>
+      <c r="A976" s="15"/>
+      <c r="B976" s="15"/>
       <c r="C976" s="2"/>
     </row>
     <row r="977">
-      <c r="A977" s="2"/>
-      <c r="B977" s="2"/>
+      <c r="A977" s="15"/>
+      <c r="B977" s="15"/>
       <c r="C977" s="2"/>
     </row>
     <row r="978">
-      <c r="A978" s="2"/>
-      <c r="B978" s="2"/>
+      <c r="A978" s="15"/>
+      <c r="B978" s="15"/>
       <c r="C978" s="2"/>
     </row>
     <row r="979">
-      <c r="A979" s="2"/>
-      <c r="B979" s="2"/>
+      <c r="A979" s="15"/>
+      <c r="B979" s="15"/>
       <c r="C979" s="2"/>
     </row>
     <row r="980">
-      <c r="A980" s="2"/>
-      <c r="B980" s="2"/>
+      <c r="A980" s="15"/>
+      <c r="B980" s="15"/>
       <c r="C980" s="2"/>
     </row>
     <row r="981">
-      <c r="A981" s="2"/>
-      <c r="B981" s="2"/>
+      <c r="A981" s="15"/>
+      <c r="B981" s="15"/>
       <c r="C981" s="2"/>
     </row>
     <row r="982">
-      <c r="A982" s="2"/>
-      <c r="B982" s="2"/>
+      <c r="A982" s="15"/>
+      <c r="B982" s="15"/>
       <c r="C982" s="2"/>
     </row>
     <row r="983">
-      <c r="A983" s="2"/>
-      <c r="B983" s="2"/>
+      <c r="A983" s="15"/>
+      <c r="B983" s="15"/>
       <c r="C983" s="2"/>
     </row>
     <row r="984">
-      <c r="A984" s="2"/>
-      <c r="B984" s="2"/>
+      <c r="A984" s="15"/>
+      <c r="B984" s="15"/>
       <c r="C984" s="2"/>
     </row>
     <row r="985">
-      <c r="A985" s="2"/>
-      <c r="B985" s="2"/>
+      <c r="A985" s="15"/>
+      <c r="B985" s="15"/>
       <c r="C985" s="2"/>
     </row>
     <row r="986">
-      <c r="A986" s="2"/>
-      <c r="B986" s="2"/>
+      <c r="A986" s="15"/>
+      <c r="B986" s="15"/>
       <c r="C986" s="2"/>
     </row>
     <row r="987">
-      <c r="A987" s="2"/>
-      <c r="B987" s="2"/>
+      <c r="A987" s="15"/>
+      <c r="B987" s="15"/>
       <c r="C987" s="2"/>
     </row>
     <row r="988">
-      <c r="A988" s="2"/>
-      <c r="B988" s="2"/>
+      <c r="A988" s="15"/>
+      <c r="B988" s="15"/>
       <c r="C988" s="2"/>
     </row>
     <row r="989">
-      <c r="A989" s="2"/>
-      <c r="B989" s="2"/>
+      <c r="A989" s="15"/>
+      <c r="B989" s="15"/>
       <c r="C989" s="2"/>
     </row>
     <row r="990">
-      <c r="A990" s="2"/>
-      <c r="B990" s="2"/>
+      <c r="A990" s="15"/>
+      <c r="B990" s="15"/>
       <c r="C990" s="2"/>
     </row>
     <row r="991">
-      <c r="A991" s="2"/>
-      <c r="B991" s="2"/>
+      <c r="A991" s="15"/>
+      <c r="B991" s="15"/>
       <c r="C991" s="2"/>
     </row>
     <row r="992">
-      <c r="A992" s="2"/>
-      <c r="B992" s="2"/>
+      <c r="A992" s="15"/>
+      <c r="B992" s="15"/>
       <c r="C992" s="2"/>
     </row>
     <row r="993">
-      <c r="A993" s="2"/>
-      <c r="B993" s="2"/>
+      <c r="A993" s="15"/>
+      <c r="B993" s="15"/>
       <c r="C993" s="2"/>
     </row>
     <row r="994">
-      <c r="A994" s="2"/>
-      <c r="B994" s="2"/>
+      <c r="A994" s="15"/>
+      <c r="B994" s="15"/>
       <c r="C994" s="2"/>
     </row>
     <row r="995">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
+      <c r="A995" s="15"/>
+      <c r="B995" s="15"/>
       <c r="C995" s="2"/>
     </row>
     <row r="996">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
+      <c r="A996" s="15"/>
+      <c r="B996" s="15"/>
       <c r="C996" s="2"/>
     </row>
     <row r="997">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
+      <c r="A997" s="15"/>
+      <c r="B997" s="15"/>
       <c r="C997" s="2"/>
     </row>
     <row r="998">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
+      <c r="A998" s="15"/>
+      <c r="B998" s="15"/>
       <c r="C998" s="2"/>
     </row>
     <row r="999">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
+      <c r="A999" s="15"/>
+      <c r="B999" s="15"/>
       <c r="C999" s="2"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
+      <c r="A1000" s="15"/>
+      <c r="B1000" s="15"/>
       <c r="C1000" s="2"/>
     </row>
   </sheetData>
@@ -5464,7 +5734,25 @@
     <hyperlink r:id="rId5" ref="C6"/>
     <hyperlink r:id="rId6" ref="C7"/>
     <hyperlink r:id="rId7" ref="C8"/>
+    <hyperlink r:id="rId8" ref="C9"/>
+    <hyperlink r:id="rId9" ref="C10"/>
+    <hyperlink r:id="rId10" ref="C11"/>
+    <hyperlink r:id="rId11" ref="C12"/>
+    <hyperlink r:id="rId12" ref="C13"/>
+    <hyperlink r:id="rId13" ref="C14"/>
+    <hyperlink r:id="rId14" ref="C15"/>
+    <hyperlink r:id="rId15" ref="C16"/>
+    <hyperlink r:id="rId16" ref="C17"/>
+    <hyperlink r:id="rId17" ref="C18"/>
+    <hyperlink r:id="rId18" ref="C19"/>
+    <hyperlink r:id="rId19" ref="C20"/>
+    <hyperlink r:id="rId20" ref="C21"/>
+    <hyperlink r:id="rId21" ref="C22"/>
+    <hyperlink r:id="rId22" ref="C23"/>
+    <hyperlink r:id="rId23" ref="C24"/>
+    <hyperlink r:id="rId24" ref="C25"/>
+    <hyperlink r:id="rId25" ref="C26"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/TranslateEstimator/evaluation/ted_talks.xlsx
+++ b/TranslateEstimator/evaluation/ted_talks.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\googletranslateeval\TranslateEstimator\evaluation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA7FC96-81A7-4030-AD4C-4C74D5174C35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="239">
   <si>
     <t>HE</t>
   </si>
@@ -694,12 +703,6 @@
     <t>Wikipedia is an encyclopedia written by it's readers.</t>
   </si>
   <si>
-    <t>אהבתיה</t>
-  </si>
-  <si>
-    <t>I loved her</t>
-  </si>
-  <si>
     <t>חולצה מטיילת מהנהר</t>
   </si>
   <si>
@@ -712,36 +715,6 @@
     <t>They launch a brand on their name</t>
   </si>
   <si>
-    <t>נעשה ירי מרובה אוויר לעברו</t>
-  </si>
-  <si>
-    <t>A shot from a BB gun was fired at him</t>
-  </si>
-  <si>
-    <t>מלבי</t>
-  </si>
-  <si>
-    <t>Malabi</t>
-  </si>
-  <si>
-    <t>המפגינים שמחו נעצרו</t>
-  </si>
-  <si>
-    <t>The protested protesters were arrested</t>
-  </si>
-  <si>
-    <t>קיבלתי פרח ממחזר אלמוני</t>
-  </si>
-  <si>
-    <t>I received a flower from an anonymous beau</t>
-  </si>
-  <si>
-    <t>אני מחכה לשבת בצהריים</t>
-  </si>
-  <si>
-    <t>I'm waiting for Saturday at noon</t>
-  </si>
-  <si>
     <t>ביקשתי משמש כובע חדש</t>
   </si>
   <si>
@@ -752,63 +725,85 @@
   </si>
   <si>
     <t>In the army soldiers are trained</t>
+  </si>
+  <si>
+    <t>מיצינו</t>
+  </si>
+  <si>
+    <t>We are done</t>
+  </si>
+  <si>
+    <t>אני לא שם עלייך</t>
+  </si>
+  <si>
+    <t>I don't give a dam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Inter"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -818,95 +813,104 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1096,25 +1100,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.86"/>
-    <col customWidth="1" min="2" max="2" width="38.57"/>
-    <col customWidth="1" min="3" max="3" width="30.14"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1213,7 +1222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1323,7 +1332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
         <v>73</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>78</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>80</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>83</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>90</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>94</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>97</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>99</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>101</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>104</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>106</v>
       </c>
@@ -1554,7 +1563,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>108</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>111</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
         <v>113</v>
       </c>
@@ -1587,7 +1596,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>118</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
         <v>120</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>123</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48" s="6" t="s">
         <v>125</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>127</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
         <v>130</v>
       </c>
@@ -1664,7 +1673,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -1675,7 +1684,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>135</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -1708,7 +1717,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>147</v>
       </c>
@@ -1741,7 +1750,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>149</v>
       </c>
@@ -1752,7 +1761,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>152</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>154</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>159</v>
       </c>
@@ -1796,7 +1805,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>162</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
         <v>164</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>167</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>169</v>
       </c>
@@ -1840,7 +1849,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>171</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>174</v>
       </c>
@@ -1862,7 +1871,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>176</v>
       </c>
@@ -1873,7 +1882,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>178</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>181</v>
       </c>
@@ -1895,7 +1904,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>183</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>185</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
         <v>188</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>190</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>192</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>195</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>197</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>199</v>
       </c>
@@ -1983,7 +1992,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>202</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
         <v>204</v>
       </c>
@@ -2005,7 +2014,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
         <v>207</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>209</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>212</v>
       </c>
@@ -2038,7 +2047,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
         <v>214</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3">
       <c r="A86" s="6" t="s">
         <v>216</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3">
       <c r="A87" s="17" t="s">
         <v>219</v>
       </c>
@@ -2071,7 +2080,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3">
       <c r="A88" s="19" t="s">
         <v>221</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3">
       <c r="A89" s="19" t="s">
         <v>223</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3">
       <c r="A90" s="21" t="s">
         <v>225</v>
       </c>
@@ -2102,4692 +2111,4656 @@
       </c>
       <c r="C90" s="22"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3">
       <c r="A91" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="22"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B92" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C91" s="22"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="21" t="s">
+      <c r="C92" s="22"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B93" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C92" s="22"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="21" t="s">
+      <c r="C93" s="22"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="22"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B95" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C93" s="22"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="21" t="s">
+      <c r="C95" s="22"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B96" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C94" s="22"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" s="22"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>238</v>
-      </c>
       <c r="C96" s="22"/>
     </row>
-    <row r="97">
-      <c r="A97" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>240</v>
-      </c>
+    <row r="97" spans="1:3">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="22"/>
     </row>
-    <row r="98">
-      <c r="A98" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>242</v>
-      </c>
+    <row r="98" spans="1:3">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="22"/>
     </row>
-    <row r="99">
-      <c r="A99" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>244</v>
-      </c>
+    <row r="99" spans="1:3">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="22"/>
     </row>
-    <row r="100">
-      <c r="A100" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>246</v>
-      </c>
+    <row r="100" spans="1:3">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="22"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="22"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="22"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="22"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="22"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="22"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="22"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="22"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="22"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="22"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="22"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="22"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="22"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="22"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="22"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="22"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="22"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="22"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="22"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="22"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="22"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="22"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="22"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="22"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="22"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3">
       <c r="A194" s="22"/>
       <c r="B194" s="22"/>
       <c r="C194" s="22"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3">
       <c r="A195" s="22"/>
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3">
       <c r="A196" s="22"/>
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3">
       <c r="A197" s="22"/>
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3">
       <c r="A198" s="22"/>
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3">
       <c r="A199" s="22"/>
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3">
       <c r="A200" s="22"/>
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3">
       <c r="A201" s="22"/>
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3">
       <c r="A202" s="22"/>
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3">
       <c r="A203" s="22"/>
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3">
       <c r="A204" s="22"/>
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3">
       <c r="A205" s="22"/>
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3">
       <c r="A206" s="22"/>
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3">
       <c r="A207" s="22"/>
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3">
       <c r="A208" s="22"/>
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3">
       <c r="A209" s="22"/>
       <c r="B209" s="22"/>
       <c r="C209" s="22"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3">
       <c r="A210" s="22"/>
       <c r="B210" s="22"/>
       <c r="C210" s="22"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3">
       <c r="A211" s="22"/>
       <c r="B211" s="22"/>
       <c r="C211" s="22"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3">
       <c r="A212" s="22"/>
       <c r="B212" s="22"/>
       <c r="C212" s="22"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3">
       <c r="A213" s="22"/>
       <c r="B213" s="22"/>
       <c r="C213" s="22"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3">
       <c r="A214" s="22"/>
       <c r="B214" s="22"/>
       <c r="C214" s="22"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3">
       <c r="A215" s="22"/>
       <c r="B215" s="22"/>
       <c r="C215" s="22"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3">
       <c r="A216" s="22"/>
       <c r="B216" s="22"/>
       <c r="C216" s="22"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3">
       <c r="A217" s="22"/>
       <c r="B217" s="22"/>
       <c r="C217" s="22"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3">
       <c r="A218" s="22"/>
       <c r="B218" s="22"/>
       <c r="C218" s="22"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3">
       <c r="A219" s="22"/>
       <c r="B219" s="22"/>
       <c r="C219" s="22"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3">
       <c r="A220" s="22"/>
       <c r="B220" s="22"/>
       <c r="C220" s="22"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3">
       <c r="A221" s="22"/>
       <c r="B221" s="22"/>
       <c r="C221" s="22"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3">
       <c r="A222" s="22"/>
       <c r="B222" s="22"/>
       <c r="C222" s="22"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3">
       <c r="A223" s="22"/>
       <c r="B223" s="22"/>
       <c r="C223" s="22"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3">
       <c r="A224" s="22"/>
       <c r="B224" s="22"/>
       <c r="C224" s="22"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3">
       <c r="A225" s="22"/>
       <c r="B225" s="22"/>
       <c r="C225" s="22"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3">
       <c r="A226" s="22"/>
       <c r="B226" s="22"/>
       <c r="C226" s="22"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3">
       <c r="A227" s="22"/>
       <c r="B227" s="22"/>
       <c r="C227" s="22"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3">
       <c r="A228" s="22"/>
       <c r="B228" s="22"/>
       <c r="C228" s="22"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3">
       <c r="A229" s="22"/>
       <c r="B229" s="22"/>
       <c r="C229" s="22"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3">
       <c r="A230" s="22"/>
       <c r="B230" s="22"/>
       <c r="C230" s="22"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3">
       <c r="A231" s="22"/>
       <c r="B231" s="22"/>
       <c r="C231" s="22"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3">
       <c r="A232" s="22"/>
       <c r="B232" s="22"/>
       <c r="C232" s="22"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3">
       <c r="A233" s="22"/>
       <c r="B233" s="22"/>
       <c r="C233" s="22"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3">
       <c r="A234" s="22"/>
       <c r="B234" s="22"/>
       <c r="C234" s="22"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3">
       <c r="A235" s="22"/>
       <c r="B235" s="22"/>
       <c r="C235" s="22"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3">
       <c r="A236" s="22"/>
       <c r="B236" s="22"/>
       <c r="C236" s="22"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3">
       <c r="A237" s="22"/>
       <c r="B237" s="22"/>
       <c r="C237" s="22"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3">
       <c r="A238" s="22"/>
       <c r="B238" s="22"/>
       <c r="C238" s="22"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3">
       <c r="A239" s="22"/>
       <c r="B239" s="22"/>
       <c r="C239" s="22"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3">
       <c r="A240" s="22"/>
       <c r="B240" s="22"/>
       <c r="C240" s="22"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3">
       <c r="A241" s="22"/>
       <c r="B241" s="22"/>
       <c r="C241" s="22"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3">
       <c r="A242" s="22"/>
       <c r="B242" s="22"/>
       <c r="C242" s="22"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3">
       <c r="A243" s="22"/>
       <c r="B243" s="22"/>
       <c r="C243" s="22"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3">
       <c r="A244" s="22"/>
       <c r="B244" s="22"/>
       <c r="C244" s="22"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3">
       <c r="A245" s="22"/>
       <c r="B245" s="22"/>
       <c r="C245" s="22"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3">
       <c r="A246" s="22"/>
       <c r="B246" s="22"/>
       <c r="C246" s="22"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3">
       <c r="A247" s="22"/>
       <c r="B247" s="22"/>
       <c r="C247" s="22"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3">
       <c r="A248" s="22"/>
       <c r="B248" s="22"/>
       <c r="C248" s="22"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3">
       <c r="A249" s="22"/>
       <c r="B249" s="22"/>
       <c r="C249" s="22"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3">
       <c r="A250" s="22"/>
       <c r="B250" s="22"/>
       <c r="C250" s="22"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3">
       <c r="A251" s="22"/>
       <c r="B251" s="22"/>
       <c r="C251" s="22"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3">
       <c r="A252" s="22"/>
       <c r="B252" s="22"/>
       <c r="C252" s="22"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3">
       <c r="A253" s="22"/>
       <c r="B253" s="22"/>
       <c r="C253" s="22"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3">
       <c r="A254" s="22"/>
       <c r="B254" s="22"/>
       <c r="C254" s="22"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3">
       <c r="A255" s="22"/>
       <c r="B255" s="22"/>
       <c r="C255" s="22"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3">
       <c r="A256" s="22"/>
       <c r="B256" s="22"/>
       <c r="C256" s="22"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3">
       <c r="A257" s="22"/>
       <c r="B257" s="22"/>
       <c r="C257" s="22"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3">
       <c r="A258" s="22"/>
       <c r="B258" s="22"/>
       <c r="C258" s="22"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3">
       <c r="A259" s="22"/>
       <c r="B259" s="22"/>
       <c r="C259" s="22"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3">
       <c r="A260" s="22"/>
       <c r="B260" s="22"/>
       <c r="C260" s="22"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3">
       <c r="A261" s="22"/>
       <c r="B261" s="22"/>
       <c r="C261" s="22"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3">
       <c r="A262" s="22"/>
       <c r="B262" s="22"/>
       <c r="C262" s="22"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3">
       <c r="A263" s="22"/>
       <c r="B263" s="22"/>
       <c r="C263" s="22"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3">
       <c r="A264" s="22"/>
       <c r="B264" s="22"/>
       <c r="C264" s="22"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3">
       <c r="A265" s="22"/>
       <c r="B265" s="22"/>
       <c r="C265" s="22"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3">
       <c r="A266" s="22"/>
       <c r="B266" s="22"/>
       <c r="C266" s="22"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3">
       <c r="A267" s="22"/>
       <c r="B267" s="22"/>
       <c r="C267" s="22"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3">
       <c r="A268" s="22"/>
       <c r="B268" s="22"/>
       <c r="C268" s="22"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3">
       <c r="A269" s="22"/>
       <c r="B269" s="22"/>
       <c r="C269" s="22"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3">
       <c r="A270" s="22"/>
       <c r="B270" s="22"/>
       <c r="C270" s="22"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3">
       <c r="A271" s="22"/>
       <c r="B271" s="22"/>
       <c r="C271" s="22"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3">
       <c r="A272" s="22"/>
       <c r="B272" s="22"/>
       <c r="C272" s="22"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3">
       <c r="A273" s="22"/>
       <c r="B273" s="22"/>
       <c r="C273" s="22"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:3">
       <c r="A274" s="22"/>
       <c r="B274" s="22"/>
       <c r="C274" s="22"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3">
       <c r="A275" s="22"/>
       <c r="B275" s="22"/>
       <c r="C275" s="22"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3">
       <c r="A276" s="22"/>
       <c r="B276" s="22"/>
       <c r="C276" s="22"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3">
       <c r="A277" s="22"/>
       <c r="B277" s="22"/>
       <c r="C277" s="22"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3">
       <c r="A278" s="22"/>
       <c r="B278" s="22"/>
       <c r="C278" s="22"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3">
       <c r="A279" s="22"/>
       <c r="B279" s="22"/>
       <c r="C279" s="22"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3">
       <c r="A280" s="22"/>
       <c r="B280" s="22"/>
       <c r="C280" s="22"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3">
       <c r="A281" s="22"/>
       <c r="B281" s="22"/>
       <c r="C281" s="22"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:3">
       <c r="A282" s="22"/>
       <c r="B282" s="22"/>
       <c r="C282" s="22"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3">
       <c r="A283" s="22"/>
       <c r="B283" s="22"/>
       <c r="C283" s="22"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3">
       <c r="A284" s="22"/>
       <c r="B284" s="22"/>
       <c r="C284" s="22"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:3">
       <c r="A285" s="22"/>
       <c r="B285" s="22"/>
       <c r="C285" s="22"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:3">
       <c r="A286" s="22"/>
       <c r="B286" s="22"/>
       <c r="C286" s="22"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:3">
       <c r="A287" s="22"/>
       <c r="B287" s="22"/>
       <c r="C287" s="22"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3">
       <c r="A288" s="22"/>
       <c r="B288" s="22"/>
       <c r="C288" s="22"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:3">
       <c r="A289" s="22"/>
       <c r="B289" s="22"/>
       <c r="C289" s="22"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3">
       <c r="A290" s="22"/>
       <c r="B290" s="22"/>
       <c r="C290" s="22"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:3">
       <c r="A291" s="22"/>
       <c r="B291" s="22"/>
       <c r="C291" s="22"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:3">
       <c r="A292" s="22"/>
       <c r="B292" s="22"/>
       <c r="C292" s="22"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3">
       <c r="A293" s="22"/>
       <c r="B293" s="22"/>
       <c r="C293" s="22"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:3">
       <c r="A294" s="22"/>
       <c r="B294" s="22"/>
       <c r="C294" s="22"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:3">
       <c r="A295" s="22"/>
       <c r="B295" s="22"/>
       <c r="C295" s="22"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:3">
       <c r="A296" s="22"/>
       <c r="B296" s="22"/>
       <c r="C296" s="22"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:3">
       <c r="A297" s="22"/>
       <c r="B297" s="22"/>
       <c r="C297" s="22"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3">
       <c r="A298" s="22"/>
       <c r="B298" s="22"/>
       <c r="C298" s="22"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3">
       <c r="A299" s="22"/>
       <c r="B299" s="22"/>
       <c r="C299" s="22"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3">
       <c r="A300" s="22"/>
       <c r="B300" s="22"/>
       <c r="C300" s="22"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3">
       <c r="A301" s="22"/>
       <c r="B301" s="22"/>
       <c r="C301" s="22"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:3">
       <c r="A302" s="22"/>
       <c r="B302" s="22"/>
       <c r="C302" s="22"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:3">
       <c r="A303" s="22"/>
       <c r="B303" s="22"/>
       <c r="C303" s="22"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:3">
       <c r="A304" s="22"/>
       <c r="B304" s="22"/>
       <c r="C304" s="22"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:3">
       <c r="A305" s="22"/>
       <c r="B305" s="22"/>
       <c r="C305" s="22"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:3">
       <c r="A306" s="22"/>
       <c r="B306" s="22"/>
       <c r="C306" s="22"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:3">
       <c r="A307" s="22"/>
       <c r="B307" s="22"/>
       <c r="C307" s="22"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:3">
       <c r="A308" s="22"/>
       <c r="B308" s="22"/>
       <c r="C308" s="22"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:3">
       <c r="A309" s="22"/>
       <c r="B309" s="22"/>
       <c r="C309" s="22"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:3">
       <c r="A310" s="22"/>
       <c r="B310" s="22"/>
       <c r="C310" s="22"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:3">
       <c r="A311" s="22"/>
       <c r="B311" s="22"/>
       <c r="C311" s="22"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:3">
       <c r="A312" s="22"/>
       <c r="B312" s="22"/>
       <c r="C312" s="22"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:3">
       <c r="A313" s="22"/>
       <c r="B313" s="22"/>
       <c r="C313" s="22"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:3">
       <c r="A314" s="22"/>
       <c r="B314" s="22"/>
       <c r="C314" s="22"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:3">
       <c r="A315" s="22"/>
       <c r="B315" s="22"/>
       <c r="C315" s="22"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:3">
       <c r="A316" s="22"/>
       <c r="B316" s="22"/>
       <c r="C316" s="22"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:3">
       <c r="A317" s="22"/>
       <c r="B317" s="22"/>
       <c r="C317" s="22"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:3">
       <c r="A318" s="22"/>
       <c r="B318" s="22"/>
       <c r="C318" s="22"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:3">
       <c r="A319" s="22"/>
       <c r="B319" s="22"/>
       <c r="C319" s="22"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:3">
       <c r="A320" s="22"/>
       <c r="B320" s="22"/>
       <c r="C320" s="22"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:3">
       <c r="A321" s="22"/>
       <c r="B321" s="22"/>
       <c r="C321" s="22"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:3">
       <c r="A322" s="22"/>
       <c r="B322" s="22"/>
       <c r="C322" s="22"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:3">
       <c r="A323" s="22"/>
       <c r="B323" s="22"/>
       <c r="C323" s="22"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:3">
       <c r="A324" s="22"/>
       <c r="B324" s="22"/>
       <c r="C324" s="22"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:3">
       <c r="A325" s="22"/>
       <c r="B325" s="22"/>
       <c r="C325" s="22"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:3">
       <c r="A326" s="22"/>
       <c r="B326" s="22"/>
       <c r="C326" s="22"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:3">
       <c r="A327" s="22"/>
       <c r="B327" s="22"/>
       <c r="C327" s="22"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:3">
       <c r="A328" s="22"/>
       <c r="B328" s="22"/>
       <c r="C328" s="22"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:3">
       <c r="A329" s="22"/>
       <c r="B329" s="22"/>
       <c r="C329" s="22"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:3">
       <c r="A330" s="22"/>
       <c r="B330" s="22"/>
       <c r="C330" s="22"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:3">
       <c r="A331" s="22"/>
       <c r="B331" s="22"/>
       <c r="C331" s="22"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3">
       <c r="A332" s="22"/>
       <c r="B332" s="22"/>
       <c r="C332" s="22"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:3">
       <c r="A333" s="22"/>
       <c r="B333" s="22"/>
       <c r="C333" s="22"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:3">
       <c r="A334" s="22"/>
       <c r="B334" s="22"/>
       <c r="C334" s="22"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:3">
       <c r="A335" s="22"/>
       <c r="B335" s="22"/>
       <c r="C335" s="22"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:3">
       <c r="A336" s="22"/>
       <c r="B336" s="22"/>
       <c r="C336" s="22"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:3">
       <c r="A337" s="22"/>
       <c r="B337" s="22"/>
       <c r="C337" s="22"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3">
       <c r="A338" s="22"/>
       <c r="B338" s="22"/>
       <c r="C338" s="22"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:3">
       <c r="A339" s="22"/>
       <c r="B339" s="22"/>
       <c r="C339" s="22"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:3">
       <c r="A340" s="22"/>
       <c r="B340" s="22"/>
       <c r="C340" s="22"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:3">
       <c r="A341" s="22"/>
       <c r="B341" s="22"/>
       <c r="C341" s="22"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:3">
       <c r="A342" s="22"/>
       <c r="B342" s="22"/>
       <c r="C342" s="22"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:3">
       <c r="A343" s="22"/>
       <c r="B343" s="22"/>
       <c r="C343" s="22"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:3">
       <c r="A344" s="22"/>
       <c r="B344" s="22"/>
       <c r="C344" s="22"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:3">
       <c r="A345" s="22"/>
       <c r="B345" s="22"/>
       <c r="C345" s="22"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:3">
       <c r="A346" s="22"/>
       <c r="B346" s="22"/>
       <c r="C346" s="22"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3">
       <c r="A347" s="22"/>
       <c r="B347" s="22"/>
       <c r="C347" s="22"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:3">
       <c r="A348" s="22"/>
       <c r="B348" s="22"/>
       <c r="C348" s="22"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:3">
       <c r="A349" s="22"/>
       <c r="B349" s="22"/>
       <c r="C349" s="22"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:3">
       <c r="A350" s="22"/>
       <c r="B350" s="22"/>
       <c r="C350" s="22"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:3">
       <c r="A351" s="22"/>
       <c r="B351" s="22"/>
       <c r="C351" s="22"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:3">
       <c r="A352" s="22"/>
       <c r="B352" s="22"/>
       <c r="C352" s="22"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:3">
       <c r="A353" s="22"/>
       <c r="B353" s="22"/>
       <c r="C353" s="22"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:3">
       <c r="A354" s="22"/>
       <c r="B354" s="22"/>
       <c r="C354" s="22"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:3">
       <c r="A355" s="22"/>
       <c r="B355" s="22"/>
       <c r="C355" s="22"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:3">
       <c r="A356" s="22"/>
       <c r="B356" s="22"/>
       <c r="C356" s="22"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:3">
       <c r="A357" s="22"/>
       <c r="B357" s="22"/>
       <c r="C357" s="22"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:3">
       <c r="A358" s="22"/>
       <c r="B358" s="22"/>
       <c r="C358" s="22"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:3">
       <c r="A359" s="22"/>
       <c r="B359" s="22"/>
       <c r="C359" s="22"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:3">
       <c r="A360" s="22"/>
       <c r="B360" s="22"/>
       <c r="C360" s="22"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:3">
       <c r="A361" s="22"/>
       <c r="B361" s="22"/>
       <c r="C361" s="22"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:3">
       <c r="A362" s="22"/>
       <c r="B362" s="22"/>
       <c r="C362" s="22"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:3">
       <c r="A363" s="22"/>
       <c r="B363" s="22"/>
       <c r="C363" s="22"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:3">
       <c r="A364" s="22"/>
       <c r="B364" s="22"/>
       <c r="C364" s="22"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:3">
       <c r="A365" s="22"/>
       <c r="B365" s="22"/>
       <c r="C365" s="22"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:3">
       <c r="A366" s="22"/>
       <c r="B366" s="22"/>
       <c r="C366" s="22"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:3">
       <c r="A367" s="22"/>
       <c r="B367" s="22"/>
       <c r="C367" s="22"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:3">
       <c r="A368" s="22"/>
       <c r="B368" s="22"/>
       <c r="C368" s="22"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:3">
       <c r="A369" s="22"/>
       <c r="B369" s="22"/>
       <c r="C369" s="22"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:3">
       <c r="A370" s="22"/>
       <c r="B370" s="22"/>
       <c r="C370" s="22"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:3">
       <c r="A371" s="22"/>
       <c r="B371" s="22"/>
       <c r="C371" s="22"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:3">
       <c r="A372" s="22"/>
       <c r="B372" s="22"/>
       <c r="C372" s="22"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:3">
       <c r="A373" s="22"/>
       <c r="B373" s="22"/>
       <c r="C373" s="22"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:3">
       <c r="A374" s="22"/>
       <c r="B374" s="22"/>
       <c r="C374" s="22"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:3">
       <c r="A375" s="22"/>
       <c r="B375" s="22"/>
       <c r="C375" s="22"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:3">
       <c r="A376" s="22"/>
       <c r="B376" s="22"/>
       <c r="C376" s="22"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:3">
       <c r="A377" s="22"/>
       <c r="B377" s="22"/>
       <c r="C377" s="22"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:3">
       <c r="A378" s="22"/>
       <c r="B378" s="22"/>
       <c r="C378" s="22"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:3">
       <c r="A379" s="22"/>
       <c r="B379" s="22"/>
       <c r="C379" s="22"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:3">
       <c r="A380" s="22"/>
       <c r="B380" s="22"/>
       <c r="C380" s="22"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:3">
       <c r="A381" s="22"/>
       <c r="B381" s="22"/>
       <c r="C381" s="22"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:3">
       <c r="A382" s="22"/>
       <c r="B382" s="22"/>
       <c r="C382" s="22"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:3">
       <c r="A383" s="22"/>
       <c r="B383" s="22"/>
       <c r="C383" s="22"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:3">
       <c r="A384" s="22"/>
       <c r="B384" s="22"/>
       <c r="C384" s="22"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:3">
       <c r="A385" s="22"/>
       <c r="B385" s="22"/>
       <c r="C385" s="22"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:3">
       <c r="A386" s="22"/>
       <c r="B386" s="22"/>
       <c r="C386" s="22"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:3">
       <c r="A387" s="22"/>
       <c r="B387" s="22"/>
       <c r="C387" s="22"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:3">
       <c r="A388" s="22"/>
       <c r="B388" s="22"/>
       <c r="C388" s="22"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:3">
       <c r="A389" s="22"/>
       <c r="B389" s="22"/>
       <c r="C389" s="22"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:3">
       <c r="A390" s="22"/>
       <c r="B390" s="22"/>
       <c r="C390" s="22"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:3">
       <c r="A391" s="22"/>
       <c r="B391" s="22"/>
       <c r="C391" s="22"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:3">
       <c r="A392" s="22"/>
       <c r="B392" s="22"/>
       <c r="C392" s="22"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:3">
       <c r="A393" s="22"/>
       <c r="B393" s="22"/>
       <c r="C393" s="22"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:3">
       <c r="A394" s="22"/>
       <c r="B394" s="22"/>
       <c r="C394" s="22"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:3">
       <c r="A395" s="22"/>
       <c r="B395" s="22"/>
       <c r="C395" s="22"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:3">
       <c r="A396" s="22"/>
       <c r="B396" s="22"/>
       <c r="C396" s="22"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:3">
       <c r="A397" s="22"/>
       <c r="B397" s="22"/>
       <c r="C397" s="22"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:3">
       <c r="A398" s="22"/>
       <c r="B398" s="22"/>
       <c r="C398" s="22"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:3">
       <c r="A399" s="22"/>
       <c r="B399" s="22"/>
       <c r="C399" s="22"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:3">
       <c r="A400" s="22"/>
       <c r="B400" s="22"/>
       <c r="C400" s="22"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:3">
       <c r="A401" s="22"/>
       <c r="B401" s="22"/>
       <c r="C401" s="22"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:3">
       <c r="A402" s="22"/>
       <c r="B402" s="22"/>
       <c r="C402" s="22"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:3">
       <c r="A403" s="22"/>
       <c r="B403" s="22"/>
       <c r="C403" s="22"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:3">
       <c r="A404" s="22"/>
       <c r="B404" s="22"/>
       <c r="C404" s="22"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:3">
       <c r="A405" s="22"/>
       <c r="B405" s="22"/>
       <c r="C405" s="22"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:3">
       <c r="A406" s="22"/>
       <c r="B406" s="22"/>
       <c r="C406" s="22"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:3">
       <c r="A407" s="22"/>
       <c r="B407" s="22"/>
       <c r="C407" s="22"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:3">
       <c r="A408" s="22"/>
       <c r="B408" s="22"/>
       <c r="C408" s="22"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:3">
       <c r="A409" s="22"/>
       <c r="B409" s="22"/>
       <c r="C409" s="22"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:3">
       <c r="A410" s="22"/>
       <c r="B410" s="22"/>
       <c r="C410" s="22"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:3">
       <c r="A411" s="22"/>
       <c r="B411" s="22"/>
       <c r="C411" s="22"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:3">
       <c r="A412" s="22"/>
       <c r="B412" s="22"/>
       <c r="C412" s="22"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:3">
       <c r="A413" s="22"/>
       <c r="B413" s="22"/>
       <c r="C413" s="22"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:3">
       <c r="A414" s="22"/>
       <c r="B414" s="22"/>
       <c r="C414" s="22"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:3">
       <c r="A415" s="22"/>
       <c r="B415" s="22"/>
       <c r="C415" s="22"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:3">
       <c r="A416" s="22"/>
       <c r="B416" s="22"/>
       <c r="C416" s="22"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:3">
       <c r="A417" s="22"/>
       <c r="B417" s="22"/>
       <c r="C417" s="22"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:3">
       <c r="A418" s="22"/>
       <c r="B418" s="22"/>
       <c r="C418" s="22"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:3">
       <c r="A419" s="22"/>
       <c r="B419" s="22"/>
       <c r="C419" s="22"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:3">
       <c r="A420" s="22"/>
       <c r="B420" s="22"/>
       <c r="C420" s="22"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:3">
       <c r="A421" s="22"/>
       <c r="B421" s="22"/>
       <c r="C421" s="22"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:3">
       <c r="A422" s="22"/>
       <c r="B422" s="22"/>
       <c r="C422" s="22"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:3">
       <c r="A423" s="22"/>
       <c r="B423" s="22"/>
       <c r="C423" s="22"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:3">
       <c r="A424" s="22"/>
       <c r="B424" s="22"/>
       <c r="C424" s="22"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:3">
       <c r="A425" s="22"/>
       <c r="B425" s="22"/>
       <c r="C425" s="22"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:3">
       <c r="A426" s="22"/>
       <c r="B426" s="22"/>
       <c r="C426" s="22"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:3">
       <c r="A427" s="22"/>
       <c r="B427" s="22"/>
       <c r="C427" s="22"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:3">
       <c r="A428" s="22"/>
       <c r="B428" s="22"/>
       <c r="C428" s="22"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:3">
       <c r="A429" s="22"/>
       <c r="B429" s="22"/>
       <c r="C429" s="22"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:3">
       <c r="A430" s="22"/>
       <c r="B430" s="22"/>
       <c r="C430" s="22"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:3">
       <c r="A431" s="22"/>
       <c r="B431" s="22"/>
       <c r="C431" s="22"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:3">
       <c r="A432" s="22"/>
       <c r="B432" s="22"/>
       <c r="C432" s="22"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:3">
       <c r="A433" s="22"/>
       <c r="B433" s="22"/>
       <c r="C433" s="22"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:3">
       <c r="A434" s="22"/>
       <c r="B434" s="22"/>
       <c r="C434" s="22"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:3">
       <c r="A435" s="22"/>
       <c r="B435" s="22"/>
       <c r="C435" s="22"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:3">
       <c r="A436" s="22"/>
       <c r="B436" s="22"/>
       <c r="C436" s="22"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:3">
       <c r="A437" s="22"/>
       <c r="B437" s="22"/>
       <c r="C437" s="22"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:3">
       <c r="A438" s="22"/>
       <c r="B438" s="22"/>
       <c r="C438" s="22"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:3">
       <c r="A439" s="22"/>
       <c r="B439" s="22"/>
       <c r="C439" s="22"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:3">
       <c r="A440" s="22"/>
       <c r="B440" s="22"/>
       <c r="C440" s="22"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:3">
       <c r="A441" s="22"/>
       <c r="B441" s="22"/>
       <c r="C441" s="22"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:3">
       <c r="A442" s="22"/>
       <c r="B442" s="22"/>
       <c r="C442" s="22"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:3">
       <c r="A443" s="22"/>
       <c r="B443" s="22"/>
       <c r="C443" s="22"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:3">
       <c r="A444" s="22"/>
       <c r="B444" s="22"/>
       <c r="C444" s="22"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:3">
       <c r="A445" s="22"/>
       <c r="B445" s="22"/>
       <c r="C445" s="22"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:3">
       <c r="A446" s="22"/>
       <c r="B446" s="22"/>
       <c r="C446" s="22"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:3">
       <c r="A447" s="22"/>
       <c r="B447" s="22"/>
       <c r="C447" s="22"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:3">
       <c r="A448" s="22"/>
       <c r="B448" s="22"/>
       <c r="C448" s="22"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:3">
       <c r="A449" s="22"/>
       <c r="B449" s="22"/>
       <c r="C449" s="22"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:3">
       <c r="A450" s="22"/>
       <c r="B450" s="22"/>
       <c r="C450" s="22"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:3">
       <c r="A451" s="22"/>
       <c r="B451" s="22"/>
       <c r="C451" s="22"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:3">
       <c r="A452" s="22"/>
       <c r="B452" s="22"/>
       <c r="C452" s="22"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:3">
       <c r="A453" s="22"/>
       <c r="B453" s="22"/>
       <c r="C453" s="22"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:3">
       <c r="A454" s="22"/>
       <c r="B454" s="22"/>
       <c r="C454" s="22"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:3">
       <c r="A455" s="22"/>
       <c r="B455" s="22"/>
       <c r="C455" s="22"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:3">
       <c r="A456" s="22"/>
       <c r="B456" s="22"/>
       <c r="C456" s="22"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:3">
       <c r="A457" s="22"/>
       <c r="B457" s="22"/>
       <c r="C457" s="22"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:3">
       <c r="A458" s="22"/>
       <c r="B458" s="22"/>
       <c r="C458" s="22"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:3">
       <c r="A459" s="22"/>
       <c r="B459" s="22"/>
       <c r="C459" s="22"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:3">
       <c r="A460" s="22"/>
       <c r="B460" s="22"/>
       <c r="C460" s="22"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:3">
       <c r="A461" s="22"/>
       <c r="B461" s="22"/>
       <c r="C461" s="22"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:3">
       <c r="A462" s="22"/>
       <c r="B462" s="22"/>
       <c r="C462" s="22"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:3">
       <c r="A463" s="22"/>
       <c r="B463" s="22"/>
       <c r="C463" s="22"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:3">
       <c r="A464" s="22"/>
       <c r="B464" s="22"/>
       <c r="C464" s="22"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:3">
       <c r="A465" s="22"/>
       <c r="B465" s="22"/>
       <c r="C465" s="22"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:3">
       <c r="A466" s="22"/>
       <c r="B466" s="22"/>
       <c r="C466" s="22"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:3">
       <c r="A467" s="22"/>
       <c r="B467" s="22"/>
       <c r="C467" s="22"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:3">
       <c r="A468" s="22"/>
       <c r="B468" s="22"/>
       <c r="C468" s="22"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:3">
       <c r="A469" s="22"/>
       <c r="B469" s="22"/>
       <c r="C469" s="22"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:3">
       <c r="A470" s="22"/>
       <c r="B470" s="22"/>
       <c r="C470" s="22"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:3">
       <c r="A471" s="22"/>
       <c r="B471" s="22"/>
       <c r="C471" s="22"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:3">
       <c r="A472" s="22"/>
       <c r="B472" s="22"/>
       <c r="C472" s="22"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:3">
       <c r="A473" s="22"/>
       <c r="B473" s="22"/>
       <c r="C473" s="22"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:3">
       <c r="A474" s="22"/>
       <c r="B474" s="22"/>
       <c r="C474" s="22"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:3">
       <c r="A475" s="22"/>
       <c r="B475" s="22"/>
       <c r="C475" s="22"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:3">
       <c r="A476" s="22"/>
       <c r="B476" s="22"/>
       <c r="C476" s="22"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:3">
       <c r="A477" s="22"/>
       <c r="B477" s="22"/>
       <c r="C477" s="22"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:3">
       <c r="A478" s="22"/>
       <c r="B478" s="22"/>
       <c r="C478" s="22"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:3">
       <c r="A479" s="22"/>
       <c r="B479" s="22"/>
       <c r="C479" s="22"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:3">
       <c r="A480" s="22"/>
       <c r="B480" s="22"/>
       <c r="C480" s="22"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:3">
       <c r="A481" s="22"/>
       <c r="B481" s="22"/>
       <c r="C481" s="22"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:3">
       <c r="A482" s="22"/>
       <c r="B482" s="22"/>
       <c r="C482" s="22"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:3">
       <c r="A483" s="22"/>
       <c r="B483" s="22"/>
       <c r="C483" s="22"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:3">
       <c r="A484" s="22"/>
       <c r="B484" s="22"/>
       <c r="C484" s="22"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:3">
       <c r="A485" s="22"/>
       <c r="B485" s="22"/>
       <c r="C485" s="22"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:3">
       <c r="A486" s="22"/>
       <c r="B486" s="22"/>
       <c r="C486" s="22"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:3">
       <c r="A487" s="22"/>
       <c r="B487" s="22"/>
       <c r="C487" s="22"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:3">
       <c r="A488" s="22"/>
       <c r="B488" s="22"/>
       <c r="C488" s="22"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:3">
       <c r="A489" s="22"/>
       <c r="B489" s="22"/>
       <c r="C489" s="22"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:3">
       <c r="A490" s="22"/>
       <c r="B490" s="22"/>
       <c r="C490" s="22"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:3">
       <c r="A491" s="22"/>
       <c r="B491" s="22"/>
       <c r="C491" s="22"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:3">
       <c r="A492" s="22"/>
       <c r="B492" s="22"/>
       <c r="C492" s="22"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:3">
       <c r="A493" s="22"/>
       <c r="B493" s="22"/>
       <c r="C493" s="22"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:3">
       <c r="A494" s="22"/>
       <c r="B494" s="22"/>
       <c r="C494" s="22"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:3">
       <c r="A495" s="22"/>
       <c r="B495" s="22"/>
       <c r="C495" s="22"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:3">
       <c r="A496" s="22"/>
       <c r="B496" s="22"/>
       <c r="C496" s="22"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:3">
       <c r="A497" s="22"/>
       <c r="B497" s="22"/>
       <c r="C497" s="22"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:3">
       <c r="A498" s="22"/>
       <c r="B498" s="22"/>
       <c r="C498" s="22"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:3">
       <c r="A499" s="22"/>
       <c r="B499" s="22"/>
       <c r="C499" s="22"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:3">
       <c r="A500" s="22"/>
       <c r="B500" s="22"/>
       <c r="C500" s="22"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:3">
       <c r="A501" s="22"/>
       <c r="B501" s="22"/>
       <c r="C501" s="22"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:3">
       <c r="A502" s="22"/>
       <c r="B502" s="22"/>
       <c r="C502" s="22"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:3">
       <c r="A503" s="22"/>
       <c r="B503" s="22"/>
       <c r="C503" s="22"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:3">
       <c r="A504" s="22"/>
       <c r="B504" s="22"/>
       <c r="C504" s="22"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:3">
       <c r="A505" s="22"/>
       <c r="B505" s="22"/>
       <c r="C505" s="22"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:3">
       <c r="A506" s="22"/>
       <c r="B506" s="22"/>
       <c r="C506" s="22"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:3">
       <c r="A507" s="22"/>
       <c r="B507" s="22"/>
       <c r="C507" s="22"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:3">
       <c r="A508" s="22"/>
       <c r="B508" s="22"/>
       <c r="C508" s="22"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:3">
       <c r="A509" s="22"/>
       <c r="B509" s="22"/>
       <c r="C509" s="22"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:3">
       <c r="A510" s="22"/>
       <c r="B510" s="22"/>
       <c r="C510" s="22"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:3">
       <c r="A511" s="22"/>
       <c r="B511" s="22"/>
       <c r="C511" s="22"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:3">
       <c r="A512" s="22"/>
       <c r="B512" s="22"/>
       <c r="C512" s="22"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:3">
       <c r="A513" s="22"/>
       <c r="B513" s="22"/>
       <c r="C513" s="22"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:3">
       <c r="A514" s="22"/>
       <c r="B514" s="22"/>
       <c r="C514" s="22"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:3">
       <c r="A515" s="22"/>
       <c r="B515" s="22"/>
       <c r="C515" s="22"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:3">
       <c r="A516" s="22"/>
       <c r="B516" s="22"/>
       <c r="C516" s="22"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:3">
       <c r="A517" s="22"/>
       <c r="B517" s="22"/>
       <c r="C517" s="22"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:3">
       <c r="A518" s="22"/>
       <c r="B518" s="22"/>
       <c r="C518" s="22"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:3">
       <c r="A519" s="22"/>
       <c r="B519" s="22"/>
       <c r="C519" s="22"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:3">
       <c r="A520" s="22"/>
       <c r="B520" s="22"/>
       <c r="C520" s="22"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:3">
       <c r="A521" s="22"/>
       <c r="B521" s="22"/>
       <c r="C521" s="22"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:3">
       <c r="A522" s="22"/>
       <c r="B522" s="22"/>
       <c r="C522" s="22"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:3">
       <c r="A523" s="22"/>
       <c r="B523" s="22"/>
       <c r="C523" s="22"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:3">
       <c r="A524" s="22"/>
       <c r="B524" s="22"/>
       <c r="C524" s="22"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:3">
       <c r="A525" s="22"/>
       <c r="B525" s="22"/>
       <c r="C525" s="22"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:3">
       <c r="A526" s="22"/>
       <c r="B526" s="22"/>
       <c r="C526" s="22"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:3">
       <c r="A527" s="22"/>
       <c r="B527" s="22"/>
       <c r="C527" s="22"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:3">
       <c r="A528" s="22"/>
       <c r="B528" s="22"/>
       <c r="C528" s="22"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:3">
       <c r="A529" s="22"/>
       <c r="B529" s="22"/>
       <c r="C529" s="22"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:3">
       <c r="A530" s="22"/>
       <c r="B530" s="22"/>
       <c r="C530" s="22"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:3">
       <c r="A531" s="22"/>
       <c r="B531" s="22"/>
       <c r="C531" s="22"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:3">
       <c r="A532" s="22"/>
       <c r="B532" s="22"/>
       <c r="C532" s="22"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:3">
       <c r="A533" s="22"/>
       <c r="B533" s="22"/>
       <c r="C533" s="22"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:3">
       <c r="A534" s="22"/>
       <c r="B534" s="22"/>
       <c r="C534" s="22"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:3">
       <c r="A535" s="22"/>
       <c r="B535" s="22"/>
       <c r="C535" s="22"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:3">
       <c r="A536" s="22"/>
       <c r="B536" s="22"/>
       <c r="C536" s="22"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:3">
       <c r="A537" s="22"/>
       <c r="B537" s="22"/>
       <c r="C537" s="22"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:3">
       <c r="A538" s="22"/>
       <c r="B538" s="22"/>
       <c r="C538" s="22"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:3">
       <c r="A539" s="22"/>
       <c r="B539" s="22"/>
       <c r="C539" s="22"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:3">
       <c r="A540" s="22"/>
       <c r="B540" s="22"/>
       <c r="C540" s="22"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:3">
       <c r="A541" s="22"/>
       <c r="B541" s="22"/>
       <c r="C541" s="22"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:3">
       <c r="A542" s="22"/>
       <c r="B542" s="22"/>
       <c r="C542" s="22"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:3">
       <c r="A543" s="22"/>
       <c r="B543" s="22"/>
       <c r="C543" s="22"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:3">
       <c r="A544" s="22"/>
       <c r="B544" s="22"/>
       <c r="C544" s="22"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:3">
       <c r="A545" s="22"/>
       <c r="B545" s="22"/>
       <c r="C545" s="22"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:3">
       <c r="A546" s="22"/>
       <c r="B546" s="22"/>
       <c r="C546" s="22"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:3">
       <c r="A547" s="22"/>
       <c r="B547" s="22"/>
       <c r="C547" s="22"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:3">
       <c r="A548" s="22"/>
       <c r="B548" s="22"/>
       <c r="C548" s="22"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:3">
       <c r="A549" s="22"/>
       <c r="B549" s="22"/>
       <c r="C549" s="22"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:3">
       <c r="A550" s="22"/>
       <c r="B550" s="22"/>
       <c r="C550" s="22"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:3">
       <c r="A551" s="22"/>
       <c r="B551" s="22"/>
       <c r="C551" s="22"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:3">
       <c r="A552" s="22"/>
       <c r="B552" s="22"/>
       <c r="C552" s="22"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:3">
       <c r="A553" s="22"/>
       <c r="B553" s="22"/>
       <c r="C553" s="22"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:3">
       <c r="A554" s="22"/>
       <c r="B554" s="22"/>
       <c r="C554" s="22"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:3">
       <c r="A555" s="22"/>
       <c r="B555" s="22"/>
       <c r="C555" s="22"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:3">
       <c r="A556" s="22"/>
       <c r="B556" s="22"/>
       <c r="C556" s="22"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:3">
       <c r="A557" s="22"/>
       <c r="B557" s="22"/>
       <c r="C557" s="22"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:3">
       <c r="A558" s="22"/>
       <c r="B558" s="22"/>
       <c r="C558" s="22"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:3">
       <c r="A559" s="22"/>
       <c r="B559" s="22"/>
       <c r="C559" s="22"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:3">
       <c r="A560" s="22"/>
       <c r="B560" s="22"/>
       <c r="C560" s="22"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:3">
       <c r="A561" s="22"/>
       <c r="B561" s="22"/>
       <c r="C561" s="22"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:3">
       <c r="A562" s="22"/>
       <c r="B562" s="22"/>
       <c r="C562" s="22"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:3">
       <c r="A563" s="22"/>
       <c r="B563" s="22"/>
       <c r="C563" s="22"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:3">
       <c r="A564" s="22"/>
       <c r="B564" s="22"/>
       <c r="C564" s="22"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:3">
       <c r="A565" s="22"/>
       <c r="B565" s="22"/>
       <c r="C565" s="22"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:3">
       <c r="A566" s="22"/>
       <c r="B566" s="22"/>
       <c r="C566" s="22"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:3">
       <c r="A567" s="22"/>
       <c r="B567" s="22"/>
       <c r="C567" s="22"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:3">
       <c r="A568" s="22"/>
       <c r="B568" s="22"/>
       <c r="C568" s="22"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:3">
       <c r="A569" s="22"/>
       <c r="B569" s="22"/>
       <c r="C569" s="22"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:3">
       <c r="A570" s="22"/>
       <c r="B570" s="22"/>
       <c r="C570" s="22"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:3">
       <c r="A571" s="22"/>
       <c r="B571" s="22"/>
       <c r="C571" s="22"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:3">
       <c r="A572" s="22"/>
       <c r="B572" s="22"/>
       <c r="C572" s="22"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:3">
       <c r="A573" s="22"/>
       <c r="B573" s="22"/>
       <c r="C573" s="22"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:3">
       <c r="A574" s="22"/>
       <c r="B574" s="22"/>
       <c r="C574" s="22"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:3">
       <c r="A575" s="22"/>
       <c r="B575" s="22"/>
       <c r="C575" s="22"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:3">
       <c r="A576" s="22"/>
       <c r="B576" s="22"/>
       <c r="C576" s="22"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:3">
       <c r="A577" s="22"/>
       <c r="B577" s="22"/>
       <c r="C577" s="22"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:3">
       <c r="A578" s="22"/>
       <c r="B578" s="22"/>
       <c r="C578" s="22"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:3">
       <c r="A579" s="22"/>
       <c r="B579" s="22"/>
       <c r="C579" s="22"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:3">
       <c r="A580" s="22"/>
       <c r="B580" s="22"/>
       <c r="C580" s="22"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:3">
       <c r="A581" s="22"/>
       <c r="B581" s="22"/>
       <c r="C581" s="22"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:3">
       <c r="A582" s="22"/>
       <c r="B582" s="22"/>
       <c r="C582" s="22"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:3">
       <c r="A583" s="22"/>
       <c r="B583" s="22"/>
       <c r="C583" s="22"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:3">
       <c r="A584" s="22"/>
       <c r="B584" s="22"/>
       <c r="C584" s="22"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:3">
       <c r="A585" s="22"/>
       <c r="B585" s="22"/>
       <c r="C585" s="22"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:3">
       <c r="A586" s="22"/>
       <c r="B586" s="22"/>
       <c r="C586" s="22"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:3">
       <c r="A587" s="22"/>
       <c r="B587" s="22"/>
       <c r="C587" s="22"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:3">
       <c r="A588" s="22"/>
       <c r="B588" s="22"/>
       <c r="C588" s="22"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:3">
       <c r="A589" s="22"/>
       <c r="B589" s="22"/>
       <c r="C589" s="22"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:3">
       <c r="A590" s="22"/>
       <c r="B590" s="22"/>
       <c r="C590" s="22"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:3">
       <c r="A591" s="22"/>
       <c r="B591" s="22"/>
       <c r="C591" s="22"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:3">
       <c r="A592" s="22"/>
       <c r="B592" s="22"/>
       <c r="C592" s="22"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:3">
       <c r="A593" s="22"/>
       <c r="B593" s="22"/>
       <c r="C593" s="22"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:3">
       <c r="A594" s="22"/>
       <c r="B594" s="22"/>
       <c r="C594" s="22"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:3">
       <c r="A595" s="22"/>
       <c r="B595" s="22"/>
       <c r="C595" s="22"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:3">
       <c r="A596" s="22"/>
       <c r="B596" s="22"/>
       <c r="C596" s="22"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:3">
       <c r="A597" s="22"/>
       <c r="B597" s="22"/>
       <c r="C597" s="22"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:3">
       <c r="A598" s="22"/>
       <c r="B598" s="22"/>
       <c r="C598" s="22"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:3">
       <c r="A599" s="22"/>
       <c r="B599" s="22"/>
       <c r="C599" s="22"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:3">
       <c r="A600" s="22"/>
       <c r="B600" s="22"/>
       <c r="C600" s="22"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:3">
       <c r="A601" s="22"/>
       <c r="B601" s="22"/>
       <c r="C601" s="22"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:3">
       <c r="A602" s="22"/>
       <c r="B602" s="22"/>
       <c r="C602" s="22"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:3">
       <c r="A603" s="22"/>
       <c r="B603" s="22"/>
       <c r="C603" s="22"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:3">
       <c r="A604" s="22"/>
       <c r="B604" s="22"/>
       <c r="C604" s="22"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:3">
       <c r="A605" s="22"/>
       <c r="B605" s="22"/>
       <c r="C605" s="22"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:3">
       <c r="A606" s="22"/>
       <c r="B606" s="22"/>
       <c r="C606" s="22"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:3">
       <c r="A607" s="22"/>
       <c r="B607" s="22"/>
       <c r="C607" s="22"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:3">
       <c r="A608" s="22"/>
       <c r="B608" s="22"/>
       <c r="C608" s="22"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:3">
       <c r="A609" s="22"/>
       <c r="B609" s="22"/>
       <c r="C609" s="22"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:3">
       <c r="A610" s="22"/>
       <c r="B610" s="22"/>
       <c r="C610" s="22"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:3">
       <c r="A611" s="22"/>
       <c r="B611" s="22"/>
       <c r="C611" s="22"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:3">
       <c r="A612" s="22"/>
       <c r="B612" s="22"/>
       <c r="C612" s="22"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:3">
       <c r="A613" s="22"/>
       <c r="B613" s="22"/>
       <c r="C613" s="22"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:3">
       <c r="A614" s="22"/>
       <c r="B614" s="22"/>
       <c r="C614" s="22"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:3">
       <c r="A615" s="22"/>
       <c r="B615" s="22"/>
       <c r="C615" s="22"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:3">
       <c r="A616" s="22"/>
       <c r="B616" s="22"/>
       <c r="C616" s="22"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:3">
       <c r="A617" s="22"/>
       <c r="B617" s="22"/>
       <c r="C617" s="22"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:3">
       <c r="A618" s="22"/>
       <c r="B618" s="22"/>
       <c r="C618" s="22"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:3">
       <c r="A619" s="22"/>
       <c r="B619" s="22"/>
       <c r="C619" s="22"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:3">
       <c r="A620" s="22"/>
       <c r="B620" s="22"/>
       <c r="C620" s="22"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:3">
       <c r="A621" s="22"/>
       <c r="B621" s="22"/>
       <c r="C621" s="22"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:3">
       <c r="A622" s="22"/>
       <c r="B622" s="22"/>
       <c r="C622" s="22"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:3">
       <c r="A623" s="22"/>
       <c r="B623" s="22"/>
       <c r="C623" s="22"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:3">
       <c r="A624" s="22"/>
       <c r="B624" s="22"/>
       <c r="C624" s="22"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:3">
       <c r="A625" s="22"/>
       <c r="B625" s="22"/>
       <c r="C625" s="22"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:3">
       <c r="A626" s="22"/>
       <c r="B626" s="22"/>
       <c r="C626" s="22"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:3">
       <c r="A627" s="22"/>
       <c r="B627" s="22"/>
       <c r="C627" s="22"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:3">
       <c r="A628" s="22"/>
       <c r="B628" s="22"/>
       <c r="C628" s="22"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:3">
       <c r="A629" s="22"/>
       <c r="B629" s="22"/>
       <c r="C629" s="22"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:3">
       <c r="A630" s="22"/>
       <c r="B630" s="22"/>
       <c r="C630" s="22"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:3">
       <c r="A631" s="22"/>
       <c r="B631" s="22"/>
       <c r="C631" s="22"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:3">
       <c r="A632" s="22"/>
       <c r="B632" s="22"/>
       <c r="C632" s="22"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:3">
       <c r="A633" s="22"/>
       <c r="B633" s="22"/>
       <c r="C633" s="22"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:3">
       <c r="A634" s="22"/>
       <c r="B634" s="22"/>
       <c r="C634" s="22"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:3">
       <c r="A635" s="22"/>
       <c r="B635" s="22"/>
       <c r="C635" s="22"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:3">
       <c r="A636" s="22"/>
       <c r="B636" s="22"/>
       <c r="C636" s="22"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:3">
       <c r="A637" s="22"/>
       <c r="B637" s="22"/>
       <c r="C637" s="22"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:3">
       <c r="A638" s="22"/>
       <c r="B638" s="22"/>
       <c r="C638" s="22"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:3">
       <c r="A639" s="22"/>
       <c r="B639" s="22"/>
       <c r="C639" s="22"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:3">
       <c r="A640" s="22"/>
       <c r="B640" s="22"/>
       <c r="C640" s="22"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:3">
       <c r="A641" s="22"/>
       <c r="B641" s="22"/>
       <c r="C641" s="22"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:3">
       <c r="A642" s="22"/>
       <c r="B642" s="22"/>
       <c r="C642" s="22"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:3">
       <c r="A643" s="22"/>
       <c r="B643" s="22"/>
       <c r="C643" s="22"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:3">
       <c r="A644" s="22"/>
       <c r="B644" s="22"/>
       <c r="C644" s="22"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:3">
       <c r="A645" s="22"/>
       <c r="B645" s="22"/>
       <c r="C645" s="22"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:3">
       <c r="A646" s="22"/>
       <c r="B646" s="22"/>
       <c r="C646" s="22"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:3">
       <c r="A647" s="22"/>
       <c r="B647" s="22"/>
       <c r="C647" s="22"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:3">
       <c r="A648" s="22"/>
       <c r="B648" s="22"/>
       <c r="C648" s="22"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:3">
       <c r="A649" s="22"/>
       <c r="B649" s="22"/>
       <c r="C649" s="22"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:3">
       <c r="A650" s="22"/>
       <c r="B650" s="22"/>
       <c r="C650" s="22"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:3">
       <c r="A651" s="22"/>
       <c r="B651" s="22"/>
       <c r="C651" s="22"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:3">
       <c r="A652" s="22"/>
       <c r="B652" s="22"/>
       <c r="C652" s="22"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:3">
       <c r="A653" s="22"/>
       <c r="B653" s="22"/>
       <c r="C653" s="22"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:3">
       <c r="A654" s="22"/>
       <c r="B654" s="22"/>
       <c r="C654" s="22"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:3">
       <c r="A655" s="22"/>
       <c r="B655" s="22"/>
       <c r="C655" s="22"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:3">
       <c r="A656" s="22"/>
       <c r="B656" s="22"/>
       <c r="C656" s="22"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:3">
       <c r="A657" s="22"/>
       <c r="B657" s="22"/>
       <c r="C657" s="22"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:3">
       <c r="A658" s="22"/>
       <c r="B658" s="22"/>
       <c r="C658" s="22"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:3">
       <c r="A659" s="22"/>
       <c r="B659" s="22"/>
       <c r="C659" s="22"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:3">
       <c r="A660" s="22"/>
       <c r="B660" s="22"/>
       <c r="C660" s="22"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:3">
       <c r="A661" s="22"/>
       <c r="B661" s="22"/>
       <c r="C661" s="22"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:3">
       <c r="A662" s="22"/>
       <c r="B662" s="22"/>
       <c r="C662" s="22"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:3">
       <c r="A663" s="22"/>
       <c r="B663" s="22"/>
       <c r="C663" s="22"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:3">
       <c r="A664" s="22"/>
       <c r="B664" s="22"/>
       <c r="C664" s="22"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:3">
       <c r="A665" s="22"/>
       <c r="B665" s="22"/>
       <c r="C665" s="22"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:3">
       <c r="A666" s="22"/>
       <c r="B666" s="22"/>
       <c r="C666" s="22"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:3">
       <c r="A667" s="22"/>
       <c r="B667" s="22"/>
       <c r="C667" s="22"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:3">
       <c r="A668" s="22"/>
       <c r="B668" s="22"/>
       <c r="C668" s="22"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:3">
       <c r="A669" s="22"/>
       <c r="B669" s="22"/>
       <c r="C669" s="22"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:3">
       <c r="A670" s="22"/>
       <c r="B670" s="22"/>
       <c r="C670" s="22"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:3">
       <c r="A671" s="22"/>
       <c r="B671" s="22"/>
       <c r="C671" s="22"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:3">
       <c r="A672" s="22"/>
       <c r="B672" s="22"/>
       <c r="C672" s="22"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:3">
       <c r="A673" s="22"/>
       <c r="B673" s="22"/>
       <c r="C673" s="22"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:3">
       <c r="A674" s="22"/>
       <c r="B674" s="22"/>
       <c r="C674" s="22"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:3">
       <c r="A675" s="22"/>
       <c r="B675" s="22"/>
       <c r="C675" s="22"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:3">
       <c r="A676" s="22"/>
       <c r="B676" s="22"/>
       <c r="C676" s="22"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:3">
       <c r="A677" s="22"/>
       <c r="B677" s="22"/>
       <c r="C677" s="22"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:3">
       <c r="A678" s="22"/>
       <c r="B678" s="22"/>
       <c r="C678" s="22"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:3">
       <c r="A679" s="22"/>
       <c r="B679" s="22"/>
       <c r="C679" s="22"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:3">
       <c r="A680" s="22"/>
       <c r="B680" s="22"/>
       <c r="C680" s="22"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:3">
       <c r="A681" s="22"/>
       <c r="B681" s="22"/>
       <c r="C681" s="22"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:3">
       <c r="A682" s="22"/>
       <c r="B682" s="22"/>
       <c r="C682" s="22"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:3">
       <c r="A683" s="22"/>
       <c r="B683" s="22"/>
       <c r="C683" s="22"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:3">
       <c r="A684" s="22"/>
       <c r="B684" s="22"/>
       <c r="C684" s="22"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:3">
       <c r="A685" s="22"/>
       <c r="B685" s="22"/>
       <c r="C685" s="22"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:3">
       <c r="A686" s="22"/>
       <c r="B686" s="22"/>
       <c r="C686" s="22"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:3">
       <c r="A687" s="22"/>
       <c r="B687" s="22"/>
       <c r="C687" s="22"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:3">
       <c r="A688" s="22"/>
       <c r="B688" s="22"/>
       <c r="C688" s="22"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:3">
       <c r="A689" s="22"/>
       <c r="B689" s="22"/>
       <c r="C689" s="22"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:3">
       <c r="A690" s="22"/>
       <c r="B690" s="22"/>
       <c r="C690" s="22"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:3">
       <c r="A691" s="22"/>
       <c r="B691" s="22"/>
       <c r="C691" s="22"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:3">
       <c r="A692" s="22"/>
       <c r="B692" s="22"/>
       <c r="C692" s="22"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:3">
       <c r="A693" s="22"/>
       <c r="B693" s="22"/>
       <c r="C693" s="22"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:3">
       <c r="A694" s="22"/>
       <c r="B694" s="22"/>
       <c r="C694" s="22"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:3">
       <c r="A695" s="22"/>
       <c r="B695" s="22"/>
       <c r="C695" s="22"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:3">
       <c r="A696" s="22"/>
       <c r="B696" s="22"/>
       <c r="C696" s="22"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:3">
       <c r="A697" s="22"/>
       <c r="B697" s="22"/>
       <c r="C697" s="22"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:3">
       <c r="A698" s="22"/>
       <c r="B698" s="22"/>
       <c r="C698" s="22"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:3">
       <c r="A699" s="22"/>
       <c r="B699" s="22"/>
       <c r="C699" s="22"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:3">
       <c r="A700" s="22"/>
       <c r="B700" s="22"/>
       <c r="C700" s="22"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:3">
       <c r="A701" s="22"/>
       <c r="B701" s="22"/>
       <c r="C701" s="22"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:3">
       <c r="A702" s="22"/>
       <c r="B702" s="22"/>
       <c r="C702" s="22"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:3">
       <c r="A703" s="22"/>
       <c r="B703" s="22"/>
       <c r="C703" s="22"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:3">
       <c r="A704" s="22"/>
       <c r="B704" s="22"/>
       <c r="C704" s="22"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:3">
       <c r="A705" s="22"/>
       <c r="B705" s="22"/>
       <c r="C705" s="22"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:3">
       <c r="A706" s="22"/>
       <c r="B706" s="22"/>
       <c r="C706" s="22"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:3">
       <c r="A707" s="22"/>
       <c r="B707" s="22"/>
       <c r="C707" s="22"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:3">
       <c r="A708" s="22"/>
       <c r="B708" s="22"/>
       <c r="C708" s="22"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:3">
       <c r="A709" s="22"/>
       <c r="B709" s="22"/>
       <c r="C709" s="22"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:3">
       <c r="A710" s="22"/>
       <c r="B710" s="22"/>
       <c r="C710" s="22"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:3">
       <c r="A711" s="22"/>
       <c r="B711" s="22"/>
       <c r="C711" s="22"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:3">
       <c r="A712" s="22"/>
       <c r="B712" s="22"/>
       <c r="C712" s="22"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:3">
       <c r="A713" s="22"/>
       <c r="B713" s="22"/>
       <c r="C713" s="22"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:3">
       <c r="A714" s="22"/>
       <c r="B714" s="22"/>
       <c r="C714" s="22"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:3">
       <c r="A715" s="22"/>
       <c r="B715" s="22"/>
       <c r="C715" s="22"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:3">
       <c r="A716" s="22"/>
       <c r="B716" s="22"/>
       <c r="C716" s="22"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:3">
       <c r="A717" s="22"/>
       <c r="B717" s="22"/>
       <c r="C717" s="22"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:3">
       <c r="A718" s="22"/>
       <c r="B718" s="22"/>
       <c r="C718" s="22"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:3">
       <c r="A719" s="22"/>
       <c r="B719" s="22"/>
       <c r="C719" s="22"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:3">
       <c r="A720" s="22"/>
       <c r="B720" s="22"/>
       <c r="C720" s="22"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:3">
       <c r="A721" s="22"/>
       <c r="B721" s="22"/>
       <c r="C721" s="22"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:3">
       <c r="A722" s="22"/>
       <c r="B722" s="22"/>
       <c r="C722" s="22"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:3">
       <c r="A723" s="22"/>
       <c r="B723" s="22"/>
       <c r="C723" s="22"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:3">
       <c r="A724" s="22"/>
       <c r="B724" s="22"/>
       <c r="C724" s="22"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:3">
       <c r="A725" s="22"/>
       <c r="B725" s="22"/>
       <c r="C725" s="22"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:3">
       <c r="A726" s="22"/>
       <c r="B726" s="22"/>
       <c r="C726" s="22"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:3">
       <c r="A727" s="22"/>
       <c r="B727" s="22"/>
       <c r="C727" s="22"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:3">
       <c r="A728" s="22"/>
       <c r="B728" s="22"/>
       <c r="C728" s="22"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:3">
       <c r="A729" s="22"/>
       <c r="B729" s="22"/>
       <c r="C729" s="22"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:3">
       <c r="A730" s="22"/>
       <c r="B730" s="22"/>
       <c r="C730" s="22"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:3">
       <c r="A731" s="22"/>
       <c r="B731" s="22"/>
       <c r="C731" s="22"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:3">
       <c r="A732" s="22"/>
       <c r="B732" s="22"/>
       <c r="C732" s="22"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:3">
       <c r="A733" s="22"/>
       <c r="B733" s="22"/>
       <c r="C733" s="22"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:3">
       <c r="A734" s="22"/>
       <c r="B734" s="22"/>
       <c r="C734" s="22"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:3">
       <c r="A735" s="22"/>
       <c r="B735" s="22"/>
       <c r="C735" s="22"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:3">
       <c r="A736" s="22"/>
       <c r="B736" s="22"/>
       <c r="C736" s="22"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:3">
       <c r="A737" s="22"/>
       <c r="B737" s="22"/>
       <c r="C737" s="22"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:3">
       <c r="A738" s="22"/>
       <c r="B738" s="22"/>
       <c r="C738" s="22"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:3">
       <c r="A739" s="22"/>
       <c r="B739" s="22"/>
       <c r="C739" s="22"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:3">
       <c r="A740" s="22"/>
       <c r="B740" s="22"/>
       <c r="C740" s="22"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:3">
       <c r="A741" s="22"/>
       <c r="B741" s="22"/>
       <c r="C741" s="22"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:3">
       <c r="A742" s="22"/>
       <c r="B742" s="22"/>
       <c r="C742" s="22"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:3">
       <c r="A743" s="22"/>
       <c r="B743" s="22"/>
       <c r="C743" s="22"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:3">
       <c r="A744" s="22"/>
       <c r="B744" s="22"/>
       <c r="C744" s="22"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:3">
       <c r="A745" s="22"/>
       <c r="B745" s="22"/>
       <c r="C745" s="22"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:3">
       <c r="A746" s="22"/>
       <c r="B746" s="22"/>
       <c r="C746" s="22"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:3">
       <c r="A747" s="22"/>
       <c r="B747" s="22"/>
       <c r="C747" s="22"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:3">
       <c r="A748" s="22"/>
       <c r="B748" s="22"/>
       <c r="C748" s="22"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:3">
       <c r="A749" s="22"/>
       <c r="B749" s="22"/>
       <c r="C749" s="22"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:3">
       <c r="A750" s="22"/>
       <c r="B750" s="22"/>
       <c r="C750" s="22"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:3">
       <c r="A751" s="22"/>
       <c r="B751" s="22"/>
       <c r="C751" s="22"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:3">
       <c r="A752" s="22"/>
       <c r="B752" s="22"/>
       <c r="C752" s="22"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:3">
       <c r="A753" s="22"/>
       <c r="B753" s="22"/>
       <c r="C753" s="22"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:3">
       <c r="A754" s="22"/>
       <c r="B754" s="22"/>
       <c r="C754" s="22"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:3">
       <c r="A755" s="22"/>
       <c r="B755" s="22"/>
       <c r="C755" s="22"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:3">
       <c r="A756" s="22"/>
       <c r="B756" s="22"/>
       <c r="C756" s="22"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:3">
       <c r="A757" s="22"/>
       <c r="B757" s="22"/>
       <c r="C757" s="22"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:3">
       <c r="A758" s="22"/>
       <c r="B758" s="22"/>
       <c r="C758" s="22"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:3">
       <c r="A759" s="22"/>
       <c r="B759" s="22"/>
       <c r="C759" s="22"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:3">
       <c r="A760" s="22"/>
       <c r="B760" s="22"/>
       <c r="C760" s="22"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:3">
       <c r="A761" s="22"/>
       <c r="B761" s="22"/>
       <c r="C761" s="22"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:3">
       <c r="A762" s="22"/>
       <c r="B762" s="22"/>
       <c r="C762" s="22"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:3">
       <c r="A763" s="22"/>
       <c r="B763" s="22"/>
       <c r="C763" s="22"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:3">
       <c r="A764" s="22"/>
       <c r="B764" s="22"/>
       <c r="C764" s="22"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:3">
       <c r="A765" s="22"/>
       <c r="B765" s="22"/>
       <c r="C765" s="22"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:3">
       <c r="A766" s="22"/>
       <c r="B766" s="22"/>
       <c r="C766" s="22"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:3">
       <c r="A767" s="22"/>
       <c r="B767" s="22"/>
       <c r="C767" s="22"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:3">
       <c r="A768" s="22"/>
       <c r="B768" s="22"/>
       <c r="C768" s="22"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:3">
       <c r="A769" s="22"/>
       <c r="B769" s="22"/>
       <c r="C769" s="22"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:3">
       <c r="A770" s="22"/>
       <c r="B770" s="22"/>
       <c r="C770" s="22"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:3">
       <c r="A771" s="22"/>
       <c r="B771" s="22"/>
       <c r="C771" s="22"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:3">
       <c r="A772" s="22"/>
       <c r="B772" s="22"/>
       <c r="C772" s="22"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:3">
       <c r="A773" s="22"/>
       <c r="B773" s="22"/>
       <c r="C773" s="22"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:3">
       <c r="A774" s="22"/>
       <c r="B774" s="22"/>
       <c r="C774" s="22"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:3">
       <c r="A775" s="22"/>
       <c r="B775" s="22"/>
       <c r="C775" s="22"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:3">
       <c r="A776" s="22"/>
       <c r="B776" s="22"/>
       <c r="C776" s="22"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:3">
       <c r="A777" s="22"/>
       <c r="B777" s="22"/>
       <c r="C777" s="22"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:3">
       <c r="A778" s="22"/>
       <c r="B778" s="22"/>
       <c r="C778" s="22"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:3">
       <c r="A779" s="22"/>
       <c r="B779" s="22"/>
       <c r="C779" s="22"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:3">
       <c r="A780" s="22"/>
       <c r="B780" s="22"/>
       <c r="C780" s="22"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:3">
       <c r="A781" s="22"/>
       <c r="B781" s="22"/>
       <c r="C781" s="22"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:3">
       <c r="A782" s="22"/>
       <c r="B782" s="22"/>
       <c r="C782" s="22"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:3">
       <c r="A783" s="22"/>
       <c r="B783" s="22"/>
       <c r="C783" s="22"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:3">
       <c r="A784" s="22"/>
       <c r="B784" s="22"/>
       <c r="C784" s="22"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:3">
       <c r="A785" s="22"/>
       <c r="B785" s="22"/>
       <c r="C785" s="22"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:3">
       <c r="A786" s="22"/>
       <c r="B786" s="22"/>
       <c r="C786" s="22"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:3">
       <c r="A787" s="22"/>
       <c r="B787" s="22"/>
       <c r="C787" s="22"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:3">
       <c r="A788" s="22"/>
       <c r="B788" s="22"/>
       <c r="C788" s="22"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:3">
       <c r="A789" s="22"/>
       <c r="B789" s="22"/>
       <c r="C789" s="22"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:3">
       <c r="A790" s="22"/>
       <c r="B790" s="22"/>
       <c r="C790" s="22"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:3">
       <c r="A791" s="22"/>
       <c r="B791" s="22"/>
       <c r="C791" s="22"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:3">
       <c r="A792" s="22"/>
       <c r="B792" s="22"/>
       <c r="C792" s="22"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:3">
       <c r="A793" s="22"/>
       <c r="B793" s="22"/>
       <c r="C793" s="22"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:3">
       <c r="A794" s="22"/>
       <c r="B794" s="22"/>
       <c r="C794" s="22"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:3">
       <c r="A795" s="22"/>
       <c r="B795" s="22"/>
       <c r="C795" s="22"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:3">
       <c r="A796" s="22"/>
       <c r="B796" s="22"/>
       <c r="C796" s="22"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:3">
       <c r="A797" s="22"/>
       <c r="B797" s="22"/>
       <c r="C797" s="22"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:3">
       <c r="A798" s="22"/>
       <c r="B798" s="22"/>
       <c r="C798" s="22"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:3">
       <c r="A799" s="22"/>
       <c r="B799" s="22"/>
       <c r="C799" s="22"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:3">
       <c r="A800" s="22"/>
       <c r="B800" s="22"/>
       <c r="C800" s="22"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:3">
       <c r="A801" s="22"/>
       <c r="B801" s="22"/>
       <c r="C801" s="22"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:3">
       <c r="A802" s="22"/>
       <c r="B802" s="22"/>
       <c r="C802" s="22"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:3">
       <c r="A803" s="22"/>
       <c r="B803" s="22"/>
       <c r="C803" s="22"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:3">
       <c r="A804" s="22"/>
       <c r="B804" s="22"/>
       <c r="C804" s="22"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:3">
       <c r="A805" s="22"/>
       <c r="B805" s="22"/>
       <c r="C805" s="22"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:3">
       <c r="A806" s="22"/>
       <c r="B806" s="22"/>
       <c r="C806" s="22"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:3">
       <c r="A807" s="22"/>
       <c r="B807" s="22"/>
       <c r="C807" s="22"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:3">
       <c r="A808" s="22"/>
       <c r="B808" s="22"/>
       <c r="C808" s="22"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:3">
       <c r="A809" s="22"/>
       <c r="B809" s="22"/>
       <c r="C809" s="22"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:3">
       <c r="A810" s="22"/>
       <c r="B810" s="22"/>
       <c r="C810" s="22"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:3">
       <c r="A811" s="22"/>
       <c r="B811" s="22"/>
       <c r="C811" s="22"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:3">
       <c r="A812" s="22"/>
       <c r="B812" s="22"/>
       <c r="C812" s="22"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:3">
       <c r="A813" s="22"/>
       <c r="B813" s="22"/>
       <c r="C813" s="22"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:3">
       <c r="A814" s="22"/>
       <c r="B814" s="22"/>
       <c r="C814" s="22"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:3">
       <c r="A815" s="22"/>
       <c r="B815" s="22"/>
       <c r="C815" s="22"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:3">
       <c r="A816" s="22"/>
       <c r="B816" s="22"/>
       <c r="C816" s="22"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:3">
       <c r="A817" s="22"/>
       <c r="B817" s="22"/>
       <c r="C817" s="22"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:3">
       <c r="A818" s="22"/>
       <c r="B818" s="22"/>
       <c r="C818" s="22"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:3">
       <c r="A819" s="22"/>
       <c r="B819" s="22"/>
       <c r="C819" s="22"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:3">
       <c r="A820" s="22"/>
       <c r="B820" s="22"/>
       <c r="C820" s="22"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:3">
       <c r="A821" s="22"/>
       <c r="B821" s="22"/>
       <c r="C821" s="22"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:3">
       <c r="A822" s="22"/>
       <c r="B822" s="22"/>
       <c r="C822" s="22"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:3">
       <c r="A823" s="22"/>
       <c r="B823" s="22"/>
       <c r="C823" s="22"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:3">
       <c r="A824" s="22"/>
       <c r="B824" s="22"/>
       <c r="C824" s="22"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:3">
       <c r="A825" s="22"/>
       <c r="B825" s="22"/>
       <c r="C825" s="22"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:3">
       <c r="A826" s="22"/>
       <c r="B826" s="22"/>
       <c r="C826" s="22"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:3">
       <c r="A827" s="22"/>
       <c r="B827" s="22"/>
       <c r="C827" s="22"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:3">
       <c r="A828" s="22"/>
       <c r="B828" s="22"/>
       <c r="C828" s="22"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:3">
       <c r="A829" s="22"/>
       <c r="B829" s="22"/>
       <c r="C829" s="22"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:3">
       <c r="A830" s="22"/>
       <c r="B830" s="22"/>
       <c r="C830" s="22"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:3">
       <c r="A831" s="22"/>
       <c r="B831" s="22"/>
       <c r="C831" s="22"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:3">
       <c r="A832" s="22"/>
       <c r="B832" s="22"/>
       <c r="C832" s="22"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:3">
       <c r="A833" s="22"/>
       <c r="B833" s="22"/>
       <c r="C833" s="22"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:3">
       <c r="A834" s="22"/>
       <c r="B834" s="22"/>
       <c r="C834" s="22"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:3">
       <c r="A835" s="22"/>
       <c r="B835" s="22"/>
       <c r="C835" s="22"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:3">
       <c r="A836" s="22"/>
       <c r="B836" s="22"/>
       <c r="C836" s="22"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:3">
       <c r="A837" s="22"/>
       <c r="B837" s="22"/>
       <c r="C837" s="22"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:3">
       <c r="A838" s="22"/>
       <c r="B838" s="22"/>
       <c r="C838" s="22"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:3">
       <c r="A839" s="22"/>
       <c r="B839" s="22"/>
       <c r="C839" s="22"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:3">
       <c r="A840" s="22"/>
       <c r="B840" s="22"/>
       <c r="C840" s="22"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:3">
       <c r="A841" s="22"/>
       <c r="B841" s="22"/>
       <c r="C841" s="22"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:3">
       <c r="A842" s="22"/>
       <c r="B842" s="22"/>
       <c r="C842" s="22"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:3">
       <c r="A843" s="22"/>
       <c r="B843" s="22"/>
       <c r="C843" s="22"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:3">
       <c r="A844" s="22"/>
       <c r="B844" s="22"/>
       <c r="C844" s="22"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:3">
       <c r="A845" s="22"/>
       <c r="B845" s="22"/>
       <c r="C845" s="22"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:3">
       <c r="A846" s="22"/>
       <c r="B846" s="22"/>
       <c r="C846" s="22"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:3">
       <c r="A847" s="22"/>
       <c r="B847" s="22"/>
       <c r="C847" s="22"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:3">
       <c r="A848" s="22"/>
       <c r="B848" s="22"/>
       <c r="C848" s="22"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:3">
       <c r="A849" s="22"/>
       <c r="B849" s="22"/>
       <c r="C849" s="22"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:3">
       <c r="A850" s="22"/>
       <c r="B850" s="22"/>
       <c r="C850" s="22"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:3">
       <c r="A851" s="22"/>
       <c r="B851" s="22"/>
       <c r="C851" s="22"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:3">
       <c r="A852" s="22"/>
       <c r="B852" s="22"/>
       <c r="C852" s="22"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:3">
       <c r="A853" s="22"/>
       <c r="B853" s="22"/>
       <c r="C853" s="22"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:3">
       <c r="A854" s="22"/>
       <c r="B854" s="22"/>
       <c r="C854" s="22"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:3">
       <c r="A855" s="22"/>
       <c r="B855" s="22"/>
       <c r="C855" s="22"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:3">
       <c r="A856" s="22"/>
       <c r="B856" s="22"/>
       <c r="C856" s="22"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:3">
       <c r="A857" s="22"/>
       <c r="B857" s="22"/>
       <c r="C857" s="22"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:3">
       <c r="A858" s="22"/>
       <c r="B858" s="22"/>
       <c r="C858" s="22"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:3">
       <c r="A859" s="22"/>
       <c r="B859" s="22"/>
       <c r="C859" s="22"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:3">
       <c r="A860" s="22"/>
       <c r="B860" s="22"/>
       <c r="C860" s="22"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:3">
       <c r="A861" s="22"/>
       <c r="B861" s="22"/>
       <c r="C861" s="22"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:3">
       <c r="A862" s="22"/>
       <c r="B862" s="22"/>
       <c r="C862" s="22"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:3">
       <c r="A863" s="22"/>
       <c r="B863" s="22"/>
       <c r="C863" s="22"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:3">
       <c r="A864" s="22"/>
       <c r="B864" s="22"/>
       <c r="C864" s="22"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:3">
       <c r="A865" s="22"/>
       <c r="B865" s="22"/>
       <c r="C865" s="22"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:3">
       <c r="A866" s="22"/>
       <c r="B866" s="22"/>
       <c r="C866" s="22"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:3">
       <c r="A867" s="22"/>
       <c r="B867" s="22"/>
       <c r="C867" s="22"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:3">
       <c r="A868" s="22"/>
       <c r="B868" s="22"/>
       <c r="C868" s="22"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:3">
       <c r="A869" s="22"/>
       <c r="B869" s="22"/>
       <c r="C869" s="22"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:3">
       <c r="A870" s="22"/>
       <c r="B870" s="22"/>
       <c r="C870" s="22"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:3">
       <c r="A871" s="22"/>
       <c r="B871" s="22"/>
       <c r="C871" s="22"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:3">
       <c r="A872" s="22"/>
       <c r="B872" s="22"/>
       <c r="C872" s="22"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:3">
       <c r="A873" s="22"/>
       <c r="B873" s="22"/>
       <c r="C873" s="22"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:3">
       <c r="A874" s="22"/>
       <c r="B874" s="22"/>
       <c r="C874" s="22"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:3">
       <c r="A875" s="22"/>
       <c r="B875" s="22"/>
       <c r="C875" s="22"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:3">
       <c r="A876" s="22"/>
       <c r="B876" s="22"/>
       <c r="C876" s="22"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:3">
       <c r="A877" s="22"/>
       <c r="B877" s="22"/>
       <c r="C877" s="22"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:3">
       <c r="A878" s="22"/>
       <c r="B878" s="22"/>
       <c r="C878" s="22"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:3">
       <c r="A879" s="22"/>
       <c r="B879" s="22"/>
       <c r="C879" s="22"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:3">
       <c r="A880" s="22"/>
       <c r="B880" s="22"/>
       <c r="C880" s="22"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:3">
       <c r="A881" s="22"/>
       <c r="B881" s="22"/>
       <c r="C881" s="22"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:3">
       <c r="A882" s="22"/>
       <c r="B882" s="22"/>
       <c r="C882" s="22"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:3">
       <c r="A883" s="22"/>
       <c r="B883" s="22"/>
       <c r="C883" s="22"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:3">
       <c r="A884" s="22"/>
       <c r="B884" s="22"/>
       <c r="C884" s="22"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:3">
       <c r="A885" s="22"/>
       <c r="B885" s="22"/>
       <c r="C885" s="22"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:3">
       <c r="A886" s="22"/>
       <c r="B886" s="22"/>
       <c r="C886" s="22"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:3">
       <c r="A887" s="22"/>
       <c r="B887" s="22"/>
       <c r="C887" s="22"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:3">
       <c r="A888" s="22"/>
       <c r="B888" s="22"/>
       <c r="C888" s="22"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:3">
       <c r="A889" s="22"/>
       <c r="B889" s="22"/>
       <c r="C889" s="22"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:3">
       <c r="A890" s="22"/>
       <c r="B890" s="22"/>
       <c r="C890" s="22"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:3">
       <c r="A891" s="22"/>
       <c r="B891" s="22"/>
       <c r="C891" s="22"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:3">
       <c r="A892" s="22"/>
       <c r="B892" s="22"/>
       <c r="C892" s="22"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:3">
       <c r="A893" s="22"/>
       <c r="B893" s="22"/>
       <c r="C893" s="22"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:3">
       <c r="A894" s="22"/>
       <c r="B894" s="22"/>
       <c r="C894" s="22"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:3">
       <c r="A895" s="22"/>
       <c r="B895" s="22"/>
       <c r="C895" s="22"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:3">
       <c r="A896" s="22"/>
       <c r="B896" s="22"/>
       <c r="C896" s="22"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:3">
       <c r="A897" s="22"/>
       <c r="B897" s="22"/>
       <c r="C897" s="22"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:3">
       <c r="A898" s="22"/>
       <c r="B898" s="22"/>
       <c r="C898" s="22"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:3">
       <c r="A899" s="22"/>
       <c r="B899" s="22"/>
       <c r="C899" s="22"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:3">
       <c r="A900" s="22"/>
       <c r="B900" s="22"/>
       <c r="C900" s="22"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:3">
       <c r="A901" s="22"/>
       <c r="B901" s="22"/>
       <c r="C901" s="22"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:3">
       <c r="A902" s="22"/>
       <c r="B902" s="22"/>
       <c r="C902" s="22"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:3">
       <c r="A903" s="22"/>
       <c r="B903" s="22"/>
       <c r="C903" s="22"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:3">
       <c r="A904" s="22"/>
       <c r="B904" s="22"/>
       <c r="C904" s="22"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:3">
       <c r="A905" s="22"/>
       <c r="B905" s="22"/>
       <c r="C905" s="22"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:3">
       <c r="A906" s="22"/>
       <c r="B906" s="22"/>
       <c r="C906" s="22"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:3">
       <c r="A907" s="22"/>
       <c r="B907" s="22"/>
       <c r="C907" s="22"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:3">
       <c r="A908" s="22"/>
       <c r="B908" s="22"/>
       <c r="C908" s="22"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:3">
       <c r="A909" s="22"/>
       <c r="B909" s="22"/>
       <c r="C909" s="22"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:3">
       <c r="A910" s="22"/>
       <c r="B910" s="22"/>
       <c r="C910" s="22"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:3">
       <c r="A911" s="22"/>
       <c r="B911" s="22"/>
       <c r="C911" s="22"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:3">
       <c r="A912" s="22"/>
       <c r="B912" s="22"/>
       <c r="C912" s="22"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:3">
       <c r="A913" s="22"/>
       <c r="B913" s="22"/>
       <c r="C913" s="22"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:3">
       <c r="A914" s="22"/>
       <c r="B914" s="22"/>
       <c r="C914" s="22"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:3">
       <c r="A915" s="22"/>
       <c r="B915" s="22"/>
       <c r="C915" s="22"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:3">
       <c r="A916" s="22"/>
       <c r="B916" s="22"/>
       <c r="C916" s="22"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:3">
       <c r="A917" s="22"/>
       <c r="B917" s="22"/>
       <c r="C917" s="22"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:3">
       <c r="A918" s="22"/>
       <c r="B918" s="22"/>
       <c r="C918" s="22"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:3">
       <c r="A919" s="22"/>
       <c r="B919" s="22"/>
       <c r="C919" s="22"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:3">
       <c r="A920" s="22"/>
       <c r="B920" s="22"/>
       <c r="C920" s="22"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:3">
       <c r="A921" s="22"/>
       <c r="B921" s="22"/>
       <c r="C921" s="22"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:3">
       <c r="A922" s="22"/>
       <c r="B922" s="22"/>
       <c r="C922" s="22"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:3">
       <c r="A923" s="22"/>
       <c r="B923" s="22"/>
       <c r="C923" s="22"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:3">
       <c r="A924" s="22"/>
       <c r="B924" s="22"/>
       <c r="C924" s="22"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:3">
       <c r="A925" s="22"/>
       <c r="B925" s="22"/>
       <c r="C925" s="22"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:3">
       <c r="A926" s="22"/>
       <c r="B926" s="22"/>
       <c r="C926" s="22"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:3">
       <c r="A927" s="22"/>
       <c r="B927" s="22"/>
       <c r="C927" s="22"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:3">
       <c r="A928" s="22"/>
       <c r="B928" s="22"/>
       <c r="C928" s="22"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:3">
       <c r="A929" s="22"/>
       <c r="B929" s="22"/>
       <c r="C929" s="22"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:3">
       <c r="A930" s="22"/>
       <c r="B930" s="22"/>
       <c r="C930" s="22"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:3">
       <c r="A931" s="22"/>
       <c r="B931" s="22"/>
       <c r="C931" s="22"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:3">
       <c r="A932" s="22"/>
       <c r="B932" s="22"/>
       <c r="C932" s="22"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:3">
       <c r="A933" s="22"/>
       <c r="B933" s="22"/>
       <c r="C933" s="22"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:3">
       <c r="A934" s="22"/>
       <c r="B934" s="22"/>
       <c r="C934" s="22"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:3">
       <c r="A935" s="22"/>
       <c r="B935" s="22"/>
       <c r="C935" s="22"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:3">
       <c r="A936" s="22"/>
       <c r="B936" s="22"/>
       <c r="C936" s="22"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:3">
       <c r="A937" s="22"/>
       <c r="B937" s="22"/>
       <c r="C937" s="22"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:3">
       <c r="A938" s="22"/>
       <c r="B938" s="22"/>
       <c r="C938" s="22"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:3">
       <c r="A939" s="22"/>
       <c r="B939" s="22"/>
       <c r="C939" s="22"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:3">
       <c r="A940" s="22"/>
       <c r="B940" s="22"/>
       <c r="C940" s="22"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:3">
       <c r="A941" s="22"/>
       <c r="B941" s="22"/>
       <c r="C941" s="22"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:3">
       <c r="A942" s="22"/>
       <c r="B942" s="22"/>
       <c r="C942" s="22"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:3">
       <c r="A943" s="22"/>
       <c r="B943" s="22"/>
       <c r="C943" s="22"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:3">
       <c r="A944" s="22"/>
       <c r="B944" s="22"/>
       <c r="C944" s="22"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:3">
       <c r="A945" s="22"/>
       <c r="B945" s="22"/>
       <c r="C945" s="22"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:3">
       <c r="A946" s="22"/>
       <c r="B946" s="22"/>
       <c r="C946" s="22"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:3">
       <c r="A947" s="22"/>
       <c r="B947" s="22"/>
       <c r="C947" s="22"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:3">
       <c r="A948" s="22"/>
       <c r="B948" s="22"/>
       <c r="C948" s="22"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:3">
       <c r="A949" s="22"/>
       <c r="B949" s="22"/>
       <c r="C949" s="22"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:3">
       <c r="A950" s="22"/>
       <c r="B950" s="22"/>
       <c r="C950" s="22"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:3">
       <c r="A951" s="22"/>
       <c r="B951" s="22"/>
       <c r="C951" s="22"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:3">
       <c r="A952" s="22"/>
       <c r="B952" s="22"/>
       <c r="C952" s="22"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:3">
       <c r="A953" s="22"/>
       <c r="B953" s="22"/>
       <c r="C953" s="22"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:3">
       <c r="A954" s="22"/>
       <c r="B954" s="22"/>
       <c r="C954" s="22"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:3">
       <c r="A955" s="22"/>
       <c r="B955" s="22"/>
       <c r="C955" s="22"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:3">
       <c r="A956" s="22"/>
       <c r="B956" s="22"/>
       <c r="C956" s="22"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:3">
       <c r="A957" s="22"/>
       <c r="B957" s="22"/>
       <c r="C957" s="22"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:3">
       <c r="A958" s="22"/>
       <c r="B958" s="22"/>
       <c r="C958" s="22"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:3">
       <c r="A959" s="22"/>
       <c r="B959" s="22"/>
       <c r="C959" s="22"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:3">
       <c r="A960" s="22"/>
       <c r="B960" s="22"/>
       <c r="C960" s="22"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:3">
       <c r="A961" s="22"/>
       <c r="B961" s="22"/>
       <c r="C961" s="22"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:3">
       <c r="A962" s="22"/>
       <c r="B962" s="22"/>
       <c r="C962" s="22"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:3">
       <c r="A963" s="22"/>
       <c r="B963" s="22"/>
       <c r="C963" s="22"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:3">
       <c r="A964" s="22"/>
       <c r="B964" s="22"/>
       <c r="C964" s="22"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:3">
       <c r="A965" s="22"/>
       <c r="B965" s="22"/>
       <c r="C965" s="22"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:3">
       <c r="A966" s="22"/>
       <c r="B966" s="22"/>
       <c r="C966" s="22"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:3">
       <c r="A967" s="22"/>
       <c r="B967" s="22"/>
       <c r="C967" s="22"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:3">
       <c r="A968" s="22"/>
       <c r="B968" s="22"/>
       <c r="C968" s="22"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:3">
       <c r="A969" s="22"/>
       <c r="B969" s="22"/>
       <c r="C969" s="22"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:3">
       <c r="A970" s="22"/>
       <c r="B970" s="22"/>
       <c r="C970" s="22"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:3">
       <c r="A971" s="22"/>
       <c r="B971" s="22"/>
       <c r="C971" s="22"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:3">
       <c r="A972" s="22"/>
       <c r="B972" s="22"/>
       <c r="C972" s="22"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:3">
       <c r="A973" s="22"/>
       <c r="B973" s="22"/>
       <c r="C973" s="22"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:3">
       <c r="A974" s="22"/>
       <c r="B974" s="22"/>
       <c r="C974" s="22"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:3">
       <c r="A975" s="22"/>
       <c r="B975" s="22"/>
       <c r="C975" s="22"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:3">
       <c r="A976" s="22"/>
       <c r="B976" s="22"/>
       <c r="C976" s="22"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:3">
       <c r="A977" s="22"/>
       <c r="B977" s="22"/>
       <c r="C977" s="22"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:3">
       <c r="A978" s="22"/>
       <c r="B978" s="22"/>
       <c r="C978" s="22"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:3">
       <c r="A979" s="22"/>
       <c r="B979" s="22"/>
       <c r="C979" s="22"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:3">
       <c r="A980" s="22"/>
       <c r="B980" s="22"/>
       <c r="C980" s="22"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:3">
       <c r="A981" s="22"/>
       <c r="B981" s="22"/>
       <c r="C981" s="22"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:3">
       <c r="A982" s="22"/>
       <c r="B982" s="22"/>
       <c r="C982" s="22"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:3">
       <c r="A983" s="22"/>
       <c r="B983" s="22"/>
       <c r="C983" s="22"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:3">
       <c r="A984" s="22"/>
       <c r="B984" s="22"/>
       <c r="C984" s="22"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:3">
       <c r="A985" s="22"/>
       <c r="B985" s="22"/>
       <c r="C985" s="22"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:3">
       <c r="A986" s="22"/>
       <c r="B986" s="22"/>
       <c r="C986" s="22"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:3">
       <c r="A987" s="22"/>
       <c r="B987" s="22"/>
       <c r="C987" s="22"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:3">
       <c r="A988" s="22"/>
       <c r="B988" s="22"/>
       <c r="C988" s="22"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:3">
       <c r="A989" s="22"/>
       <c r="B989" s="22"/>
       <c r="C989" s="22"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:3">
       <c r="A990" s="22"/>
       <c r="B990" s="22"/>
       <c r="C990" s="22"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:3">
       <c r="A991" s="22"/>
       <c r="B991" s="22"/>
       <c r="C991" s="22"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:3">
       <c r="A992" s="22"/>
       <c r="B992" s="22"/>
       <c r="C992" s="22"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:3">
       <c r="A993" s="22"/>
       <c r="B993" s="22"/>
       <c r="C993" s="22"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:3">
       <c r="A994" s="22"/>
       <c r="B994" s="22"/>
       <c r="C994" s="22"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:3">
       <c r="A995" s="22"/>
       <c r="B995" s="22"/>
       <c r="C995" s="22"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:3">
       <c r="A996" s="22"/>
       <c r="B996" s="22"/>
       <c r="C996" s="22"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:3">
       <c r="A997" s="22"/>
       <c r="B997" s="22"/>
       <c r="C997" s="22"/>
     </row>
-    <row r="998">
-      <c r="A998" s="22"/>
-      <c r="B998" s="22"/>
-      <c r="C998" s="22"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="22"/>
-      <c r="B999" s="22"/>
-      <c r="C999" s="22"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="22"/>
-      <c r="B1000" s="22"/>
-      <c r="C1000" s="22"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="22"/>
-      <c r="B1001" s="22"/>
-      <c r="C1001" s="22"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="C9"/>
-    <hyperlink r:id="rId9" ref="C10"/>
-    <hyperlink r:id="rId10" ref="C11"/>
-    <hyperlink r:id="rId11" ref="C12"/>
-    <hyperlink r:id="rId12" ref="C13"/>
-    <hyperlink r:id="rId13" ref="C14"/>
-    <hyperlink r:id="rId14" ref="C15"/>
-    <hyperlink r:id="rId15" ref="C16"/>
-    <hyperlink r:id="rId16" ref="C17"/>
-    <hyperlink r:id="rId17" ref="C18"/>
-    <hyperlink r:id="rId18" ref="C19"/>
-    <hyperlink r:id="rId19" ref="C20"/>
-    <hyperlink r:id="rId20" ref="C21"/>
-    <hyperlink r:id="rId21" ref="C22"/>
-    <hyperlink r:id="rId22" ref="C23"/>
-    <hyperlink r:id="rId23" ref="C24"/>
-    <hyperlink r:id="rId24" ref="C25"/>
-    <hyperlink r:id="rId25" ref="C26"/>
-    <hyperlink r:id="rId26" ref="C27"/>
-    <hyperlink r:id="rId27" ref="C28"/>
-    <hyperlink r:id="rId28" ref="C29"/>
-    <hyperlink r:id="rId29" ref="C30"/>
-    <hyperlink r:id="rId30" ref="C31"/>
-    <hyperlink r:id="rId31" ref="C32"/>
-    <hyperlink r:id="rId32" ref="C33"/>
-    <hyperlink r:id="rId33" ref="C34"/>
-    <hyperlink r:id="rId34" ref="C35"/>
-    <hyperlink r:id="rId35" ref="C36"/>
-    <hyperlink r:id="rId36" ref="C37"/>
-    <hyperlink r:id="rId37" ref="C38"/>
-    <hyperlink r:id="rId38" ref="C39"/>
-    <hyperlink r:id="rId39" ref="C40"/>
-    <hyperlink r:id="rId40" ref="C41"/>
-    <hyperlink r:id="rId41" ref="C42"/>
-    <hyperlink r:id="rId42" ref="C43"/>
-    <hyperlink r:id="rId43" ref="C44"/>
-    <hyperlink r:id="rId44" ref="C45"/>
-    <hyperlink r:id="rId45" ref="C46"/>
-    <hyperlink r:id="rId46" ref="C47"/>
-    <hyperlink r:id="rId47" ref="C48"/>
-    <hyperlink r:id="rId48" ref="C49"/>
-    <hyperlink r:id="rId49" ref="C50"/>
-    <hyperlink r:id="rId50" ref="C51"/>
-    <hyperlink r:id="rId51" ref="C52"/>
-    <hyperlink r:id="rId52" ref="C53"/>
-    <hyperlink r:id="rId53" ref="C54"/>
-    <hyperlink r:id="rId54" ref="C55"/>
-    <hyperlink r:id="rId55" ref="C56"/>
-    <hyperlink r:id="rId56" ref="C57"/>
-    <hyperlink r:id="rId57" ref="C58"/>
-    <hyperlink r:id="rId58" ref="C59"/>
-    <hyperlink r:id="rId59" ref="C60"/>
-    <hyperlink r:id="rId60" ref="C61"/>
-    <hyperlink r:id="rId61" ref="C62"/>
-    <hyperlink r:id="rId62" ref="C63"/>
-    <hyperlink r:id="rId63" ref="C64"/>
-    <hyperlink r:id="rId64" ref="C65"/>
-    <hyperlink r:id="rId65" ref="C66"/>
-    <hyperlink r:id="rId66" ref="C67"/>
-    <hyperlink r:id="rId67" ref="C68"/>
-    <hyperlink r:id="rId68" ref="C69"/>
-    <hyperlink r:id="rId69" ref="C70"/>
-    <hyperlink r:id="rId70" ref="C71"/>
-    <hyperlink r:id="rId71" ref="C72"/>
-    <hyperlink r:id="rId72" ref="C73"/>
-    <hyperlink r:id="rId73" ref="C74"/>
-    <hyperlink r:id="rId74" ref="C75"/>
-    <hyperlink r:id="rId75" ref="C76"/>
-    <hyperlink r:id="rId76" ref="C77"/>
-    <hyperlink r:id="rId77" ref="C78"/>
-    <hyperlink r:id="rId78" ref="C79"/>
-    <hyperlink r:id="rId79" ref="C80"/>
-    <hyperlink r:id="rId80" ref="C81"/>
-    <hyperlink r:id="rId81" ref="C82"/>
-    <hyperlink r:id="rId82" ref="C83"/>
-    <hyperlink r:id="rId83" ref="C84"/>
-    <hyperlink r:id="rId84" ref="C85"/>
-    <hyperlink r:id="rId85" ref="C86"/>
-    <hyperlink r:id="rId86" ref="C87"/>
-    <hyperlink r:id="rId87" ref="C88"/>
-    <hyperlink r:id="rId88" ref="C89"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
   </hyperlinks>
-  <drawing r:id="rId89"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TranslateEstimator/evaluation/ted_talks.xlsx
+++ b/TranslateEstimator/evaluation/ted_talks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\googletranslateeval\TranslateEstimator\evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elad\Documents\googletranslateeval\TranslateEstimator\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA7FC96-81A7-4030-AD4C-4C74D5174C35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A7B3C-086B-4465-9DE8-54348A9DBEA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
     <t>אני לא שם עלייך</t>
   </si>
   <si>
-    <t>I don't give a dam</t>
+    <t>I don't give a damn</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:C997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B96"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
